--- a/code/whole_experiment/100_steady_ex.xlsx
+++ b/code/whole_experiment/100_steady_ex.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J233"/>
+  <dimension ref="A1:J265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,16 +492,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6970260806168719</v>
+        <v>0.7227367879190503</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1511730957982351</v>
+        <v>0.08486611863800128</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7358932831954039</v>
+        <v>0.730475392664351</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7356918262957703</v>
+        <v>0.7316893766616017</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -513,7 +513,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.948042470845708</v>
+        <v>0.9438587107372512</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -526,16 +526,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7979764093491444</v>
+        <v>0.7530010061001</v>
       </c>
       <c r="C3" t="n">
-        <v>0.187754400920092</v>
+        <v>0.2190013066089232</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7352862758204008</v>
+        <v>0.7331183783761938</v>
       </c>
       <c r="E3" t="n">
-        <v>0.738915223395219</v>
+        <v>0.7369749519626104</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -547,7 +547,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.948042470845708</v>
+        <v>0.9438587107372512</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -560,19 +560,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6444029892173366</v>
+        <v>0.5415243584708824</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04737243074508385</v>
+        <v>0.08136838513348613</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6165313949415452</v>
+        <v>0.5892205624743676</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5953270828098078</v>
+        <v>0.5070890141008868</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7115275298463596</v>
+        <v>0.5526914348530616</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -581,7 +581,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.948042470845708</v>
+        <v>0.9438587107372512</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -594,19 +594,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5867881347320285</v>
+        <v>0.5780328511939135</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1442694546328355</v>
+        <v>0.04608515429506756</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5750908577524811</v>
+        <v>0.5985885030391683</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5897910770486803</v>
+        <v>0.6056449539845512</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5516629731670102</v>
+        <v>0.620588900836887</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -615,7 +615,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.948042470845708</v>
+        <v>0.9438587107372512</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -628,19 +628,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5662392652781177</v>
+        <v>0.6309021809871028</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4019649283651044</v>
+        <v>0.06379063435783931</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5672330258349518</v>
+        <v>0.5601736426437494</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5672330258349518</v>
+        <v>0.5605763745643089</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6072242436879025</v>
+        <v>0.6949351797588467</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -649,7 +649,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.948042470845708</v>
+        <v>0.9438587107372512</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -662,19 +662,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.542456663110177</v>
+        <v>0.5679329140792391</v>
       </c>
       <c r="C7" t="n">
-        <v>0.304512454123036</v>
+        <v>0.2682084553982839</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5313989954140816</v>
+        <v>0.5956128112513663</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5305889604873437</v>
+        <v>0.5952905528692307</v>
       </c>
       <c r="F7" t="n">
-        <v>0.542456663110177</v>
+        <v>0.5679329140792391</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -683,7 +683,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0.948042470845708</v>
+        <v>0.9438587107372512</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -696,19 +696,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03297204656035328</v>
+        <v>0.03661127132600422</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06362427260393708</v>
+        <v>0.05824606832152798</v>
       </c>
       <c r="D8" t="n">
-        <v>0.07388288005197048</v>
+        <v>0.03936192679575039</v>
       </c>
       <c r="E8" t="n">
-        <v>0.09355142535051036</v>
+        <v>0.04266832004710048</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03297204656035328</v>
+        <v>0.03661127132600422</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -717,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.948042470845708</v>
+        <v>0.9438587107372512</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -730,19 +730,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.626493584083088</v>
+        <v>0.6328956783135645</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07640338113038239</v>
+        <v>0.09559888338266567</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5726783739127956</v>
+        <v>0.6248229442444307</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5688493208195082</v>
+        <v>0.6381618143086851</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7057992107850162</v>
+        <v>0.7348830987862698</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -751,7 +751,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0.948042470845708</v>
+        <v>0.9438587107372512</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -764,19 +764,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8807111791204161</v>
+        <v>0.7332629433318563</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06267969123022528</v>
+        <v>0.2358515166553057</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8736046092906014</v>
+        <v>0.6787430952708053</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8736046092906014</v>
+        <v>0.7118184729263209</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0.7549329197424839</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -785,7 +785,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8659301845289453</v>
+        <v>0.8833427003736347</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -798,19 +798,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8734015345268542</v>
+        <v>0.8158641360564804</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04494559207834635</v>
+        <v>0.3030875563821328</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8742138236100483</v>
+        <v>0.8322003965211493</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8736046092906014</v>
+        <v>0.8421538267562539</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -819,7 +819,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8659301845289453</v>
+        <v>0.8833427003736347</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -832,19 +832,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4671475026859004</v>
+        <v>0.4866682568287876</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04474064605767471</v>
+        <v>0.1277850683494812</v>
       </c>
       <c r="D12" t="n">
-        <v>0.472871085401506</v>
+        <v>0.4918108734265624</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4927696294652292</v>
+        <v>0.4296865392305375</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5361286211757065</v>
+        <v>0.4626055291727379</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -853,7 +853,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8659301845289453</v>
+        <v>0.8833427003736347</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -866,19 +866,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5842537319397629</v>
+        <v>0.5655571587590867</v>
       </c>
       <c r="C13" t="n">
-        <v>0.054037377326058</v>
+        <v>0.1632461304436734</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5799711814272075</v>
+        <v>0.5871549665228997</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5791656492629993</v>
+        <v>0.5893436593188343</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5842814147787865</v>
+        <v>0.6025079618947433</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -887,7 +887,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8659301845289453</v>
+        <v>0.8833427003736347</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4647118719762312</v>
+        <v>0.5033556061599995</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06972093487175789</v>
+        <v>0.04078214767718982</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4637419334454547</v>
+        <v>0.5402795733933715</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4637419334454547</v>
+        <v>0.5418164733679461</v>
       </c>
       <c r="F14" t="n">
-        <v>0.542342651175412</v>
+        <v>0.5454517675451551</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -921,7 +921,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8659301845289453</v>
+        <v>0.8833427003736347</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
@@ -934,19 +934,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.5823824819510111</v>
+        <v>0.4990917214180411</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3013567448674835</v>
+        <v>0.4441739849324288</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5423815977783211</v>
+        <v>0.5145284678627809</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5445730967285729</v>
+        <v>0.5299096739423877</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5823824819510111</v>
+        <v>0.4990917214180411</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -955,7 +955,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8659301845289453</v>
+        <v>0.8833427003736347</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
@@ -968,19 +968,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.006725765936827525</v>
+        <v>0.125130013567782</v>
       </c>
       <c r="C16" t="n">
-        <v>0.007003543123588231</v>
+        <v>0.03209544118018007</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.004886325010655069</v>
+        <v>0.1202701742281991</v>
       </c>
       <c r="E16" t="n">
-        <v>0.002700606817958537</v>
+        <v>0.1654188622648795</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.006725765936827525</v>
+        <v>0.125130013567782</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -989,7 +989,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8659301845289453</v>
+        <v>0.8833427003736347</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1002,19 +1002,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.5441588570250576</v>
+        <v>0.5382823850822118</v>
       </c>
       <c r="C17" t="n">
-        <v>0.06648670318999257</v>
+        <v>0.07625954662626312</v>
       </c>
       <c r="D17" t="n">
-        <v>0.489537784625255</v>
+        <v>0.5643658127990451</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4849107874899724</v>
+        <v>0.5728547804031733</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5575742418280245</v>
+        <v>0.6147849607800835</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1023,7 +1023,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8659301845289453</v>
+        <v>0.8833427003736347</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1036,19 +1036,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.824435972036658</v>
+        <v>0.7293233363164007</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08734900404732721</v>
+        <v>0.3292223507189223</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7836409176130067</v>
+        <v>0.6357837018346013</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8104130635135485</v>
+        <v>0.6752066870928137</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8272641262906169</v>
+        <v>0.8680845472272265</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1057,7 +1057,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6892723213176392</v>
+        <v>0.812622337715349</v>
       </c>
       <c r="J18" t="n">
         <v>2</v>
@@ -1070,19 +1070,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.7289148987862454</v>
+        <v>0.7217098456093977</v>
       </c>
       <c r="C19" t="n">
-        <v>0.06532597043941515</v>
+        <v>0.4001071906766652</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7090279733718515</v>
+        <v>0.7822197304721398</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7508598759587145</v>
+        <v>0.7851193615085019</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9799980408243232</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1091,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6892723213176392</v>
+        <v>0.812622337715349</v>
       </c>
       <c r="J19" t="n">
         <v>2</v>
@@ -1104,19 +1104,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.2595558465289727</v>
+        <v>0.3894615585284013</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02403481932320135</v>
+        <v>0.04375022776760652</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2311331146280741</v>
+        <v>0.3797877887591204</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1915612625893096</v>
+        <v>0.3516665847977609</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2229647334769334</v>
+        <v>0.3793748469267675</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6892723213176392</v>
+        <v>0.812622337715349</v>
       </c>
       <c r="J20" t="n">
         <v>2</v>
@@ -1138,19 +1138,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1391464178606175</v>
+        <v>0.434912751278649</v>
       </c>
       <c r="C21" t="n">
-        <v>0.00819377085800187</v>
+        <v>0.05982570785348732</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1559862219112347</v>
+        <v>0.4585017014738545</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1378786170783974</v>
+        <v>0.4587441446785981</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1396528143330505</v>
+        <v>0.4872069635651689</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1159,7 +1159,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6892723213176392</v>
+        <v>0.812622337715349</v>
       </c>
       <c r="J21" t="n">
         <v>2</v>
@@ -1172,19 +1172,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2025467753167376</v>
+        <v>0.3981884123802615</v>
       </c>
       <c r="C22" t="n">
-        <v>0.09733489712329253</v>
+        <v>0.07734606977683957</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1941937446442379</v>
+        <v>0.4116396528591233</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2365642355771569</v>
+        <v>0.4133769703989591</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2206501467239371</v>
+        <v>0.4487951146572637</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1193,7 +1193,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6892723213176392</v>
+        <v>0.812622337715349</v>
       </c>
       <c r="J22" t="n">
         <v>2</v>
@@ -1206,19 +1206,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.229465529876459</v>
+        <v>0.4332965473736442</v>
       </c>
       <c r="C23" t="n">
-        <v>0.009124197692400464</v>
+        <v>0.05019601558622009</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1974540162047831</v>
+        <v>0.4322489544865873</v>
       </c>
       <c r="E23" t="n">
-        <v>0.236484512019092</v>
+        <v>0.4651302951212845</v>
       </c>
       <c r="F23" t="n">
-        <v>0.229465529876459</v>
+        <v>0.4167417092656199</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1227,7 +1227,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>0.6892723213176392</v>
+        <v>0.812622337715349</v>
       </c>
       <c r="J23" t="n">
         <v>2</v>
@@ -1240,19 +1240,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.007187899939499214</v>
+        <v>0.058670794687785</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01496392697948421</v>
+        <v>0.04516574701799526</v>
       </c>
       <c r="D24" t="n">
-        <v>0.00458559439451661</v>
+        <v>0.09737237068868357</v>
       </c>
       <c r="E24" t="n">
-        <v>0.02189127914108535</v>
+        <v>0.1264313497670333</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.007187899939499214</v>
+        <v>0.058670794687785</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1261,7 +1261,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6892723213176392</v>
+        <v>0.812622337715349</v>
       </c>
       <c r="J24" t="n">
         <v>2</v>
@@ -1274,19 +1274,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2262721637795963</v>
+        <v>0.4323095275550172</v>
       </c>
       <c r="C25" t="n">
-        <v>0.08537169982034476</v>
+        <v>0.0783597450316767</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2168413068787874</v>
+        <v>0.4603260438299978</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2253932003589362</v>
+        <v>0.4561437190598149</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2726765982054496</v>
+        <v>0.512810510550789</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1295,7 +1295,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>0.6892723213176392</v>
+        <v>0.812622337715349</v>
       </c>
       <c r="J25" t="n">
         <v>2</v>
@@ -1308,28 +1308,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.8376690748785112</v>
+        <v>0.6868910503430418</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4401215188634264</v>
+        <v>0.2205148913042152</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7623944198933594</v>
+        <v>0.5239227908462458</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7575693379028978</v>
+        <v>0.5417589088259019</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7732484144841771</v>
+        <v>0.7024845464536609</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0.9839990282628657</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0.9919992163297293</v>
       </c>
       <c r="I26" t="n">
-        <v>0.6683674054101032</v>
+        <v>0.653071916919327</v>
       </c>
       <c r="J26" t="n">
         <v>3</v>
@@ -1342,28 +1342,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.7185624337386997</v>
+        <v>0.777319952290658</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01720031738516744</v>
+        <v>0.2138109605760957</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7153842603390764</v>
+        <v>0.7431737005105694</v>
       </c>
       <c r="E27" t="n">
-        <v>0.740792052192801</v>
+        <v>0.7941227846146296</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9799991380099884</v>
+        <v>0.8705203562611915</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0.9839990282628657</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0.9919992163297293</v>
       </c>
       <c r="I27" t="n">
-        <v>0.6683674054101032</v>
+        <v>0.653071916919327</v>
       </c>
       <c r="J27" t="n">
         <v>3</v>
@@ -1376,28 +1376,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.2940969988857028</v>
+        <v>0.2352355480897402</v>
       </c>
       <c r="C28" t="n">
-        <v>0.07210470985790041</v>
+        <v>0.04780292368134254</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3001961111954169</v>
+        <v>0.2749374610689583</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1994080582395129</v>
+        <v>0.2781844777931045</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2434510040427295</v>
+        <v>0.269014661869222</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0.9839990282628657</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0.9919992163297293</v>
       </c>
       <c r="I28" t="n">
-        <v>0.6683674054101032</v>
+        <v>0.653071916919327</v>
       </c>
       <c r="J28" t="n">
         <v>3</v>
@@ -1410,28 +1410,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.3402527128246603</v>
+        <v>0.2995227888044715</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1058648079681795</v>
+        <v>0.0138482433761894</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3370982848858865</v>
+        <v>0.270299894650742</v>
       </c>
       <c r="E29" t="n">
-        <v>0.3379038376342128</v>
+        <v>0.2749339782396029</v>
       </c>
       <c r="F29" t="n">
-        <v>0.356288191891086</v>
+        <v>0.2782881526461311</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0.9839990282628657</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0.9919992163297293</v>
       </c>
       <c r="I29" t="n">
-        <v>0.6683674054101032</v>
+        <v>0.653071916919327</v>
       </c>
       <c r="J29" t="n">
         <v>3</v>
@@ -1444,28 +1444,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.3275791050407064</v>
+        <v>0.2724686099925521</v>
       </c>
       <c r="C30" t="n">
-        <v>0.122790319587622</v>
+        <v>0.07367549271983542</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3518908697531001</v>
+        <v>0.2738795595179748</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3603172734099801</v>
+        <v>0.2763690516864022</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3610549029998911</v>
+        <v>0.2730515016721051</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0.9839990282628657</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0.9919992163297293</v>
       </c>
       <c r="I30" t="n">
-        <v>0.6683674054101032</v>
+        <v>0.653071916919327</v>
       </c>
       <c r="J30" t="n">
         <v>3</v>
@@ -1478,28 +1478,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.3779733780067226</v>
+        <v>0.2688804375273333</v>
       </c>
       <c r="C31" t="n">
-        <v>0.02411393677018293</v>
+        <v>0.03371898678421499</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4175502242735305</v>
+        <v>0.2442680472477844</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4175502242735305</v>
+        <v>0.2477605195600142</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3779733780067226</v>
+        <v>0.2683942785710331</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0.9839990282628657</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0.9919992163297293</v>
       </c>
       <c r="I31" t="n">
-        <v>0.6683674054101032</v>
+        <v>0.653071916919327</v>
       </c>
       <c r="J31" t="n">
         <v>3</v>
@@ -1512,28 +1512,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.06644736561490845</v>
+        <v>0.05678313286820381</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01286463236877102</v>
+        <v>0.02368726930347522</v>
       </c>
       <c r="D32" t="n">
-        <v>0.06131596833575383</v>
+        <v>0.02762010513931803</v>
       </c>
       <c r="E32" t="n">
-        <v>0.09970976036534061</v>
+        <v>0.0471286059240112</v>
       </c>
       <c r="F32" t="n">
-        <v>0.06644736561490845</v>
+        <v>0.05678313286820381</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0.9839990282628657</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0.9919992163297293</v>
       </c>
       <c r="I32" t="n">
-        <v>0.6683674054101032</v>
+        <v>0.653071916919327</v>
       </c>
       <c r="J32" t="n">
         <v>3</v>
@@ -1546,28 +1546,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.3005912773624568</v>
+        <v>0.2534164002005899</v>
       </c>
       <c r="C33" t="n">
-        <v>0.02594651911942697</v>
+        <v>0.0507049127182114</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3022809203550583</v>
+        <v>0.2580840745135423</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3453754632955038</v>
+        <v>0.2606699524466852</v>
       </c>
       <c r="F33" t="n">
-        <v>0.363030056829924</v>
+        <v>0.3346122793852637</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0.9839990282628657</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0.9919992163297293</v>
       </c>
       <c r="I33" t="n">
-        <v>0.6683674054101032</v>
+        <v>0.653071916919327</v>
       </c>
       <c r="J33" t="n">
         <v>3</v>
@@ -1580,28 +1580,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.6296884025853552</v>
+        <v>0.5934188083240134</v>
       </c>
       <c r="C34" t="n">
-        <v>0.05923733658428416</v>
+        <v>0.1287911802717642</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6006636060467402</v>
+        <v>0.5832386507084426</v>
       </c>
       <c r="E34" t="n">
-        <v>0.6676928484463189</v>
+        <v>0.6027482186913599</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3158453864747253</v>
+        <v>0.5059267772699273</v>
       </c>
       <c r="G34" t="n">
-        <v>0.004357282164549475</v>
+        <v>0.8019975031210986</v>
       </c>
       <c r="H34" t="n">
-        <v>0.5304166703985068</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>0.470926908725991</v>
+        <v>0.5871951153949683</v>
       </c>
       <c r="J34" t="n">
         <v>4</v>
@@ -1614,28 +1614,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.5875960135712869</v>
+        <v>0.6748601658041429</v>
       </c>
       <c r="C35" t="n">
-        <v>0.08987717731966563</v>
+        <v>0.1870961636810868</v>
       </c>
       <c r="D35" t="n">
-        <v>0.8312962706006255</v>
+        <v>0.6508740066218809</v>
       </c>
       <c r="E35" t="n">
-        <v>0.8660389120069096</v>
+        <v>0.6562999093508695</v>
       </c>
       <c r="F35" t="n">
-        <v>0.5698128194771039</v>
+        <v>0.769149674315271</v>
       </c>
       <c r="G35" t="n">
-        <v>0.004357282164549475</v>
+        <v>0.8019975031210986</v>
       </c>
       <c r="H35" t="n">
-        <v>0.5304166703985068</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>0.470926908725991</v>
+        <v>0.5871951153949683</v>
       </c>
       <c r="J35" t="n">
         <v>4</v>
@@ -1648,28 +1648,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1508818911404267</v>
+        <v>0.2194873324511891</v>
       </c>
       <c r="C36" t="n">
-        <v>0.01475105412547601</v>
+        <v>0.02644276116274327</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1763713038600162</v>
+        <v>0.2126154683433164</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1859879507731798</v>
+        <v>0.1527046159518295</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1851302571534986</v>
+        <v>0.1861429659954425</v>
       </c>
       <c r="G36" t="n">
-        <v>0.004357282164549475</v>
+        <v>0.8019975031210986</v>
       </c>
       <c r="H36" t="n">
-        <v>0.5304166703985068</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>0.470926908725991</v>
+        <v>0.5871951153949683</v>
       </c>
       <c r="J36" t="n">
         <v>4</v>
@@ -1682,28 +1682,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.001368712363424434</v>
+        <v>0.1356109759591244</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.008026097046703706</v>
+        <v>-5.123719237340536e-05</v>
       </c>
       <c r="D37" t="n">
-        <v>0.004275450956372127</v>
+        <v>0.1447160212882266</v>
       </c>
       <c r="E37" t="n">
-        <v>0.001765295920741113</v>
+        <v>0.1583677355612357</v>
       </c>
       <c r="F37" t="n">
-        <v>0.03810363617728623</v>
+        <v>0.156241280749158</v>
       </c>
       <c r="G37" t="n">
-        <v>0.004357282164549475</v>
+        <v>0.8019975031210986</v>
       </c>
       <c r="H37" t="n">
-        <v>0.5304166703985068</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>0.470926908725991</v>
+        <v>0.5871951153949683</v>
       </c>
       <c r="J37" t="n">
         <v>4</v>
@@ -1716,28 +1716,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.211324773762342</v>
+        <v>0.3092977475144792</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.01673475763091369</v>
+        <v>0.07831337752631509</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1572605771990703</v>
+        <v>0.2817402591957734</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1771421076736078</v>
+        <v>0.2772588785348046</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1379479569310049</v>
+        <v>0.2707739533589583</v>
       </c>
       <c r="G38" t="n">
-        <v>0.004357282164549475</v>
+        <v>0.8019975031210986</v>
       </c>
       <c r="H38" t="n">
-        <v>0.5304166703985068</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>0.470926908725991</v>
+        <v>0.5871951153949683</v>
       </c>
       <c r="J38" t="n">
         <v>4</v>
@@ -1750,28 +1750,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.03748380544593488</v>
+        <v>0.2305788767229885</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.01159998139532751</v>
+        <v>0.01917376504967549</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1663506485892932</v>
+        <v>0.2310754130330714</v>
       </c>
       <c r="E39" t="n">
-        <v>0.1727792769642493</v>
+        <v>0.2477319590773241</v>
       </c>
       <c r="F39" t="n">
-        <v>0.03748380544593488</v>
+        <v>0.2305788767229885</v>
       </c>
       <c r="G39" t="n">
-        <v>0.004357282164549475</v>
+        <v>0.8019975031210986</v>
       </c>
       <c r="H39" t="n">
-        <v>0.5304166703985068</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>0.470926908725991</v>
+        <v>0.5871951153949683</v>
       </c>
       <c r="J39" t="n">
         <v>4</v>
@@ -1784,28 +1784,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.01441480250253713</v>
+        <v>0.05801585713703301</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0230242047170085</v>
+        <v>0.0391117200922748</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0002180648957333659</v>
+        <v>0.0587133316588981</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.0008947559197758446</v>
+        <v>0.08202261191659574</v>
       </c>
       <c r="F40" t="n">
-        <v>0.01441480250253713</v>
+        <v>0.05801585713703301</v>
       </c>
       <c r="G40" t="n">
-        <v>0.004357282164549475</v>
+        <v>0.8019975031210986</v>
       </c>
       <c r="H40" t="n">
-        <v>0.5304166703985068</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>0.470926908725991</v>
+        <v>0.5871951153949683</v>
       </c>
       <c r="J40" t="n">
         <v>4</v>
@@ -1818,28 +1818,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2339251282424051</v>
+        <v>0.2637152412221265</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0534825933053162</v>
+        <v>0.04957682869501233</v>
       </c>
       <c r="D41" t="n">
-        <v>0.2360268762677485</v>
+        <v>0.2559567939130328</v>
       </c>
       <c r="E41" t="n">
-        <v>0.2040369407368747</v>
+        <v>0.2721505136880618</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.007890258360473098</v>
+        <v>0.311639962549591</v>
       </c>
       <c r="G41" t="n">
-        <v>0.004357282164549475</v>
+        <v>0.8019975031210986</v>
       </c>
       <c r="H41" t="n">
-        <v>0.5304166703985068</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>0.470926908725991</v>
+        <v>0.5871951153949683</v>
       </c>
       <c r="J41" t="n">
         <v>4</v>
@@ -1852,28 +1852,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.320822779100976</v>
+        <v>0.7769716469029433</v>
       </c>
       <c r="C42" t="n">
-        <v>0.04550773865174117</v>
+        <v>0.08923298452846887</v>
       </c>
       <c r="D42" t="n">
-        <v>0.3247483456866374</v>
+        <v>0.6935426462955562</v>
       </c>
       <c r="E42" t="n">
-        <v>0.3102320945956962</v>
+        <v>0.7412141528243282</v>
       </c>
       <c r="F42" t="n">
-        <v>0.3040866677229058</v>
+        <v>0.8386622561543783</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.009240902671431288</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0.5592476505749409</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>0.4166229059037642</v>
+        <v>0.7004556381860749</v>
       </c>
       <c r="J42" t="n">
         <v>5</v>
@@ -1886,28 +1886,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.3869369719396948</v>
+        <v>0.8250321963177619</v>
       </c>
       <c r="C43" t="n">
-        <v>0.02560076550846517</v>
+        <v>0.09725705339972716</v>
       </c>
       <c r="D43" t="n">
-        <v>0.3185903167524272</v>
+        <v>0.8540743258978185</v>
       </c>
       <c r="E43" t="n">
-        <v>0.2962807495686198</v>
+        <v>0.8540743258978185</v>
       </c>
       <c r="F43" t="n">
-        <v>0.231706825709214</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.009240902671431288</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0.5592476505749409</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>0.4166229059037642</v>
+        <v>0.7004556381860749</v>
       </c>
       <c r="J43" t="n">
         <v>5</v>
@@ -1920,28 +1920,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.1363235461692916</v>
+        <v>0.3670466107347891</v>
       </c>
       <c r="C44" t="n">
-        <v>0.01346061252367413</v>
+        <v>0.03859735408050031</v>
       </c>
       <c r="D44" t="n">
-        <v>0.163279110484484</v>
+        <v>0.407858942010261</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1067350285336094</v>
+        <v>0.3485749150492762</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1383901048414876</v>
+        <v>0.3223692634920086</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.009240902671431288</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.5592476505749409</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4166229059037642</v>
+        <v>0.7004556381860749</v>
       </c>
       <c r="J44" t="n">
         <v>5</v>
@@ -1954,28 +1954,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.01538445369963128</v>
+        <v>0.3991094295974547</v>
       </c>
       <c r="C45" t="n">
-        <v>0.00846440387657826</v>
+        <v>0.02068745003482445</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0425254380997865</v>
+        <v>0.4280977140619792</v>
       </c>
       <c r="E45" t="n">
-        <v>0.03868483788736718</v>
+        <v>0.4304855463443676</v>
       </c>
       <c r="F45" t="n">
-        <v>0.05418920213345478</v>
+        <v>0.4339721493097747</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.009240902671431288</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0.5592476505749409</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>0.4166229059037642</v>
+        <v>0.7004556381860749</v>
       </c>
       <c r="J45" t="n">
         <v>5</v>
@@ -1988,28 +1988,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.158363151660428</v>
+        <v>0.3721740123569014</v>
       </c>
       <c r="C46" t="n">
-        <v>0.01358090016589273</v>
+        <v>0.3183046392865839</v>
       </c>
       <c r="D46" t="n">
-        <v>0.1684514752518769</v>
+        <v>0.3725339454973273</v>
       </c>
       <c r="E46" t="n">
-        <v>0.1914310830836068</v>
+        <v>0.3739731750709132</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1547522887504491</v>
+        <v>0.408009773439398</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.009240902671431288</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0.5592476505749409</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>0.4166229059037642</v>
+        <v>0.7004556381860749</v>
       </c>
       <c r="J46" t="n">
         <v>5</v>
@@ -2022,28 +2022,28 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.09299718729135623</v>
+        <v>0.3463163776688722</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.01168622702992222</v>
+        <v>0.02823864506888787</v>
       </c>
       <c r="D47" t="n">
-        <v>0.182038054995356</v>
+        <v>0.338733913889981</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1807760673977784</v>
+        <v>0.3560671583046364</v>
       </c>
       <c r="F47" t="n">
-        <v>0.08875530383497776</v>
+        <v>0.3463163776688722</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.009240902671431288</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0.5592476505749409</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>0.4166229059037642</v>
+        <v>0.7004556381860749</v>
       </c>
       <c r="J47" t="n">
         <v>5</v>
@@ -2056,28 +2056,28 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-0.004341901011417914</v>
+        <v>0.1190457910897809</v>
       </c>
       <c r="C48" t="n">
-        <v>0.02971320298726701</v>
+        <v>0.02729682072751376</v>
       </c>
       <c r="D48" t="n">
-        <v>0.01573745526857252</v>
+        <v>0.08197106005559454</v>
       </c>
       <c r="E48" t="n">
-        <v>0.007847399778364558</v>
+        <v>0.1358372444590424</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.004341901011417914</v>
+        <v>0.1190457910897809</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.009240902671431288</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0.5592476505749409</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>0.4166229059037642</v>
+        <v>0.7004556381860749</v>
       </c>
       <c r="J48" t="n">
         <v>5</v>
@@ -2090,28 +2090,28 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.1648490937566452</v>
+        <v>0.3944831899331049</v>
       </c>
       <c r="C49" t="n">
-        <v>0.02978533176610697</v>
+        <v>0.06786600313600638</v>
       </c>
       <c r="D49" t="n">
-        <v>0.1791029150612214</v>
+        <v>0.4102365353206063</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1678824381381188</v>
+        <v>0.4251303507201442</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1824777690347346</v>
+        <v>0.5147477468732473</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.009240902671431288</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0.5592476505749409</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>0.4166229059037642</v>
+        <v>0.7004556381860749</v>
       </c>
       <c r="J49" t="n">
         <v>5</v>
@@ -2124,28 +2124,28 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>0.7662174981230333</v>
       </c>
       <c r="C50" t="n">
-        <v>0.07866469995075619</v>
+        <v>0.1095804012397464</v>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>0.8516722327067436</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>0.8705582052560731</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>0.7267011662257508</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>0.3241876519833301</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0.9768888317695499</v>
       </c>
       <c r="I50" t="n">
-        <v>0.9221855383767976</v>
+        <v>0.6054589214313969</v>
       </c>
       <c r="J50" t="n">
         <v>6</v>
@@ -2158,28 +2158,28 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>0.8301510319921324</v>
       </c>
       <c r="C51" t="n">
-        <v>0.2612613654996882</v>
+        <v>0.1687522593289379</v>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>0.8925462479690948</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>0.9207984172264997</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>0.8118706600491213</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0.3241876519833301</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0.9768888317695499</v>
       </c>
       <c r="I51" t="n">
-        <v>0.9221855383767976</v>
+        <v>0.6054589214313969</v>
       </c>
       <c r="J51" t="n">
         <v>6</v>
@@ -2192,28 +2192,28 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.5577734228717581</v>
+        <v>0.1622477595964366</v>
       </c>
       <c r="C52" t="n">
-        <v>0.2590954337136959</v>
+        <v>0.03803727228008057</v>
       </c>
       <c r="D52" t="n">
-        <v>0.5503062961409901</v>
+        <v>0.1649656603392467</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5503062961409901</v>
+        <v>0.1460613439136148</v>
       </c>
       <c r="F52" t="n">
-        <v>0.5577734228717581</v>
+        <v>0.140994671206206</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>0.3241876519833301</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0.9768888317695499</v>
       </c>
       <c r="I52" t="n">
-        <v>0.9221855383767976</v>
+        <v>0.6054589214313969</v>
       </c>
       <c r="J52" t="n">
         <v>6</v>
@@ -2226,28 +2226,28 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.5577734228717581</v>
+        <v>0.07852922815236324</v>
       </c>
       <c r="C53" t="n">
-        <v>0.07636906429368109</v>
+        <v>0.002302031637534852</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5577734228717581</v>
+        <v>0.09808403256576595</v>
       </c>
       <c r="E53" t="n">
-        <v>0.5577734228717581</v>
+        <v>0.08694490423247918</v>
       </c>
       <c r="F53" t="n">
-        <v>0.5577734228717581</v>
+        <v>0.07130365438524142</v>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>0.3241876519833301</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0.9768888317695499</v>
       </c>
       <c r="I53" t="n">
-        <v>0.9221855383767976</v>
+        <v>0.6054589214313969</v>
       </c>
       <c r="J53" t="n">
         <v>6</v>
@@ -2260,28 +2260,28 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.5577734228717581</v>
+        <v>0.1728620072397232</v>
       </c>
       <c r="C54" t="n">
-        <v>0.2578258805937274</v>
+        <v>0.01895144873924501</v>
       </c>
       <c r="D54" t="n">
-        <v>0.5577734228717581</v>
+        <v>0.1798695766973419</v>
       </c>
       <c r="E54" t="n">
-        <v>0.5577734228717581</v>
+        <v>0.1704259767103609</v>
       </c>
       <c r="F54" t="n">
-        <v>0.5577734228717581</v>
+        <v>0.1579237037894253</v>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>0.3241876519833301</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0.9768888317695499</v>
       </c>
       <c r="I54" t="n">
-        <v>0.9221855383767976</v>
+        <v>0.6054589214313969</v>
       </c>
       <c r="J54" t="n">
         <v>6</v>
@@ -2294,28 +2294,28 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.5577734228717581</v>
+        <v>0.1497072648961476</v>
       </c>
       <c r="C55" t="n">
-        <v>0.4761816629429017</v>
+        <v>-0.002614634705339037</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5577734228717581</v>
+        <v>0.1675292149880077</v>
       </c>
       <c r="E55" t="n">
-        <v>0.5577734228717581</v>
+        <v>0.1748941543286638</v>
       </c>
       <c r="F55" t="n">
-        <v>0.5577734228717581</v>
+        <v>0.1497072648961476</v>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>0.3241876519833301</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0.9768888317695499</v>
       </c>
       <c r="I55" t="n">
-        <v>0.9221855383767976</v>
+        <v>0.6054589214313969</v>
       </c>
       <c r="J55" t="n">
         <v>6</v>
@@ -2328,28 +2328,28 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01520252495216261</v>
+        <v>0.01662643649325218</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1043788971524662</v>
+        <v>0.007458316797612788</v>
       </c>
       <c r="D56" t="n">
-        <v>0.05549726614399323</v>
+        <v>0.01381207708243513</v>
       </c>
       <c r="E56" t="n">
-        <v>0.07348696603300671</v>
+        <v>0.0169667895587631</v>
       </c>
       <c r="F56" t="n">
-        <v>0.01520252495216261</v>
+        <v>0.01662643649325218</v>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>0.3241876519833301</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0.9768888317695499</v>
       </c>
       <c r="I56" t="n">
-        <v>0.9221855383767976</v>
+        <v>0.6054589214313969</v>
       </c>
       <c r="J56" t="n">
         <v>6</v>
@@ -2362,28 +2362,28 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.5577734228717581</v>
+        <v>0.1815562183738517</v>
       </c>
       <c r="C57" t="n">
-        <v>0.2257900569909489</v>
+        <v>0.04446154974836364</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5577734228717581</v>
+        <v>0.1826488175112511</v>
       </c>
       <c r="E57" t="n">
-        <v>0.5577734228717581</v>
+        <v>0.1804797524414903</v>
       </c>
       <c r="F57" t="n">
-        <v>0.5577734228717581</v>
+        <v>0.1847475165356217</v>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>0.3241876519833301</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0.9768888317695499</v>
       </c>
       <c r="I57" t="n">
-        <v>0.9221855383767976</v>
+        <v>0.6054589214313969</v>
       </c>
       <c r="J57" t="n">
         <v>6</v>
@@ -2396,28 +2396,28 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.985848568524376</v>
+        <v>0.9721922149848018</v>
       </c>
       <c r="C58" t="n">
-        <v>0.2401496471152927</v>
+        <v>0.1191245371013211</v>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>0.8365776334873753</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>0.8371477937058996</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9858674413583788</v>
+        <v>0.9733509719041187</v>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>0.9945186416106534</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0.933647267031826</v>
       </c>
       <c r="I58" t="n">
-        <v>0.8480257386460883</v>
+        <v>0.818169680453772</v>
       </c>
       <c r="J58" t="n">
         <v>7</v>
@@ -2430,28 +2430,28 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0.9615191019771124</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0781768261240115</v>
+        <v>0.2888398737393313</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>0.9945186416106534</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>0.9893729453659448</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>0.8499078998891637</v>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0.9945186416106534</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0.933647267031826</v>
       </c>
       <c r="I59" t="n">
-        <v>0.8480257386460883</v>
+        <v>0.818169680453772</v>
       </c>
       <c r="J59" t="n">
         <v>7</v>
@@ -2464,28 +2464,28 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.1534964551456314</v>
+        <v>0.3000368474520645</v>
       </c>
       <c r="C60" t="n">
-        <v>0.03717426248062559</v>
+        <v>0.05773054692456209</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1956912739983385</v>
+        <v>0.3014572893787243</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1956912739983385</v>
+        <v>0.3101354021322203</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1745036188614805</v>
+        <v>0.2995225367996854</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0.9945186416106534</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0.933647267031826</v>
       </c>
       <c r="I60" t="n">
-        <v>0.8480257386460883</v>
+        <v>0.818169680453772</v>
       </c>
       <c r="J60" t="n">
         <v>7</v>
@@ -2498,28 +2498,28 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.2074805133175615</v>
+        <v>0.3107979103262292</v>
       </c>
       <c r="C61" t="n">
-        <v>0.1122453597265516</v>
+        <v>0.1215570038312979</v>
       </c>
       <c r="D61" t="n">
-        <v>0.2074805133175615</v>
+        <v>0.3166131468001502</v>
       </c>
       <c r="E61" t="n">
-        <v>0.2074805133175615</v>
+        <v>0.3166131468001502</v>
       </c>
       <c r="F61" t="n">
-        <v>0.2074805133175615</v>
+        <v>0.3136381849899988</v>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>0.9945186416106534</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0.933647267031826</v>
       </c>
       <c r="I61" t="n">
-        <v>0.8480257386460883</v>
+        <v>0.818169680453772</v>
       </c>
       <c r="J61" t="n">
         <v>7</v>
@@ -2532,28 +2532,28 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.2074805133175615</v>
+        <v>0.3284739001470586</v>
       </c>
       <c r="C62" t="n">
-        <v>0.03338614710889153</v>
+        <v>0.1215058458967053</v>
       </c>
       <c r="D62" t="n">
-        <v>0.2074805133175615</v>
+        <v>0.3203305018758691</v>
       </c>
       <c r="E62" t="n">
-        <v>0.2074805133175615</v>
+        <v>0.3185784496175026</v>
       </c>
       <c r="F62" t="n">
-        <v>0.2074805133175615</v>
+        <v>0.3254333630469921</v>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>0.9945186416106534</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0.933647267031826</v>
       </c>
       <c r="I62" t="n">
-        <v>0.8480257386460883</v>
+        <v>0.818169680453772</v>
       </c>
       <c r="J62" t="n">
         <v>7</v>
@@ -2566,28 +2566,28 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.2074805133175615</v>
+        <v>0.2917961819457499</v>
       </c>
       <c r="C63" t="n">
-        <v>0.1276418615812624</v>
+        <v>0.210402081470933</v>
       </c>
       <c r="D63" t="n">
-        <v>0.2074805133175615</v>
+        <v>0.3188585542980973</v>
       </c>
       <c r="E63" t="n">
-        <v>0.2074805133175615</v>
+        <v>0.3171065020397308</v>
       </c>
       <c r="F63" t="n">
-        <v>0.2074805133175615</v>
+        <v>0.2917961819457499</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>0.9945186416106534</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0.933647267031826</v>
       </c>
       <c r="I63" t="n">
-        <v>0.8480257386460883</v>
+        <v>0.818169680453772</v>
       </c>
       <c r="J63" t="n">
         <v>7</v>
@@ -2600,28 +2600,28 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-0.0004931521221278445</v>
+        <v>0.0506095505989758</v>
       </c>
       <c r="C64" t="n">
-        <v>0.01133703525942224</v>
+        <v>0.05095861040212576</v>
       </c>
       <c r="D64" t="n">
-        <v>0.003921905590308246</v>
+        <v>0.05260347753251166</v>
       </c>
       <c r="E64" t="n">
-        <v>0.001687749614617725</v>
+        <v>0.05128140929633988</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.0004931521221278445</v>
+        <v>0.0506095505989758</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>0.9945186416106534</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0.933647267031826</v>
       </c>
       <c r="I64" t="n">
-        <v>0.8480257386460883</v>
+        <v>0.818169680453772</v>
       </c>
       <c r="J64" t="n">
         <v>7</v>
@@ -2634,28 +2634,28 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.2074805133175615</v>
+        <v>0.3201153476139652</v>
       </c>
       <c r="C65" t="n">
-        <v>0.09002845420329322</v>
+        <v>0.1037634554667528</v>
       </c>
       <c r="D65" t="n">
-        <v>0.2074805133175615</v>
+        <v>0.3101033215746798</v>
       </c>
       <c r="E65" t="n">
-        <v>0.2074805133175615</v>
+        <v>0.3107265483304189</v>
       </c>
       <c r="F65" t="n">
-        <v>0.2074805133175615</v>
+        <v>0.3229251375462148</v>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>0.9945186416106534</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0.933647267031826</v>
       </c>
       <c r="I65" t="n">
-        <v>0.8480257386460883</v>
+        <v>0.818169680453772</v>
       </c>
       <c r="J65" t="n">
         <v>7</v>
@@ -2668,28 +2668,28 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.8190897121872958</v>
+        <v>0.9248548948937471</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1080170486378398</v>
+        <v>0.2514364163599111</v>
       </c>
       <c r="D66" t="n">
-        <v>0.8967672294239378</v>
+        <v>0.9424469334308903</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9752710465874408</v>
+        <v>0.9421648553196966</v>
       </c>
       <c r="F66" t="n">
-        <v>0.8367707075079762</v>
+        <v>0.8812620724915504</v>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>0.848295096356671</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0.9508643409121366</v>
       </c>
       <c r="I66" t="n">
-        <v>0.6448231345115968</v>
+        <v>0.6900205467546139</v>
       </c>
       <c r="J66" t="n">
         <v>8</v>
@@ -2702,28 +2702,28 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.9636434495552069</v>
+        <v>0.9934505724960431</v>
       </c>
       <c r="C67" t="n">
-        <v>0.4205283964370561</v>
+        <v>0.324333399903751</v>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>0.9934365622444034</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9842993542661984</v>
+        <v>0.9874219382578178</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9874143179295845</v>
+        <v>0.8260910975127782</v>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>0.848295096356671</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0.9508643409121366</v>
       </c>
       <c r="I67" t="n">
-        <v>0.6448231345115968</v>
+        <v>0.6900205467546139</v>
       </c>
       <c r="J67" t="n">
         <v>8</v>
@@ -2736,28 +2736,28 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1501341859411386</v>
+        <v>0.1531270236836605</v>
       </c>
       <c r="C68" t="n">
-        <v>0.05990170608274335</v>
+        <v>0.03178032365724858</v>
       </c>
       <c r="D68" t="n">
-        <v>0.1447378737299257</v>
+        <v>0.1595272334678152</v>
       </c>
       <c r="E68" t="n">
-        <v>0.06482360714773681</v>
+        <v>0.1194838705525935</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1793579324420541</v>
+        <v>0.1674027190928249</v>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>0.848295096356671</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0.9508643409121366</v>
       </c>
       <c r="I68" t="n">
-        <v>0.6448231345115968</v>
+        <v>0.6900205467546139</v>
       </c>
       <c r="J68" t="n">
         <v>8</v>
@@ -2770,28 +2770,28 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.1328603253974342</v>
+        <v>0.1743691659327587</v>
       </c>
       <c r="C69" t="n">
-        <v>0.01032863663061821</v>
+        <v>0.01657124159130394</v>
       </c>
       <c r="D69" t="n">
-        <v>0.1565280000562537</v>
+        <v>0.162419933652832</v>
       </c>
       <c r="E69" t="n">
-        <v>0.1467985784448473</v>
+        <v>0.1588637319571412</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1064084001570542</v>
+        <v>0.1756301132612099</v>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>0.848295096356671</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0.9508643409121366</v>
       </c>
       <c r="I69" t="n">
-        <v>0.6448231345115968</v>
+        <v>0.6900205467546139</v>
       </c>
       <c r="J69" t="n">
         <v>8</v>
@@ -2804,28 +2804,28 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.2172847049037405</v>
+        <v>0.2118519515681333</v>
       </c>
       <c r="C70" t="n">
-        <v>0.1373153742733208</v>
+        <v>0.06972081879490581</v>
       </c>
       <c r="D70" t="n">
-        <v>0.2024822650500336</v>
+        <v>0.2118519515681333</v>
       </c>
       <c r="E70" t="n">
-        <v>0.2063079448044273</v>
+        <v>0.2122237994598907</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1761679912607445</v>
+        <v>0.1981710222637933</v>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>0.848295096356671</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0.9508643409121366</v>
       </c>
       <c r="I70" t="n">
-        <v>0.6448231345115968</v>
+        <v>0.6900205467546139</v>
       </c>
       <c r="J70" t="n">
         <v>8</v>
@@ -2838,28 +2838,28 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.1908205010724982</v>
+        <v>0.196833985001593</v>
       </c>
       <c r="C71" t="n">
-        <v>0.08033789229742902</v>
+        <v>0.02630812614248074</v>
       </c>
       <c r="D71" t="n">
-        <v>0.2007288933940104</v>
+        <v>0.2170954421249841</v>
       </c>
       <c r="E71" t="n">
-        <v>0.2056295863934502</v>
+        <v>0.2181792843950227</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1908205010724982</v>
+        <v>0.196833985001593</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>0.848295096356671</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0.9508643409121366</v>
       </c>
       <c r="I71" t="n">
-        <v>0.6448231345115968</v>
+        <v>0.6900205467546139</v>
       </c>
       <c r="J71" t="n">
         <v>8</v>
@@ -2872,28 +2872,28 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.01928732033834147</v>
+        <v>0.010183529757526</v>
       </c>
       <c r="C72" t="n">
-        <v>0.02508817242593138</v>
+        <v>0.02550522804796709</v>
       </c>
       <c r="D72" t="n">
-        <v>0.01320967129009022</v>
+        <v>-0.0005589162403889202</v>
       </c>
       <c r="E72" t="n">
-        <v>0.009675091198954109</v>
+        <v>0.008843397039220454</v>
       </c>
       <c r="F72" t="n">
-        <v>0.01928732033834147</v>
+        <v>0.010183529757526</v>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>0.848295096356671</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0.9508643409121366</v>
       </c>
       <c r="I72" t="n">
-        <v>0.6448231345115968</v>
+        <v>0.6900205467546139</v>
       </c>
       <c r="J72" t="n">
         <v>8</v>
@@ -2906,28 +2906,28 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.2146669310946881</v>
+        <v>0.2183511848103566</v>
       </c>
       <c r="C73" t="n">
-        <v>0.01790732873879869</v>
+        <v>0.04029617806678569</v>
       </c>
       <c r="D73" t="n">
-        <v>0.2146669310946881</v>
+        <v>0.2120907680507846</v>
       </c>
       <c r="E73" t="n">
-        <v>0.2146669310946881</v>
+        <v>0.2122024512456031</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2146669310946881</v>
+        <v>0.2045028921655286</v>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>0.848295096356671</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0.9508643409121366</v>
       </c>
       <c r="I73" t="n">
-        <v>0.6448231345115968</v>
+        <v>0.6900205467546139</v>
       </c>
       <c r="J73" t="n">
         <v>8</v>
@@ -2940,28 +2940,28 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.5058960876025418</v>
+        <v>0.9665428696119187</v>
       </c>
       <c r="C74" t="n">
-        <v>0.09888551041733415</v>
+        <v>0.2391530448847535</v>
       </c>
       <c r="D74" t="n">
-        <v>0.8166399504930038</v>
+        <v>0.9886695211438074</v>
       </c>
       <c r="E74" t="n">
-        <v>0.8310432040763976</v>
+        <v>0.9882003539331947</v>
       </c>
       <c r="F74" t="n">
-        <v>0.7198544213870712</v>
+        <v>0.9752768800072082</v>
       </c>
       <c r="G74" t="n">
-        <v>0.3677305564578708</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0.9708738346086143</v>
+        <v>0.8689922352968702</v>
       </c>
       <c r="I74" t="n">
-        <v>0.5920374623541839</v>
+        <v>0.8448239067852029</v>
       </c>
       <c r="J74" t="n">
         <v>9</v>
@@ -2974,28 +2974,28 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.7872164796893502</v>
+        <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>0.1092647549846935</v>
+        <v>0.3773652262200812</v>
       </c>
       <c r="D75" t="n">
-        <v>0.8700957510756616</v>
+        <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9242185690604801</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.7872315498105562</v>
+        <v>0.9812459144929224</v>
       </c>
       <c r="G75" t="n">
-        <v>0.3677305564578708</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>0.9708738346086143</v>
+        <v>0.8689922352968702</v>
       </c>
       <c r="I75" t="n">
-        <v>0.5920374623541839</v>
+        <v>0.8448239067852029</v>
       </c>
       <c r="J75" t="n">
         <v>9</v>
@@ -3008,28 +3008,28 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.1668651338476512</v>
+        <v>0.264403614028378</v>
       </c>
       <c r="C76" t="n">
-        <v>0.04067357794543344</v>
+        <v>0.05405657573261622</v>
       </c>
       <c r="D76" t="n">
-        <v>0.159641550062185</v>
+        <v>0.298592138471156</v>
       </c>
       <c r="E76" t="n">
-        <v>0.1346417730026501</v>
+        <v>0.2718454152506965</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1668651338476512</v>
+        <v>0.2630302598209383</v>
       </c>
       <c r="G76" t="n">
-        <v>0.3677305564578708</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0.9708738346086143</v>
+        <v>0.8689922352968702</v>
       </c>
       <c r="I76" t="n">
-        <v>0.5920374623541839</v>
+        <v>0.8448239067852029</v>
       </c>
       <c r="J76" t="n">
         <v>9</v>
@@ -3042,28 +3042,28 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.03679707778567298</v>
+        <v>0.3115408675112821</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.001482880722939667</v>
+        <v>0.06758470479578363</v>
       </c>
       <c r="D77" t="n">
-        <v>0.07989229564872491</v>
+        <v>0.3115408675112821</v>
       </c>
       <c r="E77" t="n">
-        <v>0.06989106331907287</v>
+        <v>0.3115408675112821</v>
       </c>
       <c r="F77" t="n">
-        <v>0.04954497344796641</v>
+        <v>0.3115408675112821</v>
       </c>
       <c r="G77" t="n">
-        <v>0.3677305564578708</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0.9708738346086143</v>
+        <v>0.8689922352968702</v>
       </c>
       <c r="I77" t="n">
-        <v>0.5920374623541839</v>
+        <v>0.8448239067852029</v>
       </c>
       <c r="J77" t="n">
         <v>9</v>
@@ -3076,28 +3076,28 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.1234522183649629</v>
+        <v>0.310085994075136</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0559618420877288</v>
+        <v>0.08630517197194432</v>
       </c>
       <c r="D78" t="n">
-        <v>0.1331526564300189</v>
+        <v>0.3085877441060548</v>
       </c>
       <c r="E78" t="n">
-        <v>0.1394041310399481</v>
+        <v>0.3115408675112821</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1082513612734071</v>
+        <v>0.3085877441060548</v>
       </c>
       <c r="G78" t="n">
-        <v>0.3677305564578708</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>0.9708738346086143</v>
+        <v>0.8689922352968702</v>
       </c>
       <c r="I78" t="n">
-        <v>0.5920374623541839</v>
+        <v>0.8448239067852029</v>
       </c>
       <c r="J78" t="n">
         <v>9</v>
@@ -3110,28 +3110,28 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.1618282644959617</v>
+        <v>0.3115408675112821</v>
       </c>
       <c r="C79" t="n">
-        <v>0.01996170260624407</v>
+        <v>0.1868712709804687</v>
       </c>
       <c r="D79" t="n">
-        <v>0.2183768022874575</v>
+        <v>0.3115408675112821</v>
       </c>
       <c r="E79" t="n">
-        <v>0.2100019639534788</v>
+        <v>0.3115408675112821</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1618282644959617</v>
+        <v>0.3115408675112821</v>
       </c>
       <c r="G79" t="n">
-        <v>0.3677305564578708</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0.9708738346086143</v>
+        <v>0.8689922352968702</v>
       </c>
       <c r="I79" t="n">
-        <v>0.5920374623541839</v>
+        <v>0.8448239067852029</v>
       </c>
       <c r="J79" t="n">
         <v>9</v>
@@ -3144,28 +3144,28 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-0.001078285233376654</v>
+        <v>0.04371326928472051</v>
       </c>
       <c r="C80" t="n">
-        <v>0.01654499086515014</v>
+        <v>0.04335170942836265</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.005268838387201331</v>
+        <v>0.0468193913473436</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.00431962712745831</v>
+        <v>0.05063815390677608</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.001078285233376654</v>
+        <v>0.04371326928472051</v>
       </c>
       <c r="G80" t="n">
-        <v>0.3677305564578708</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0.9708738346086143</v>
+        <v>0.8689922352968702</v>
       </c>
       <c r="I80" t="n">
-        <v>0.5920374623541839</v>
+        <v>0.8448239067852029</v>
       </c>
       <c r="J80" t="n">
         <v>9</v>
@@ -3178,28 +3178,28 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.207880846326345</v>
+        <v>0.3115408675112821</v>
       </c>
       <c r="C81" t="n">
-        <v>0.01861483910228181</v>
+        <v>0.1388184956232243</v>
       </c>
       <c r="D81" t="n">
-        <v>0.2087317757365821</v>
+        <v>0.3085877441060548</v>
       </c>
       <c r="E81" t="n">
-        <v>0.2210897192212521</v>
+        <v>0.3115408675112821</v>
       </c>
       <c r="F81" t="n">
-        <v>0.2011451516106617</v>
+        <v>0.3115408675112821</v>
       </c>
       <c r="G81" t="n">
-        <v>0.3677305564578708</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>0.9708738346086143</v>
+        <v>0.8689922352968702</v>
       </c>
       <c r="I81" t="n">
-        <v>0.5920374623541839</v>
+        <v>0.8448239067852029</v>
       </c>
       <c r="J81" t="n">
         <v>9</v>
@@ -3212,28 +3212,28 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.4493458406634025</v>
+        <v>0.9054147698665492</v>
       </c>
       <c r="C82" t="n">
-        <v>0.1084871664747883</v>
+        <v>0.09807716754364278</v>
       </c>
       <c r="D82" t="n">
-        <v>0.5967548516946775</v>
+        <v>0.9482451237467379</v>
       </c>
       <c r="E82" t="n">
-        <v>0.60341019063107</v>
+        <v>0.9644929742135189</v>
       </c>
       <c r="F82" t="n">
-        <v>0.6639725564249951</v>
+        <v>0.9098131727168897</v>
       </c>
       <c r="G82" t="n">
-        <v>0.1996565850045881</v>
+        <v>0.9946846121295676</v>
       </c>
       <c r="H82" t="n">
-        <v>0.8934857401479542</v>
+        <v>0.9946846121295676</v>
       </c>
       <c r="I82" t="n">
-        <v>0.4300068896687829</v>
+        <v>0.6865027563864262</v>
       </c>
       <c r="J82" t="n">
         <v>10</v>
@@ -3246,28 +3246,28 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.5194360879989226</v>
+        <v>0.9820415370304472</v>
       </c>
       <c r="C83" t="n">
-        <v>0.07896423396434223</v>
+        <v>0.1883419945040394</v>
       </c>
       <c r="D83" t="n">
-        <v>0.5856975362011854</v>
+        <v>0.9820415370304472</v>
       </c>
       <c r="E83" t="n">
-        <v>0.5828404358135502</v>
+        <v>0.9645019072726507</v>
       </c>
       <c r="F83" t="n">
-        <v>0.6220633548354207</v>
+        <v>0.9175938182758847</v>
       </c>
       <c r="G83" t="n">
-        <v>0.1996565850045881</v>
+        <v>0.9946846121295676</v>
       </c>
       <c r="H83" t="n">
-        <v>0.8934857401479542</v>
+        <v>0.9946846121295676</v>
       </c>
       <c r="I83" t="n">
-        <v>0.4300068896687829</v>
+        <v>0.6865027563864262</v>
       </c>
       <c r="J83" t="n">
         <v>10</v>
@@ -3280,28 +3280,28 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.08431634822047782</v>
+        <v>0.2184675442202737</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0003629234142923949</v>
+        <v>0.01989597702783194</v>
       </c>
       <c r="D84" t="n">
-        <v>0.06844775285044932</v>
+        <v>0.2394213147005341</v>
       </c>
       <c r="E84" t="n">
-        <v>0.01458132546090601</v>
+        <v>0.2237665347237088</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08247821192587647</v>
+        <v>0.2207151134245791</v>
       </c>
       <c r="G84" t="n">
-        <v>0.1996565850045881</v>
+        <v>0.9946846121295676</v>
       </c>
       <c r="H84" t="n">
-        <v>0.8934857401479542</v>
+        <v>0.9946846121295676</v>
       </c>
       <c r="I84" t="n">
-        <v>0.4300068896687829</v>
+        <v>0.6865027563864262</v>
       </c>
       <c r="J84" t="n">
         <v>10</v>
@@ -3314,28 +3314,28 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-0.01197877297225621</v>
+        <v>0.2016203679103282</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.01037985386979207</v>
+        <v>0.02268109421578834</v>
       </c>
       <c r="D85" t="n">
-        <v>0.01123880663099266</v>
+        <v>0.2252796436607669</v>
       </c>
       <c r="E85" t="n">
-        <v>0.01573674611712238</v>
+        <v>0.216319548603825</v>
       </c>
       <c r="F85" t="n">
-        <v>0.02552656381701147</v>
+        <v>0.1653740311368415</v>
       </c>
       <c r="G85" t="n">
-        <v>0.1996565850045881</v>
+        <v>0.9946846121295676</v>
       </c>
       <c r="H85" t="n">
-        <v>0.8934857401479542</v>
+        <v>0.9946846121295676</v>
       </c>
       <c r="I85" t="n">
-        <v>0.4300068896687829</v>
+        <v>0.6865027563864262</v>
       </c>
       <c r="J85" t="n">
         <v>10</v>
@@ -3348,28 +3348,28 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.06346644687383446</v>
+        <v>0.2464362186329247</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.008811687057711792</v>
+        <v>0.06117757267121793</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0976796950843046</v>
+        <v>0.2506775151743313</v>
       </c>
       <c r="E86" t="n">
-        <v>0.1142644019718338</v>
+        <v>0.2506775151743313</v>
       </c>
       <c r="F86" t="n">
-        <v>0.04723064666079285</v>
+        <v>0.2515525489037894</v>
       </c>
       <c r="G86" t="n">
-        <v>0.1996565850045881</v>
+        <v>0.9946846121295676</v>
       </c>
       <c r="H86" t="n">
-        <v>0.8934857401479542</v>
+        <v>0.9946846121295676</v>
       </c>
       <c r="I86" t="n">
-        <v>0.4300068896687829</v>
+        <v>0.6865027563864262</v>
       </c>
       <c r="J86" t="n">
         <v>10</v>
@@ -3382,28 +3382,28 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.04359233814019175</v>
+        <v>0.2516656255989883</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.01448172312647228</v>
+        <v>0.1185270502849922</v>
       </c>
       <c r="D87" t="n">
-        <v>0.07136850635298377</v>
+        <v>0.2498315079319776</v>
       </c>
       <c r="E87" t="n">
-        <v>0.07406669893766374</v>
+        <v>0.2498315079319776</v>
       </c>
       <c r="F87" t="n">
-        <v>0.04359233814019175</v>
+        <v>0.2516656255989883</v>
       </c>
       <c r="G87" t="n">
-        <v>0.1996565850045881</v>
+        <v>0.9946846121295676</v>
       </c>
       <c r="H87" t="n">
-        <v>0.8934857401479542</v>
+        <v>0.9946846121295676</v>
       </c>
       <c r="I87" t="n">
-        <v>0.4300068896687829</v>
+        <v>0.6865027563864262</v>
       </c>
       <c r="J87" t="n">
         <v>10</v>
@@ -3416,28 +3416,28 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.07405780419928462</v>
+        <v>0.02963279299642284</v>
       </c>
       <c r="C88" t="n">
-        <v>0.04872859772653451</v>
+        <v>0.008854521500191181</v>
       </c>
       <c r="D88" t="n">
-        <v>0.09609553170661042</v>
+        <v>0.02442316088350008</v>
       </c>
       <c r="E88" t="n">
-        <v>0.1160593292186795</v>
+        <v>0.03306715468109883</v>
       </c>
       <c r="F88" t="n">
-        <v>0.07405780419928462</v>
+        <v>0.02963279299642284</v>
       </c>
       <c r="G88" t="n">
-        <v>0.1996565850045881</v>
+        <v>0.9946846121295676</v>
       </c>
       <c r="H88" t="n">
-        <v>0.8934857401479542</v>
+        <v>0.9946846121295676</v>
       </c>
       <c r="I88" t="n">
-        <v>0.4300068896687829</v>
+        <v>0.6865027563864262</v>
       </c>
       <c r="J88" t="n">
         <v>10</v>
@@ -3450,28 +3450,28 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.1515521814456011</v>
+        <v>0.2391221670467576</v>
       </c>
       <c r="C89" t="n">
-        <v>0.009097326254124098</v>
+        <v>0.05337291734164988</v>
       </c>
       <c r="D89" t="n">
-        <v>0.1344265402103537</v>
+        <v>0.2423157784528491</v>
       </c>
       <c r="E89" t="n">
-        <v>0.1176948658496514</v>
+        <v>0.2423157784528491</v>
       </c>
       <c r="F89" t="n">
-        <v>0.08904749812878045</v>
+        <v>0.2424949116093691</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1996565850045881</v>
+        <v>0.9946846121295676</v>
       </c>
       <c r="H89" t="n">
-        <v>0.8934857401479542</v>
+        <v>0.9946846121295676</v>
       </c>
       <c r="I89" t="n">
-        <v>0.4300068896687829</v>
+        <v>0.6865027563864262</v>
       </c>
       <c r="J89" t="n">
         <v>10</v>
@@ -3484,28 +3484,28 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.917752892179613</v>
+        <v>0.7825751121002449</v>
       </c>
       <c r="C90" t="n">
-        <v>0.1913341811389452</v>
+        <v>0.1714443513488895</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9628455268420247</v>
+        <v>0.8509627784410858</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9628455268420247</v>
+        <v>0.8844542124611656</v>
       </c>
       <c r="F90" t="n">
-        <v>0.7194056946815278</v>
+        <v>0.753165250878958</v>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>0.5725582662576378</v>
       </c>
       <c r="H90" t="n">
-        <v>0.8689141842078019</v>
+        <v>0.9628049372760108</v>
       </c>
       <c r="I90" t="n">
-        <v>0.9448569860029903</v>
+        <v>0.5533426085646104</v>
       </c>
       <c r="J90" t="n">
         <v>11</v>
@@ -3518,28 +3518,28 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>0.8514256545808946</v>
       </c>
       <c r="C91" t="n">
-        <v>0.4836235707053963</v>
+        <v>0.2256821588249138</v>
       </c>
       <c r="D91" t="n">
-        <v>1</v>
+        <v>0.825151245928976</v>
       </c>
       <c r="E91" t="n">
-        <v>1</v>
+        <v>0.8394840629700477</v>
       </c>
       <c r="F91" t="n">
-        <v>0.7434857620431897</v>
+        <v>0.6430966143254377</v>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>0.5725582662576378</v>
       </c>
       <c r="H91" t="n">
-        <v>0.8689141842078019</v>
+        <v>0.9628049372760108</v>
       </c>
       <c r="I91" t="n">
-        <v>0.9448569860029903</v>
+        <v>0.5533426085646104</v>
       </c>
       <c r="J91" t="n">
         <v>11</v>
@@ -3552,28 +3552,28 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.4513335945960064</v>
+        <v>0.210357057724351</v>
       </c>
       <c r="C92" t="n">
-        <v>0.326773079236885</v>
+        <v>0.02625082667212084</v>
       </c>
       <c r="D92" t="n">
-        <v>0.4447958674586261</v>
+        <v>0.173126347462666</v>
       </c>
       <c r="E92" t="n">
-        <v>0.4461147594080599</v>
+        <v>0.143000951295185</v>
       </c>
       <c r="F92" t="n">
-        <v>0.4513335945960064</v>
+        <v>0.1627397498960174</v>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>0.5725582662576378</v>
       </c>
       <c r="H92" t="n">
-        <v>0.8689141842078019</v>
+        <v>0.9628049372760108</v>
       </c>
       <c r="I92" t="n">
-        <v>0.9448569860029903</v>
+        <v>0.5533426085646104</v>
       </c>
       <c r="J92" t="n">
         <v>11</v>
@@ -3586,28 +3586,28 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.4435744357876866</v>
+        <v>0.08199606542245838</v>
       </c>
       <c r="C93" t="n">
-        <v>0.158454002165669</v>
+        <v>0.01078080887400951</v>
       </c>
       <c r="D93" t="n">
-        <v>0.4435744357876866</v>
+        <v>0.08219299954654619</v>
       </c>
       <c r="E93" t="n">
-        <v>0.4435744357876866</v>
+        <v>0.08224211096997396</v>
       </c>
       <c r="F93" t="n">
-        <v>0.4435744357876866</v>
+        <v>0.08670223028370021</v>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>0.5725582662576378</v>
       </c>
       <c r="H93" t="n">
-        <v>0.8689141842078019</v>
+        <v>0.9628049372760108</v>
       </c>
       <c r="I93" t="n">
-        <v>0.9448569860029903</v>
+        <v>0.5533426085646104</v>
       </c>
       <c r="J93" t="n">
         <v>11</v>
@@ -3620,28 +3620,28 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.4435744357876866</v>
+        <v>0.2222748022066272</v>
       </c>
       <c r="C94" t="n">
-        <v>0.2643507470537011</v>
+        <v>0.003262309980202232</v>
       </c>
       <c r="D94" t="n">
-        <v>0.4435744357876866</v>
+        <v>0.2320372621821794</v>
       </c>
       <c r="E94" t="n">
-        <v>0.4435744357876866</v>
+        <v>0.2285085575485699</v>
       </c>
       <c r="F94" t="n">
-        <v>0.4435744357876866</v>
+        <v>0.2194949266849213</v>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>0.5725582662576378</v>
       </c>
       <c r="H94" t="n">
-        <v>0.8689141842078019</v>
+        <v>0.9628049372760108</v>
       </c>
       <c r="I94" t="n">
-        <v>0.9448569860029903</v>
+        <v>0.5533426085646104</v>
       </c>
       <c r="J94" t="n">
         <v>11</v>
@@ -3654,28 +3654,28 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.4435744357876866</v>
+        <v>0.1893152309489325</v>
       </c>
       <c r="C95" t="n">
-        <v>0.3483014522100661</v>
+        <v>-0.00617262090828552</v>
       </c>
       <c r="D95" t="n">
-        <v>0.4406562975455738</v>
+        <v>0.2071969622524269</v>
       </c>
       <c r="E95" t="n">
-        <v>0.4435744357876866</v>
+        <v>0.2011059334698787</v>
       </c>
       <c r="F95" t="n">
-        <v>0.4435744357876866</v>
+        <v>0.1893152309489325</v>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>0.5725582662576378</v>
       </c>
       <c r="H95" t="n">
-        <v>0.8689141842078019</v>
+        <v>0.9628049372760108</v>
       </c>
       <c r="I95" t="n">
-        <v>0.9448569860029903</v>
+        <v>0.5533426085646104</v>
       </c>
       <c r="J95" t="n">
         <v>11</v>
@@ -3688,28 +3688,28 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.06977020756162802</v>
+        <v>0.01969066100722056</v>
       </c>
       <c r="C96" t="n">
-        <v>0.09857842990069363</v>
+        <v>0.02729498271465833</v>
       </c>
       <c r="D96" t="n">
-        <v>0.05051496929136459</v>
+        <v>0.02020854644080295</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0498554629144479</v>
+        <v>0.01660889152285997</v>
       </c>
       <c r="F96" t="n">
-        <v>0.06977020756162802</v>
+        <v>0.01969066100722056</v>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>0.5725582662576378</v>
       </c>
       <c r="H96" t="n">
-        <v>0.8689141842078019</v>
+        <v>0.9628049372760108</v>
       </c>
       <c r="I96" t="n">
-        <v>0.9448569860029903</v>
+        <v>0.5533426085646104</v>
       </c>
       <c r="J96" t="n">
         <v>11</v>
@@ -3722,28 +3722,28 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.3521201333887637</v>
+        <v>0.2226725654732859</v>
       </c>
       <c r="C97" t="n">
-        <v>0.2315837643506372</v>
+        <v>0.03023383170137251</v>
       </c>
       <c r="D97" t="n">
-        <v>0.3567272443429286</v>
+        <v>0.228584866517414</v>
       </c>
       <c r="E97" t="n">
-        <v>0.3524620733195615</v>
+        <v>0.2285194812009067</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3564862321226452</v>
+        <v>0.2022487733769611</v>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>0.5725582662576378</v>
       </c>
       <c r="H97" t="n">
-        <v>0.8689141842078019</v>
+        <v>0.9628049372760108</v>
       </c>
       <c r="I97" t="n">
-        <v>0.9448569860029903</v>
+        <v>0.5533426085646104</v>
       </c>
       <c r="J97" t="n">
         <v>11</v>
@@ -3756,28 +3756,28 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.8318707515641314</v>
+        <v>0.8716905542132991</v>
       </c>
       <c r="C98" t="n">
-        <v>0.4887503216414195</v>
+        <v>0.1711737566370707</v>
       </c>
       <c r="D98" t="n">
-        <v>0.9063977659857294</v>
+        <v>0.9711248156110693</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9135877691435978</v>
+        <v>0.9549983999459759</v>
       </c>
       <c r="F98" t="n">
-        <v>0.7008046679551636</v>
+        <v>0.666482468215819</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0.8641856659685054</v>
+        <v>0.8615503211910227</v>
       </c>
       <c r="I98" t="n">
-        <v>0.8640038390580627</v>
+        <v>0.8906827072987827</v>
       </c>
       <c r="J98" t="n">
         <v>12</v>
@@ -3790,28 +3790,28 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.9571981324787198</v>
+        <v>0.9615611408150053</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1843615854365097</v>
+        <v>0.3349914871972901</v>
       </c>
       <c r="D99" t="n">
-        <v>0.847762336234323</v>
+        <v>0.9747898561362101</v>
       </c>
       <c r="E99" t="n">
-        <v>0.852230313976821</v>
+        <v>0.9918745545260157</v>
       </c>
       <c r="F99" t="n">
-        <v>0.7329266721534757</v>
+        <v>0.4598219759022594</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>0.8641856659685054</v>
+        <v>0.8615503211910227</v>
       </c>
       <c r="I99" t="n">
-        <v>0.8640038390580627</v>
+        <v>0.8906827072987827</v>
       </c>
       <c r="J99" t="n">
         <v>12</v>
@@ -3824,28 +3824,28 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.3041837422711806</v>
+        <v>0.3151204587794098</v>
       </c>
       <c r="C100" t="n">
-        <v>0.03673279752645167</v>
+        <v>0.151292377325206</v>
       </c>
       <c r="D100" t="n">
-        <v>0.306667570138001</v>
+        <v>0.3056200486515694</v>
       </c>
       <c r="E100" t="n">
-        <v>0.3041837422711806</v>
+        <v>0.3057682281846364</v>
       </c>
       <c r="F100" t="n">
-        <v>0.304093729113694</v>
+        <v>0.3151204587794098</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>0.8641856659685054</v>
+        <v>0.8615503211910227</v>
       </c>
       <c r="I100" t="n">
-        <v>0.8640038390580627</v>
+        <v>0.8906827072987827</v>
       </c>
       <c r="J100" t="n">
         <v>12</v>
@@ -3858,28 +3858,28 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.303334232127764</v>
+        <v>0.3548414296780701</v>
       </c>
       <c r="C101" t="n">
-        <v>0.06798165053138883</v>
+        <v>0.2336460396680948</v>
       </c>
       <c r="D101" t="n">
-        <v>0.303334232127764</v>
+        <v>0.3548414296780701</v>
       </c>
       <c r="E101" t="n">
-        <v>0.303334232127764</v>
+        <v>0.3548414296780701</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3036947433269956</v>
+        <v>0.3548414296780701</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0.8641856659685054</v>
+        <v>0.8615503211910227</v>
       </c>
       <c r="I101" t="n">
-        <v>0.8640038390580627</v>
+        <v>0.8906827072987827</v>
       </c>
       <c r="J101" t="n">
         <v>12</v>
@@ -3892,28 +3892,28 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.304492027364483</v>
+        <v>0.3345680051721834</v>
       </c>
       <c r="C102" t="n">
-        <v>0.08727853318629239</v>
+        <v>0.1486914318258173</v>
       </c>
       <c r="D102" t="n">
-        <v>0.304492027364483</v>
+        <v>0.3344177205481243</v>
       </c>
       <c r="E102" t="n">
-        <v>0.304492027364483</v>
+        <v>0.3344177205481243</v>
       </c>
       <c r="F102" t="n">
-        <v>0.304492027364483</v>
+        <v>0.3291081437603764</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
       </c>
       <c r="H102" t="n">
-        <v>0.8641856659685054</v>
+        <v>0.8615503211910227</v>
       </c>
       <c r="I102" t="n">
-        <v>0.8640038390580627</v>
+        <v>0.8906827072987827</v>
       </c>
       <c r="J102" t="n">
         <v>12</v>
@@ -3926,28 +3926,28 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.297681127652194</v>
+        <v>0.3548414296780701</v>
       </c>
       <c r="C103" t="n">
-        <v>0.2000472943688414</v>
+        <v>0.2044600487162376</v>
       </c>
       <c r="D103" t="n">
-        <v>0.303334232127764</v>
+        <v>0.3548414296780701</v>
       </c>
       <c r="E103" t="n">
-        <v>0.303334232127764</v>
+        <v>0.3548414296780701</v>
       </c>
       <c r="F103" t="n">
-        <v>0.297681127652194</v>
+        <v>0.3548414296780701</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
       </c>
       <c r="H103" t="n">
-        <v>0.8641856659685054</v>
+        <v>0.8615503211910227</v>
       </c>
       <c r="I103" t="n">
-        <v>0.8640038390580627</v>
+        <v>0.8906827072987827</v>
       </c>
       <c r="J103" t="n">
         <v>12</v>
@@ -3960,28 +3960,28 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.1160689259474422</v>
+        <v>0.1615924575480784</v>
       </c>
       <c r="C104" t="n">
-        <v>0.03177501340849942</v>
+        <v>0.06355715972402265</v>
       </c>
       <c r="D104" t="n">
-        <v>0.1008607334284811</v>
+        <v>0.1673380353189149</v>
       </c>
       <c r="E104" t="n">
-        <v>0.1164656417865485</v>
+        <v>0.1687978233489129</v>
       </c>
       <c r="F104" t="n">
-        <v>0.1160689259474422</v>
+        <v>0.1615924575480784</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>0.8641856659685054</v>
+        <v>0.8615503211910227</v>
       </c>
       <c r="I104" t="n">
-        <v>0.8640038390580627</v>
+        <v>0.8906827072987827</v>
       </c>
       <c r="J104" t="n">
         <v>12</v>
@@ -3994,28 +3994,28 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.2769800466151923</v>
+        <v>0.2984966139626699</v>
       </c>
       <c r="C105" t="n">
-        <v>0.06377141619958886</v>
+        <v>0.1426158964840598</v>
       </c>
       <c r="D105" t="n">
-        <v>0.286942173681197</v>
+        <v>0.3143523571868284</v>
       </c>
       <c r="E105" t="n">
-        <v>0.2997207952768313</v>
+        <v>0.3123579875138297</v>
       </c>
       <c r="F105" t="n">
-        <v>0.2973283036596174</v>
+        <v>0.2949816470624572</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
       </c>
       <c r="H105" t="n">
-        <v>0.8641856659685054</v>
+        <v>0.8615503211910227</v>
       </c>
       <c r="I105" t="n">
-        <v>0.8640038390580627</v>
+        <v>0.8906827072987827</v>
       </c>
       <c r="J105" t="n">
         <v>12</v>
@@ -4028,28 +4028,28 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.6890666939919866</v>
+        <v>0.5560837831537268</v>
       </c>
       <c r="C106" t="n">
-        <v>0.161154025469548</v>
+        <v>0.07715253205681077</v>
       </c>
       <c r="D106" t="n">
-        <v>0.8917483569591312</v>
+        <v>0.4989796139383005</v>
       </c>
       <c r="E106" t="n">
-        <v>0.9015060058716955</v>
+        <v>0.5134504353827062</v>
       </c>
       <c r="F106" t="n">
-        <v>0.5344663610353737</v>
+        <v>0.5223941682343713</v>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>0.6216580869599142</v>
       </c>
       <c r="H106" t="n">
-        <v>0.7954111478365209</v>
+        <v>0.8587115117081534</v>
       </c>
       <c r="I106" t="n">
-        <v>0.8214718063499392</v>
+        <v>0.6747615321127005</v>
       </c>
       <c r="J106" t="n">
         <v>13</v>
@@ -4062,28 +4062,28 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.9881894605739467</v>
+        <v>0.5813522202280245</v>
       </c>
       <c r="C107" t="n">
-        <v>0.3393477004877329</v>
+        <v>0.1686547467064024</v>
       </c>
       <c r="D107" t="n">
-        <v>0.9881894605739467</v>
+        <v>0.5454511066541674</v>
       </c>
       <c r="E107" t="n">
-        <v>0.9881894605739467</v>
+        <v>0.5513554591284378</v>
       </c>
       <c r="F107" t="n">
-        <v>0.8284310597241202</v>
+        <v>0.4022108949723642</v>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>0.6216580869599142</v>
       </c>
       <c r="H107" t="n">
-        <v>0.7954111478365209</v>
+        <v>0.8587115117081534</v>
       </c>
       <c r="I107" t="n">
-        <v>0.8214718063499392</v>
+        <v>0.6747615321127005</v>
       </c>
       <c r="J107" t="n">
         <v>13</v>
@@ -4096,28 +4096,28 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.2069725663579841</v>
+        <v>0.142809165779731</v>
       </c>
       <c r="C108" t="n">
-        <v>0.03653661497637284</v>
+        <v>0.02641539436326678</v>
       </c>
       <c r="D108" t="n">
-        <v>0.2412882100764763</v>
+        <v>0.1425302595235342</v>
       </c>
       <c r="E108" t="n">
-        <v>0.2207079907133621</v>
+        <v>0.1356300124613373</v>
       </c>
       <c r="F108" t="n">
-        <v>0.2069725663579841</v>
+        <v>0.1538015057086506</v>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>0.6216580869599142</v>
       </c>
       <c r="H108" t="n">
-        <v>0.7954111478365209</v>
+        <v>0.8587115117081534</v>
       </c>
       <c r="I108" t="n">
-        <v>0.8214718063499392</v>
+        <v>0.6747615321127005</v>
       </c>
       <c r="J108" t="n">
         <v>13</v>
@@ -4130,28 +4130,28 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.2442122981833359</v>
+        <v>0.1049246591804079</v>
       </c>
       <c r="C109" t="n">
-        <v>0.1200165507963642</v>
+        <v>0.04607621165796533</v>
       </c>
       <c r="D109" t="n">
-        <v>0.2532257208331559</v>
+        <v>0.1006488672933821</v>
       </c>
       <c r="E109" t="n">
-        <v>0.2490031374611189</v>
+        <v>0.1017418407172771</v>
       </c>
       <c r="F109" t="n">
-        <v>0.2484348815553728</v>
+        <v>0.1002365677023278</v>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>0.6216580869599142</v>
       </c>
       <c r="H109" t="n">
-        <v>0.7954111478365209</v>
+        <v>0.8587115117081534</v>
       </c>
       <c r="I109" t="n">
-        <v>0.8214718063499392</v>
+        <v>0.6747615321127005</v>
       </c>
       <c r="J109" t="n">
         <v>13</v>
@@ -4164,28 +4164,28 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.2388842912635454</v>
+        <v>0.1211555661203912</v>
       </c>
       <c r="C110" t="n">
-        <v>0.1380074456191402</v>
+        <v>0.04513054078466905</v>
       </c>
       <c r="D110" t="n">
-        <v>0.245278854403573</v>
+        <v>0.1385240021963134</v>
       </c>
       <c r="E110" t="n">
-        <v>0.2379138984311795</v>
+        <v>0.1348411193614218</v>
       </c>
       <c r="F110" t="n">
-        <v>0.2372330942048322</v>
+        <v>0.1390956237069742</v>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>0.6216580869599142</v>
       </c>
       <c r="H110" t="n">
-        <v>0.7954111478365209</v>
+        <v>0.8587115117081534</v>
       </c>
       <c r="I110" t="n">
-        <v>0.8214718063499392</v>
+        <v>0.6747615321127005</v>
       </c>
       <c r="J110" t="n">
         <v>13</v>
@@ -4198,28 +4198,28 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.2442122981833359</v>
+        <v>0.120282672434215</v>
       </c>
       <c r="C111" t="n">
-        <v>0.1066932520428369</v>
+        <v>0.009764697334691253</v>
       </c>
       <c r="D111" t="n">
-        <v>0.2442122981833359</v>
+        <v>0.1433609743235986</v>
       </c>
       <c r="E111" t="n">
-        <v>0.2442122981833359</v>
+        <v>0.1478736878059656</v>
       </c>
       <c r="F111" t="n">
-        <v>0.2442122981833359</v>
+        <v>0.120282672434215</v>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>0.6216580869599142</v>
       </c>
       <c r="H111" t="n">
-        <v>0.7954111478365209</v>
+        <v>0.8587115117081534</v>
       </c>
       <c r="I111" t="n">
-        <v>0.8214718063499392</v>
+        <v>0.6747615321127005</v>
       </c>
       <c r="J111" t="n">
         <v>13</v>
@@ -4232,28 +4232,28 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.008690732230816456</v>
+        <v>0.01835637881143596</v>
       </c>
       <c r="C112" t="n">
-        <v>0.05377429294990306</v>
+        <v>0.02782489965089772</v>
       </c>
       <c r="D112" t="n">
-        <v>0.01534320064695345</v>
+        <v>0.01574014471069913</v>
       </c>
       <c r="E112" t="n">
-        <v>0.01975739595831759</v>
+        <v>0.01503299986864209</v>
       </c>
       <c r="F112" t="n">
-        <v>0.008690732230816456</v>
+        <v>0.01835637881143596</v>
       </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>0.6216580869599142</v>
       </c>
       <c r="H112" t="n">
-        <v>0.7954111478365209</v>
+        <v>0.8587115117081534</v>
       </c>
       <c r="I112" t="n">
-        <v>0.8214718063499392</v>
+        <v>0.6747615321127005</v>
       </c>
       <c r="J112" t="n">
         <v>13</v>
@@ -4266,28 +4266,28 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.2058295647162314</v>
+        <v>0.1492848529328678</v>
       </c>
       <c r="C113" t="n">
-        <v>0.1011230336388765</v>
+        <v>0.03632003188391027</v>
       </c>
       <c r="D113" t="n">
-        <v>0.1881164895921934</v>
+        <v>0.1723229404307348</v>
       </c>
       <c r="E113" t="n">
-        <v>0.1810506252854428</v>
+        <v>0.1500430226987158</v>
       </c>
       <c r="F113" t="n">
-        <v>0.2023437834156775</v>
+        <v>0.1470526410107543</v>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>0.6216580869599142</v>
       </c>
       <c r="H113" t="n">
-        <v>0.7954111478365209</v>
+        <v>0.8587115117081534</v>
       </c>
       <c r="I113" t="n">
-        <v>0.8214718063499392</v>
+        <v>0.6747615321127005</v>
       </c>
       <c r="J113" t="n">
         <v>13</v>
@@ -4300,28 +4300,28 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.5677276339800315</v>
+        <v>0.895018050107512</v>
       </c>
       <c r="C114" t="n">
-        <v>0.06496057495664585</v>
+        <v>0.1991522530540877</v>
       </c>
       <c r="D114" t="n">
-        <v>0.5233033476560184</v>
+        <v>0.9219621761725347</v>
       </c>
       <c r="E114" t="n">
-        <v>0.5299855439740193</v>
+        <v>0.9406823436265193</v>
       </c>
       <c r="F114" t="n">
-        <v>0.3363359774957673</v>
+        <v>0.7328880292653315</v>
       </c>
       <c r="G114" t="n">
-        <v>0.4460177823701866</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0.8401488649287689</v>
       </c>
       <c r="I114" t="n">
-        <v>0.5404449074751043</v>
+        <v>0.8470974542412482</v>
       </c>
       <c r="J114" t="n">
         <v>14</v>
@@ -4334,28 +4334,28 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.5949299077197195</v>
+        <v>0.9896583520598405</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0573218154027785</v>
+        <v>0.2378756825415518</v>
       </c>
       <c r="D115" t="n">
-        <v>0.6582855444372143</v>
+        <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>0.6698643470827614</v>
+        <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.6343346502015679</v>
+        <v>0.7790735640017161</v>
       </c>
       <c r="G115" t="n">
-        <v>0.4460177823701866</v>
+        <v>1</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0.8401488649287689</v>
       </c>
       <c r="I115" t="n">
-        <v>0.5404449074751043</v>
+        <v>0.8470974542412482</v>
       </c>
       <c r="J115" t="n">
         <v>14</v>
@@ -4368,28 +4368,28 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.03999601479420775</v>
+        <v>0.3458970179901679</v>
       </c>
       <c r="C116" t="n">
-        <v>0.002990185193759162</v>
+        <v>0.1867249181916976</v>
       </c>
       <c r="D116" t="n">
-        <v>0.07241497175758213</v>
+        <v>0.3490503154173946</v>
       </c>
       <c r="E116" t="n">
-        <v>0.0425444138825188</v>
+        <v>0.3486200203314269</v>
       </c>
       <c r="F116" t="n">
-        <v>0.03999601479420775</v>
+        <v>0.3474039354903709</v>
       </c>
       <c r="G116" t="n">
-        <v>0.4460177823701866</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0.8401488649287689</v>
       </c>
       <c r="I116" t="n">
-        <v>0.5404449074751043</v>
+        <v>0.8470974542412482</v>
       </c>
       <c r="J116" t="n">
         <v>14</v>
@@ -4402,28 +4402,28 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.01980745966433485</v>
+        <v>0.3223749059565882</v>
       </c>
       <c r="C117" t="n">
-        <v>-0.0005175202327398669</v>
+        <v>0.2539759920826511</v>
       </c>
       <c r="D117" t="n">
-        <v>0.04393958255380154</v>
+        <v>0.3223749059565882</v>
       </c>
       <c r="E117" t="n">
-        <v>0.04547883041538371</v>
+        <v>0.3223749059565882</v>
       </c>
       <c r="F117" t="n">
-        <v>0.04545918328966966</v>
+        <v>0.3223749059565882</v>
       </c>
       <c r="G117" t="n">
-        <v>0.4460177823701866</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0.8401488649287689</v>
       </c>
       <c r="I117" t="n">
-        <v>0.5404449074751043</v>
+        <v>0.8470974542412482</v>
       </c>
       <c r="J117" t="n">
         <v>14</v>
@@ -4436,28 +4436,28 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.05869886559037022</v>
+        <v>0.3564538773587718</v>
       </c>
       <c r="C118" t="n">
-        <v>0.007710413629194753</v>
+        <v>0.1624771412001563</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0470239291469722</v>
+        <v>0.36495543445358</v>
       </c>
       <c r="E118" t="n">
-        <v>0.04321983361062301</v>
+        <v>0.36495543445358</v>
       </c>
       <c r="F118" t="n">
-        <v>0.05518796780263158</v>
+        <v>0.3617009718579809</v>
       </c>
       <c r="G118" t="n">
-        <v>0.4460177823701866</v>
+        <v>1</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0.8401488649287689</v>
       </c>
       <c r="I118" t="n">
-        <v>0.5404449074751043</v>
+        <v>0.8470974542412482</v>
       </c>
       <c r="J118" t="n">
         <v>14</v>
@@ -4470,28 +4470,28 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.08043973276567939</v>
+        <v>0.36495543445358</v>
       </c>
       <c r="C119" t="n">
-        <v>0.01690510518302169</v>
+        <v>0.3077373179886367</v>
       </c>
       <c r="D119" t="n">
-        <v>0.05466672917875373</v>
+        <v>0.36495543445358</v>
       </c>
       <c r="E119" t="n">
-        <v>0.05600096597214753</v>
+        <v>0.36495543445358</v>
       </c>
       <c r="F119" t="n">
-        <v>0.08043973276567939</v>
+        <v>0.36495543445358</v>
       </c>
       <c r="G119" t="n">
-        <v>0.4460177823701866</v>
+        <v>1</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0.8401488649287689</v>
       </c>
       <c r="I119" t="n">
-        <v>0.5404449074751043</v>
+        <v>0.8470974542412482</v>
       </c>
       <c r="J119" t="n">
         <v>14</v>
@@ -4504,28 +4504,28 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.01474170608359865</v>
+        <v>0.07308684034018881</v>
       </c>
       <c r="C120" t="n">
-        <v>0.00605262245029172</v>
+        <v>0.07324457581403203</v>
       </c>
       <c r="D120" t="n">
-        <v>0.01872397673209176</v>
+        <v>0.05920366591480423</v>
       </c>
       <c r="E120" t="n">
-        <v>0.01789395455855319</v>
+        <v>0.05815209872722175</v>
       </c>
       <c r="F120" t="n">
-        <v>0.01474170608359865</v>
+        <v>0.07308684034018881</v>
       </c>
       <c r="G120" t="n">
-        <v>0.4460177823701866</v>
+        <v>1</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0.8401488649287689</v>
       </c>
       <c r="I120" t="n">
-        <v>0.5404449074751043</v>
+        <v>0.8470974542412482</v>
       </c>
       <c r="J120" t="n">
         <v>14</v>
@@ -4538,28 +4538,28 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.06788326139005198</v>
+        <v>0.2546901584208969</v>
       </c>
       <c r="C121" t="n">
-        <v>0.002067155140605582</v>
+        <v>0.1584370240096826</v>
       </c>
       <c r="D121" t="n">
-        <v>0.05179231522097506</v>
+        <v>0.2658037465223232</v>
       </c>
       <c r="E121" t="n">
-        <v>0.06167984740140367</v>
+        <v>0.2667452609408926</v>
       </c>
       <c r="F121" t="n">
-        <v>0.06482789163702143</v>
+        <v>0.1918107116857737</v>
       </c>
       <c r="G121" t="n">
-        <v>0.4460177823701866</v>
+        <v>1</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0.8401488649287689</v>
       </c>
       <c r="I121" t="n">
-        <v>0.5404449074751043</v>
+        <v>0.8470974542412482</v>
       </c>
       <c r="J121" t="n">
         <v>14</v>
@@ -4572,28 +4572,28 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.379846468971784</v>
+        <v>0.6390451011599085</v>
       </c>
       <c r="C122" t="n">
-        <v>0.07102581208135587</v>
+        <v>0.1642501146373652</v>
       </c>
       <c r="D122" t="n">
-        <v>0.4407662550523859</v>
+        <v>0.7081937125606566</v>
       </c>
       <c r="E122" t="n">
-        <v>0.4303731354247311</v>
+        <v>0.7387017175613735</v>
       </c>
       <c r="F122" t="n">
-        <v>0.3484272065340485</v>
+        <v>0.588542748981799</v>
       </c>
       <c r="G122" t="n">
-        <v>0.08375878938133381</v>
+        <v>0.9478356042561964</v>
       </c>
       <c r="H122" t="n">
-        <v>0.8176023784598119</v>
+        <v>0.7891144657415116</v>
       </c>
       <c r="I122" t="n">
-        <v>0.4990759762376562</v>
+        <v>0.7851352980943002</v>
       </c>
       <c r="J122" t="n">
         <v>15</v>
@@ -4606,28 +4606,28 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.2354740493260807</v>
+        <v>0.8124159887515734</v>
       </c>
       <c r="C123" t="n">
-        <v>0.008464161945914189</v>
+        <v>0.2739543431184819</v>
       </c>
       <c r="D123" t="n">
-        <v>0.2130399950177817</v>
+        <v>0.8608594778426719</v>
       </c>
       <c r="E123" t="n">
-        <v>0.2084717451656805</v>
+        <v>0.8854387531551893</v>
       </c>
       <c r="F123" t="n">
-        <v>0.1812695243988642</v>
+        <v>0.5270944418683918</v>
       </c>
       <c r="G123" t="n">
-        <v>0.08375878938133381</v>
+        <v>0.9478356042561964</v>
       </c>
       <c r="H123" t="n">
-        <v>0.8176023784598119</v>
+        <v>0.7891144657415116</v>
       </c>
       <c r="I123" t="n">
-        <v>0.4990759762376562</v>
+        <v>0.7851352980943002</v>
       </c>
       <c r="J123" t="n">
         <v>15</v>
@@ -4640,28 +4640,28 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.05014852031021942</v>
+        <v>0.2210563632172532</v>
       </c>
       <c r="C124" t="n">
-        <v>0.03784586487627041</v>
+        <v>0.03910456752528907</v>
       </c>
       <c r="D124" t="n">
-        <v>0.05013453787350179</v>
+        <v>0.25054528121381</v>
       </c>
       <c r="E124" t="n">
-        <v>0.03705331246159301</v>
+        <v>0.2486960615127411</v>
       </c>
       <c r="F124" t="n">
-        <v>0.04593823209999209</v>
+        <v>0.2210563632172532</v>
       </c>
       <c r="G124" t="n">
-        <v>0.08375878938133381</v>
+        <v>0.9478356042561964</v>
       </c>
       <c r="H124" t="n">
-        <v>0.8176023784598119</v>
+        <v>0.7891144657415116</v>
       </c>
       <c r="I124" t="n">
-        <v>0.4990759762376562</v>
+        <v>0.7851352980943002</v>
       </c>
       <c r="J124" t="n">
         <v>15</v>
@@ -4674,28 +4674,28 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.03433201995688348</v>
+        <v>0.2075855746820833</v>
       </c>
       <c r="C125" t="n">
-        <v>-0.001477480499005944</v>
+        <v>0.05056141008326502</v>
       </c>
       <c r="D125" t="n">
-        <v>0.05952515613709941</v>
+        <v>0.2299246497494207</v>
       </c>
       <c r="E125" t="n">
-        <v>0.04229914613667707</v>
+        <v>0.2456665178710343</v>
       </c>
       <c r="F125" t="n">
-        <v>0.02527199785465925</v>
+        <v>0.2185971819479683</v>
       </c>
       <c r="G125" t="n">
-        <v>0.08375878938133381</v>
+        <v>0.9478356042561964</v>
       </c>
       <c r="H125" t="n">
-        <v>0.8176023784598119</v>
+        <v>0.7891144657415116</v>
       </c>
       <c r="I125" t="n">
-        <v>0.4990759762376562</v>
+        <v>0.7851352980943002</v>
       </c>
       <c r="J125" t="n">
         <v>15</v>
@@ -4708,28 +4708,28 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.06454036728410219</v>
+        <v>0.2461808375714241</v>
       </c>
       <c r="C126" t="n">
-        <v>0.02010442784900539</v>
+        <v>0.1122141529995141</v>
       </c>
       <c r="D126" t="n">
-        <v>0.04855087936617684</v>
+        <v>0.2572402610360409</v>
       </c>
       <c r="E126" t="n">
-        <v>0.04471560949650995</v>
+        <v>0.25917521526744</v>
       </c>
       <c r="F126" t="n">
-        <v>0.03991542443369454</v>
+        <v>0.2402111498001141</v>
       </c>
       <c r="G126" t="n">
-        <v>0.08375878938133381</v>
+        <v>0.9478356042561964</v>
       </c>
       <c r="H126" t="n">
-        <v>0.8176023784598119</v>
+        <v>0.7891144657415116</v>
       </c>
       <c r="I126" t="n">
-        <v>0.4990759762376562</v>
+        <v>0.7851352980943002</v>
       </c>
       <c r="J126" t="n">
         <v>15</v>
@@ -4742,28 +4742,28 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.08209678837853035</v>
+        <v>0.2587106086058469</v>
       </c>
       <c r="C127" t="n">
-        <v>0.009177829813015452</v>
+        <v>0.1231583400888967</v>
       </c>
       <c r="D127" t="n">
-        <v>0.07184051908245956</v>
+        <v>0.2624083372440421</v>
       </c>
       <c r="E127" t="n">
-        <v>0.09090470175931574</v>
+        <v>0.261044167979365</v>
       </c>
       <c r="F127" t="n">
-        <v>0.08209678837853035</v>
+        <v>0.2587106086058469</v>
       </c>
       <c r="G127" t="n">
-        <v>0.08375878938133381</v>
+        <v>0.9478356042561964</v>
       </c>
       <c r="H127" t="n">
-        <v>0.8176023784598119</v>
+        <v>0.7891144657415116</v>
       </c>
       <c r="I127" t="n">
-        <v>0.4990759762376562</v>
+        <v>0.7851352980943002</v>
       </c>
       <c r="J127" t="n">
         <v>15</v>
@@ -4776,28 +4776,28 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.02239567606166092</v>
+        <v>0.03530020809244825</v>
       </c>
       <c r="C128" t="n">
-        <v>0.008288622541110681</v>
+        <v>0.03805159883734146</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0164239526348619</v>
+        <v>0.0359777944372868</v>
       </c>
       <c r="E128" t="n">
-        <v>0.0164239526348619</v>
+        <v>0.03613338885793635</v>
       </c>
       <c r="F128" t="n">
-        <v>0.02239567606166092</v>
+        <v>0.03530020809244825</v>
       </c>
       <c r="G128" t="n">
-        <v>0.08375878938133381</v>
+        <v>0.9478356042561964</v>
       </c>
       <c r="H128" t="n">
-        <v>0.8176023784598119</v>
+        <v>0.7891144657415116</v>
       </c>
       <c r="I128" t="n">
-        <v>0.4990759762376562</v>
+        <v>0.7851352980943002</v>
       </c>
       <c r="J128" t="n">
         <v>15</v>
@@ -4810,28 +4810,28 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.08149531970089162</v>
+        <v>0.2367270816007862</v>
       </c>
       <c r="C129" t="n">
-        <v>0.007280349214667758</v>
+        <v>0.07140438335626301</v>
       </c>
       <c r="D129" t="n">
-        <v>0.07963493276534991</v>
+        <v>0.2411370631316034</v>
       </c>
       <c r="E129" t="n">
-        <v>0.05666648839531564</v>
+        <v>0.2468409752401714</v>
       </c>
       <c r="F129" t="n">
-        <v>0.1010017298999184</v>
+        <v>0.2117960628642536</v>
       </c>
       <c r="G129" t="n">
-        <v>0.08375878938133381</v>
+        <v>0.9478356042561964</v>
       </c>
       <c r="H129" t="n">
-        <v>0.8176023784598119</v>
+        <v>0.7891144657415116</v>
       </c>
       <c r="I129" t="n">
-        <v>0.4990759762376562</v>
+        <v>0.7851352980943002</v>
       </c>
       <c r="J129" t="n">
         <v>15</v>
@@ -4844,28 +4844,28 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.8936144630751431</v>
+        <v>0.7368812996710515</v>
       </c>
       <c r="C130" t="n">
-        <v>0.3372741571937989</v>
+        <v>0.0746299067251274</v>
       </c>
       <c r="D130" t="n">
-        <v>0.9376817361234067</v>
+        <v>0.7846007446559546</v>
       </c>
       <c r="E130" t="n">
-        <v>0.9241760493233226</v>
+        <v>0.8005712053171644</v>
       </c>
       <c r="F130" t="n">
-        <v>0.6602398975734454</v>
+        <v>0.6994054128287877</v>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>0.9808034138838464</v>
       </c>
       <c r="H130" t="n">
-        <v>0.8560255295343964</v>
+        <v>0.9057849516630881</v>
       </c>
       <c r="I130" t="n">
-        <v>0.8928185910262412</v>
+        <v>0.7654341734320864</v>
       </c>
       <c r="J130" t="n">
         <v>16</v>
@@ -4878,28 +4878,28 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.7956811314513517</v>
+        <v>0.8682656656095589</v>
       </c>
       <c r="C131" t="n">
-        <v>0.5582990133373141</v>
+        <v>0.3453563413178662</v>
       </c>
       <c r="D131" t="n">
-        <v>0.7951602610762635</v>
+        <v>0.8740707409189785</v>
       </c>
       <c r="E131" t="n">
-        <v>0.7840062119729525</v>
+        <v>0.89224788911632</v>
       </c>
       <c r="F131" t="n">
-        <v>0.5951039856028808</v>
+        <v>0.7587622029518878</v>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>0.9808034138838464</v>
       </c>
       <c r="H131" t="n">
-        <v>0.8560255295343964</v>
+        <v>0.9057849516630881</v>
       </c>
       <c r="I131" t="n">
-        <v>0.8928185910262412</v>
+        <v>0.7654341734320864</v>
       </c>
       <c r="J131" t="n">
         <v>16</v>
@@ -4912,28 +4912,28 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.258535764349212</v>
+        <v>0.1640666102368398</v>
       </c>
       <c r="C132" t="n">
-        <v>0.2721495696210259</v>
+        <v>0.06587394409754303</v>
       </c>
       <c r="D132" t="n">
-        <v>0.2813972516963411</v>
+        <v>0.1943204492436739</v>
       </c>
       <c r="E132" t="n">
-        <v>0.2617152233971075</v>
+        <v>0.1942562767577161</v>
       </c>
       <c r="F132" t="n">
-        <v>0.258535764349212</v>
+        <v>0.1640666102368398</v>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>0.9808034138838464</v>
       </c>
       <c r="H132" t="n">
-        <v>0.8560255295343964</v>
+        <v>0.9057849516630881</v>
       </c>
       <c r="I132" t="n">
-        <v>0.8928185910262412</v>
+        <v>0.7654341734320864</v>
       </c>
       <c r="J132" t="n">
         <v>16</v>
@@ -4946,28 +4946,28 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.301821300420247</v>
+        <v>0.1680977609703291</v>
       </c>
       <c r="C133" t="n">
-        <v>0.1293548658709317</v>
+        <v>0.09539599734952994</v>
       </c>
       <c r="D133" t="n">
-        <v>0.2981580080506793</v>
+        <v>0.1513372261578174</v>
       </c>
       <c r="E133" t="n">
-        <v>0.301821300420247</v>
+        <v>0.1661507736949283</v>
       </c>
       <c r="F133" t="n">
-        <v>0.2702499562322362</v>
+        <v>0.1710823949243524</v>
       </c>
       <c r="G133" t="n">
-        <v>1</v>
+        <v>0.9808034138838464</v>
       </c>
       <c r="H133" t="n">
-        <v>0.8560255295343964</v>
+        <v>0.9057849516630881</v>
       </c>
       <c r="I133" t="n">
-        <v>0.8928185910262412</v>
+        <v>0.7654341734320864</v>
       </c>
       <c r="J133" t="n">
         <v>16</v>
@@ -4980,28 +4980,28 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.1488761760939596</v>
+        <v>0.1636904361028109</v>
       </c>
       <c r="C134" t="n">
-        <v>0.1803594380760669</v>
+        <v>0.08949167469263768</v>
       </c>
       <c r="D134" t="n">
-        <v>0.1809484036403165</v>
+        <v>0.1655506451881633</v>
       </c>
       <c r="E134" t="n">
-        <v>0.1689954674117259</v>
+        <v>0.1716027791993279</v>
       </c>
       <c r="F134" t="n">
-        <v>0.1488761760939596</v>
+        <v>0.1635713113728048</v>
       </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>0.9808034138838464</v>
       </c>
       <c r="H134" t="n">
-        <v>0.8560255295343964</v>
+        <v>0.9057849516630881</v>
       </c>
       <c r="I134" t="n">
-        <v>0.8928185910262412</v>
+        <v>0.7654341734320864</v>
       </c>
       <c r="J134" t="n">
         <v>16</v>
@@ -5014,28 +5014,28 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.2546058629990384</v>
+        <v>0.1895295007873186</v>
       </c>
       <c r="C135" t="n">
-        <v>0.1716020160377389</v>
+        <v>0.1267778425526447</v>
       </c>
       <c r="D135" t="n">
-        <v>0.2597908200893557</v>
+        <v>0.1965238668040681</v>
       </c>
       <c r="E135" t="n">
-        <v>0.2728474696987791</v>
+        <v>0.202935792018441</v>
       </c>
       <c r="F135" t="n">
-        <v>0.2546058629990384</v>
+        <v>0.1895295007873186</v>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>0.9808034138838464</v>
       </c>
       <c r="H135" t="n">
-        <v>0.8560255295343964</v>
+        <v>0.9057849516630881</v>
       </c>
       <c r="I135" t="n">
-        <v>0.8928185910262412</v>
+        <v>0.7654341734320864</v>
       </c>
       <c r="J135" t="n">
         <v>16</v>
@@ -5048,28 +5048,28 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.09532324013509849</v>
+        <v>0.02309754766894688</v>
       </c>
       <c r="C136" t="n">
-        <v>0.07931788995586697</v>
+        <v>0.02308965915717457</v>
       </c>
       <c r="D136" t="n">
-        <v>0.07507309964538142</v>
+        <v>0.02791217764389531</v>
       </c>
       <c r="E136" t="n">
-        <v>0.07761850512530626</v>
+        <v>0.02923615426511222</v>
       </c>
       <c r="F136" t="n">
-        <v>0.09532324013509849</v>
+        <v>0.02309754766894688</v>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>0.9808034138838464</v>
       </c>
       <c r="H136" t="n">
-        <v>0.8560255295343964</v>
+        <v>0.9057849516630881</v>
       </c>
       <c r="I136" t="n">
-        <v>0.8928185910262412</v>
+        <v>0.7654341734320864</v>
       </c>
       <c r="J136" t="n">
         <v>16</v>
@@ -5082,28 +5082,28 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.2151459601619188</v>
+        <v>0.1603869450595062</v>
       </c>
       <c r="C137" t="n">
-        <v>0.1752075842124833</v>
+        <v>0.0902396922496128</v>
       </c>
       <c r="D137" t="n">
-        <v>0.214016681869394</v>
+        <v>0.1839125565831508</v>
       </c>
       <c r="E137" t="n">
-        <v>0.198371334000125</v>
+        <v>0.1713637900619231</v>
       </c>
       <c r="F137" t="n">
-        <v>0.2264293293714667</v>
+        <v>0.1733372826372128</v>
       </c>
       <c r="G137" t="n">
-        <v>1</v>
+        <v>0.9808034138838464</v>
       </c>
       <c r="H137" t="n">
-        <v>0.8560255295343964</v>
+        <v>0.9057849516630881</v>
       </c>
       <c r="I137" t="n">
-        <v>0.8928185910262412</v>
+        <v>0.7654341734320864</v>
       </c>
       <c r="J137" t="n">
         <v>16</v>
@@ -5116,28 +5116,28 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.6157696008383156</v>
+        <v>0.7308800675279178</v>
       </c>
       <c r="C138" t="n">
-        <v>0.1935296379345231</v>
+        <v>0.1455235968295412</v>
       </c>
       <c r="D138" t="n">
-        <v>0.6734235477063439</v>
+        <v>0.9016739145548065</v>
       </c>
       <c r="E138" t="n">
-        <v>0.6556657220429702</v>
+        <v>0.9044573270363612</v>
       </c>
       <c r="F138" t="n">
-        <v>0.443219480743635</v>
+        <v>0.6527234252698715</v>
       </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>0.9918204213010847</v>
       </c>
       <c r="H138" t="n">
-        <v>0.8507165171503865</v>
+        <v>0.866960487729451</v>
       </c>
       <c r="I138" t="n">
-        <v>0.8413355011922584</v>
+        <v>0.8049414384608096</v>
       </c>
       <c r="J138" t="n">
         <v>17</v>
@@ -5150,28 +5150,28 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.8827675061687262</v>
+        <v>0.9154398333036987</v>
       </c>
       <c r="C139" t="n">
-        <v>0.4538314087758883</v>
+        <v>0.2619868955863243</v>
       </c>
       <c r="D139" t="n">
-        <v>0.7012354695890475</v>
+        <v>0.9633003091618436</v>
       </c>
       <c r="E139" t="n">
-        <v>0.7286364126361041</v>
+        <v>0.9719753103884532</v>
       </c>
       <c r="F139" t="n">
-        <v>0.5069785274975982</v>
+        <v>0.6474454005263918</v>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>0.9918204213010847</v>
       </c>
       <c r="H139" t="n">
-        <v>0.8507165171503865</v>
+        <v>0.866960487729451</v>
       </c>
       <c r="I139" t="n">
-        <v>0.8413355011922584</v>
+        <v>0.8049414384608096</v>
       </c>
       <c r="J139" t="n">
         <v>17</v>
@@ -5184,28 +5184,28 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.2347159698488825</v>
+        <v>0.2178289890177178</v>
       </c>
       <c r="C140" t="n">
-        <v>0.1501344290598799</v>
+        <v>0.08252421243659344</v>
       </c>
       <c r="D140" t="n">
-        <v>0.1638382314717424</v>
+        <v>0.2236999445351913</v>
       </c>
       <c r="E140" t="n">
-        <v>0.1608541530672827</v>
+        <v>0.2234385432463019</v>
       </c>
       <c r="F140" t="n">
-        <v>0.2276284050791403</v>
+        <v>0.2178289890177178</v>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>0.9918204213010847</v>
       </c>
       <c r="H140" t="n">
-        <v>0.8507165171503865</v>
+        <v>0.866960487729451</v>
       </c>
       <c r="I140" t="n">
-        <v>0.8413355011922584</v>
+        <v>0.8049414384608096</v>
       </c>
       <c r="J140" t="n">
         <v>17</v>
@@ -5218,28 +5218,28 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.218271429472085</v>
+        <v>0.2564663445154222</v>
       </c>
       <c r="C141" t="n">
-        <v>0.1704436258918545</v>
+        <v>0.09101977617784895</v>
       </c>
       <c r="D141" t="n">
-        <v>0.2241682174350413</v>
+        <v>0.2616529951456331</v>
       </c>
       <c r="E141" t="n">
-        <v>0.2055385410853126</v>
+        <v>0.2531479839769519</v>
       </c>
       <c r="F141" t="n">
-        <v>0.218271429472085</v>
+        <v>0.2591933794760903</v>
       </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>0.9918204213010847</v>
       </c>
       <c r="H141" t="n">
-        <v>0.8507165171503865</v>
+        <v>0.866960487729451</v>
       </c>
       <c r="I141" t="n">
-        <v>0.8413355011922584</v>
+        <v>0.8049414384608096</v>
       </c>
       <c r="J141" t="n">
         <v>17</v>
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.2271208372321242</v>
+        <v>0.2469341595131457</v>
       </c>
       <c r="C142" t="n">
-        <v>0.1149106286899107</v>
+        <v>0.05339323159606239</v>
       </c>
       <c r="D142" t="n">
-        <v>0.2524580055312688</v>
+        <v>0.2524059708712508</v>
       </c>
       <c r="E142" t="n">
-        <v>0.2524580055312688</v>
+        <v>0.2530288358012553</v>
       </c>
       <c r="F142" t="n">
-        <v>0.2117340254708189</v>
+        <v>0.2478447169841737</v>
       </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>0.9918204213010847</v>
       </c>
       <c r="H142" t="n">
-        <v>0.8507165171503865</v>
+        <v>0.866960487729451</v>
       </c>
       <c r="I142" t="n">
-        <v>0.8413355011922584</v>
+        <v>0.8049414384608096</v>
       </c>
       <c r="J142" t="n">
         <v>17</v>
@@ -5286,28 +5286,28 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.2548260935665486</v>
+        <v>0.2406542382310988</v>
       </c>
       <c r="C143" t="n">
-        <v>0.1714517991610968</v>
+        <v>0.1231582352236068</v>
       </c>
       <c r="D143" t="n">
-        <v>0.2548260935665486</v>
+        <v>0.2362242081432481</v>
       </c>
       <c r="E143" t="n">
-        <v>0.2553143339595904</v>
+        <v>0.2421537082934561</v>
       </c>
       <c r="F143" t="n">
-        <v>0.2548260935665486</v>
+        <v>0.2406542382310988</v>
       </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>0.9918204213010847</v>
       </c>
       <c r="H143" t="n">
-        <v>0.8507165171503865</v>
+        <v>0.866960487729451</v>
       </c>
       <c r="I143" t="n">
-        <v>0.8413355011922584</v>
+        <v>0.8049414384608096</v>
       </c>
       <c r="J143" t="n">
         <v>17</v>
@@ -5320,28 +5320,28 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.06362741008800961</v>
+        <v>0.04264793412214042</v>
       </c>
       <c r="C144" t="n">
-        <v>0.048368451297334</v>
+        <v>0.05154475993800291</v>
       </c>
       <c r="D144" t="n">
-        <v>0.0659921554704867</v>
+        <v>0.03671001765584316</v>
       </c>
       <c r="E144" t="n">
-        <v>0.06175707569697417</v>
+        <v>0.03651492227330446</v>
       </c>
       <c r="F144" t="n">
-        <v>0.06362741008800961</v>
+        <v>0.04264793412214042</v>
       </c>
       <c r="G144" t="n">
-        <v>1</v>
+        <v>0.9918204213010847</v>
       </c>
       <c r="H144" t="n">
-        <v>0.8507165171503865</v>
+        <v>0.866960487729451</v>
       </c>
       <c r="I144" t="n">
-        <v>0.8413355011922584</v>
+        <v>0.8049414384608096</v>
       </c>
       <c r="J144" t="n">
         <v>17</v>
@@ -5354,28 +5354,28 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.1774685400918425</v>
+        <v>0.1695068835734797</v>
       </c>
       <c r="C145" t="n">
-        <v>0.07986471394957251</v>
+        <v>0.1052856552593621</v>
       </c>
       <c r="D145" t="n">
-        <v>0.2245627401078814</v>
+        <v>0.1406351706390929</v>
       </c>
       <c r="E145" t="n">
-        <v>0.1934643160639865</v>
+        <v>0.1452518445741504</v>
       </c>
       <c r="F145" t="n">
-        <v>0.1947323133824864</v>
+        <v>0.1888181263889573</v>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>0.9918204213010847</v>
       </c>
       <c r="H145" t="n">
-        <v>0.8507165171503865</v>
+        <v>0.866960487729451</v>
       </c>
       <c r="I145" t="n">
-        <v>0.8413355011922584</v>
+        <v>0.8049414384608096</v>
       </c>
       <c r="J145" t="n">
         <v>17</v>
@@ -5388,28 +5388,28 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.783983627811937</v>
+        <v>0.5744296310791606</v>
       </c>
       <c r="C146" t="n">
-        <v>0.2252933312805947</v>
+        <v>0.1884553705981724</v>
       </c>
       <c r="D146" t="n">
-        <v>0.802470028000337</v>
+        <v>0.6233984593746775</v>
       </c>
       <c r="E146" t="n">
-        <v>0.756525230197292</v>
+        <v>0.6373252015531014</v>
       </c>
       <c r="F146" t="n">
-        <v>0.5790516105146672</v>
+        <v>0.5865165818989002</v>
       </c>
       <c r="G146" t="n">
-        <v>0.9754658552790672</v>
+        <v>0.6525648570376195</v>
       </c>
       <c r="H146" t="n">
-        <v>0.9250263534162917</v>
+        <v>0.9637406638043245</v>
       </c>
       <c r="I146" t="n">
-        <v>0.8761039604464833</v>
+        <v>0.5941238741311732</v>
       </c>
       <c r="J146" t="n">
         <v>18</v>
@@ -5422,28 +5422,28 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.7797167464220287</v>
+        <v>0.7343040227549457</v>
       </c>
       <c r="C147" t="n">
-        <v>0.5823183611647498</v>
+        <v>0.2010030055086897</v>
       </c>
       <c r="D147" t="n">
-        <v>0.6087098147702461</v>
+        <v>0.8713095094309977</v>
       </c>
       <c r="E147" t="n">
-        <v>0.6153051602260853</v>
+        <v>0.8732000963544516</v>
       </c>
       <c r="F147" t="n">
-        <v>0.412442749108355</v>
+        <v>0.5316110992994008</v>
       </c>
       <c r="G147" t="n">
-        <v>0.9754658552790672</v>
+        <v>0.6525648570376195</v>
       </c>
       <c r="H147" t="n">
-        <v>0.9250263534162917</v>
+        <v>0.9637406638043245</v>
       </c>
       <c r="I147" t="n">
-        <v>0.8761039604464833</v>
+        <v>0.5941238741311732</v>
       </c>
       <c r="J147" t="n">
         <v>18</v>
@@ -5456,28 +5456,28 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.3187555287273309</v>
+        <v>0.09690330441519043</v>
       </c>
       <c r="C148" t="n">
-        <v>0.2068295816472793</v>
+        <v>0.04579076677458491</v>
       </c>
       <c r="D148" t="n">
-        <v>0.3341755912687067</v>
+        <v>0.09918420192781117</v>
       </c>
       <c r="E148" t="n">
-        <v>0.3473484912603186</v>
+        <v>0.09840261278363709</v>
       </c>
       <c r="F148" t="n">
-        <v>0.3187555287273309</v>
+        <v>0.1266347721390971</v>
       </c>
       <c r="G148" t="n">
-        <v>0.9754658552790672</v>
+        <v>0.6525648570376195</v>
       </c>
       <c r="H148" t="n">
-        <v>0.9250263534162917</v>
+        <v>0.9637406638043245</v>
       </c>
       <c r="I148" t="n">
-        <v>0.8761039604464833</v>
+        <v>0.5941238741311732</v>
       </c>
       <c r="J148" t="n">
         <v>18</v>
@@ -5490,28 +5490,28 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.2277496503382849</v>
+        <v>0.05783137977666286</v>
       </c>
       <c r="C149" t="n">
-        <v>0.3003755046301075</v>
+        <v>0.01082529752555123</v>
       </c>
       <c r="D149" t="n">
-        <v>0.1599082345714327</v>
+        <v>0.06678243423096315</v>
       </c>
       <c r="E149" t="n">
-        <v>0.1609373643880164</v>
+        <v>0.06933307865076717</v>
       </c>
       <c r="F149" t="n">
-        <v>0.2277496503382849</v>
+        <v>0.07903419002051676</v>
       </c>
       <c r="G149" t="n">
-        <v>0.9754658552790672</v>
+        <v>0.6525648570376195</v>
       </c>
       <c r="H149" t="n">
-        <v>0.9250263534162917</v>
+        <v>0.9637406638043245</v>
       </c>
       <c r="I149" t="n">
-        <v>0.8761039604464833</v>
+        <v>0.5941238741311732</v>
       </c>
       <c r="J149" t="n">
         <v>18</v>
@@ -5524,28 +5524,28 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.3454899032631515</v>
+        <v>0.1016523792491039</v>
       </c>
       <c r="C150" t="n">
-        <v>0.2061806872243049</v>
+        <v>0.01173442589553003</v>
       </c>
       <c r="D150" t="n">
-        <v>0.3288197484473531</v>
+        <v>0.1072915979252904</v>
       </c>
       <c r="E150" t="n">
-        <v>0.3234547924911741</v>
+        <v>0.1033708003149713</v>
       </c>
       <c r="F150" t="n">
-        <v>0.3063913890773484</v>
+        <v>0.09037860708933315</v>
       </c>
       <c r="G150" t="n">
-        <v>0.9754658552790672</v>
+        <v>0.6525648570376195</v>
       </c>
       <c r="H150" t="n">
-        <v>0.9250263534162917</v>
+        <v>0.9637406638043245</v>
       </c>
       <c r="I150" t="n">
-        <v>0.8761039604464833</v>
+        <v>0.5941238741311732</v>
       </c>
       <c r="J150" t="n">
         <v>18</v>
@@ -5558,28 +5558,28 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.3520832952917875</v>
+        <v>0.0830847721543079</v>
       </c>
       <c r="C151" t="n">
-        <v>0.2769561066300018</v>
+        <v>0.02067667061062506</v>
       </c>
       <c r="D151" t="n">
-        <v>0.2843431184404842</v>
+        <v>0.1141929543994025</v>
       </c>
       <c r="E151" t="n">
-        <v>0.2777554382045853</v>
+        <v>0.1123333093456244</v>
       </c>
       <c r="F151" t="n">
-        <v>0.3520832952917875</v>
+        <v>0.0830847721543079</v>
       </c>
       <c r="G151" t="n">
-        <v>0.9754658552790672</v>
+        <v>0.6525648570376195</v>
       </c>
       <c r="H151" t="n">
-        <v>0.9250263534162917</v>
+        <v>0.9637406638043245</v>
       </c>
       <c r="I151" t="n">
-        <v>0.8761039604464833</v>
+        <v>0.5941238741311732</v>
       </c>
       <c r="J151" t="n">
         <v>18</v>
@@ -5592,28 +5592,28 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.08934721333445092</v>
+        <v>0.0202789212121512</v>
       </c>
       <c r="C152" t="n">
-        <v>0.08622062714069528</v>
+        <v>0.02313723031054681</v>
       </c>
       <c r="D152" t="n">
-        <v>0.09431669116029348</v>
+        <v>0.01793607358051714</v>
       </c>
       <c r="E152" t="n">
-        <v>0.0985183643208833</v>
+        <v>0.02164399438002471</v>
       </c>
       <c r="F152" t="n">
-        <v>0.08934721333445092</v>
+        <v>0.0202789212121512</v>
       </c>
       <c r="G152" t="n">
-        <v>0.9754658552790672</v>
+        <v>0.6525648570376195</v>
       </c>
       <c r="H152" t="n">
-        <v>0.9250263534162917</v>
+        <v>0.9637406638043245</v>
       </c>
       <c r="I152" t="n">
-        <v>0.8761039604464833</v>
+        <v>0.5941238741311732</v>
       </c>
       <c r="J152" t="n">
         <v>18</v>
@@ -5626,28 +5626,28 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.2785838143983823</v>
+        <v>0.1034836852173105</v>
       </c>
       <c r="C153" t="n">
-        <v>0.1548381141767996</v>
+        <v>0.05428027095000466</v>
       </c>
       <c r="D153" t="n">
-        <v>0.2559634433839029</v>
+        <v>0.1150293357653447</v>
       </c>
       <c r="E153" t="n">
-        <v>0.2749374836206649</v>
+        <v>0.1125087516028507</v>
       </c>
       <c r="F153" t="n">
-        <v>0.2695030946741405</v>
+        <v>0.1087592902796467</v>
       </c>
       <c r="G153" t="n">
-        <v>0.9754658552790672</v>
+        <v>0.6525648570376195</v>
       </c>
       <c r="H153" t="n">
-        <v>0.9250263534162917</v>
+        <v>0.9637406638043245</v>
       </c>
       <c r="I153" t="n">
-        <v>0.8761039604464833</v>
+        <v>0.5941238741311732</v>
       </c>
       <c r="J153" t="n">
         <v>18</v>
@@ -5660,28 +5660,28 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.3936320742155398</v>
+        <v>0.4505135912469035</v>
       </c>
       <c r="C154" t="n">
-        <v>0.03038745513575737</v>
+        <v>0.03020313905548114</v>
       </c>
       <c r="D154" t="n">
-        <v>0.5035167408240552</v>
+        <v>0.4915127199120268</v>
       </c>
       <c r="E154" t="n">
-        <v>0.5232640523003123</v>
+        <v>0.4980584245368454</v>
       </c>
       <c r="F154" t="n">
-        <v>0.4537404845718978</v>
+        <v>0.4244391867117267</v>
       </c>
       <c r="G154" t="n">
-        <v>0.4413063962518813</v>
+        <v>0.870808251028083</v>
       </c>
       <c r="H154" t="n">
-        <v>0.7424609240145159</v>
+        <v>0.8558612511203163</v>
       </c>
       <c r="I154" t="n">
-        <v>0.6103015400307953</v>
+        <v>0.6359578635170301</v>
       </c>
       <c r="J154" t="n">
         <v>19</v>
@@ -5694,28 +5694,28 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.5664852266164409</v>
+        <v>0.621629142459592</v>
       </c>
       <c r="C155" t="n">
-        <v>0.110054713285017</v>
+        <v>0.1383118034319303</v>
       </c>
       <c r="D155" t="n">
-        <v>0.5763153240110059</v>
+        <v>0.5420883629138219</v>
       </c>
       <c r="E155" t="n">
-        <v>0.5986623413083711</v>
+        <v>0.580579441326977</v>
       </c>
       <c r="F155" t="n">
-        <v>0.5048052344737977</v>
+        <v>0.524298358231</v>
       </c>
       <c r="G155" t="n">
-        <v>0.4413063962518813</v>
+        <v>0.870808251028083</v>
       </c>
       <c r="H155" t="n">
-        <v>0.7424609240145159</v>
+        <v>0.8558612511203163</v>
       </c>
       <c r="I155" t="n">
-        <v>0.6103015400307953</v>
+        <v>0.6359578635170301</v>
       </c>
       <c r="J155" t="n">
         <v>19</v>
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.1003743130780839</v>
+        <v>0.1262780253779841</v>
       </c>
       <c r="C156" t="n">
-        <v>0.03344125821473151</v>
+        <v>0.02099538572333053</v>
       </c>
       <c r="D156" t="n">
-        <v>0.1012777901776758</v>
+        <v>0.1503983145225643</v>
       </c>
       <c r="E156" t="n">
-        <v>0.09203216265485527</v>
+        <v>0.1153663070883662</v>
       </c>
       <c r="F156" t="n">
-        <v>0.119926347122791</v>
+        <v>0.1321878034035353</v>
       </c>
       <c r="G156" t="n">
-        <v>0.4413063962518813</v>
+        <v>0.870808251028083</v>
       </c>
       <c r="H156" t="n">
-        <v>0.7424609240145159</v>
+        <v>0.8558612511203163</v>
       </c>
       <c r="I156" t="n">
-        <v>0.6103015400307953</v>
+        <v>0.6359578635170301</v>
       </c>
       <c r="J156" t="n">
         <v>19</v>
@@ -5762,28 +5762,28 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.07390130466998422</v>
+        <v>0.09728679109057906</v>
       </c>
       <c r="C157" t="n">
-        <v>0.006786802726668554</v>
+        <v>0.00968736729123679</v>
       </c>
       <c r="D157" t="n">
-        <v>0.05067726781320935</v>
+        <v>0.1023168467447942</v>
       </c>
       <c r="E157" t="n">
-        <v>0.04882900125537949</v>
+        <v>0.1057097112945652</v>
       </c>
       <c r="F157" t="n">
-        <v>0.06050651986888738</v>
+        <v>0.1056281094331592</v>
       </c>
       <c r="G157" t="n">
-        <v>0.4413063962518813</v>
+        <v>0.870808251028083</v>
       </c>
       <c r="H157" t="n">
-        <v>0.7424609240145159</v>
+        <v>0.8558612511203163</v>
       </c>
       <c r="I157" t="n">
-        <v>0.6103015400307953</v>
+        <v>0.6359578635170301</v>
       </c>
       <c r="J157" t="n">
         <v>19</v>
@@ -5796,28 +5796,28 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.04742095511464522</v>
+        <v>0.08908801480494034</v>
       </c>
       <c r="C158" t="n">
-        <v>0.01218718087211401</v>
+        <v>0.01710513561901273</v>
       </c>
       <c r="D158" t="n">
-        <v>0.09556405941104559</v>
+        <v>0.1132955873503493</v>
       </c>
       <c r="E158" t="n">
-        <v>0.08987387681241638</v>
+        <v>0.1213180728935646</v>
       </c>
       <c r="F158" t="n">
-        <v>0.1000591709619628</v>
+        <v>0.08743146219442637</v>
       </c>
       <c r="G158" t="n">
-        <v>0.4413063962518813</v>
+        <v>0.870808251028083</v>
       </c>
       <c r="H158" t="n">
-        <v>0.7424609240145159</v>
+        <v>0.8558612511203163</v>
       </c>
       <c r="I158" t="n">
-        <v>0.6103015400307953</v>
+        <v>0.6359578635170301</v>
       </c>
       <c r="J158" t="n">
         <v>19</v>
@@ -5830,28 +5830,28 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.1163318212191045</v>
+        <v>0.1706615907866783</v>
       </c>
       <c r="C159" t="n">
-        <v>0.02887618411092972</v>
+        <v>0.06669866436645186</v>
       </c>
       <c r="D159" t="n">
-        <v>0.1549961200535463</v>
+        <v>0.1288383915372461</v>
       </c>
       <c r="E159" t="n">
-        <v>0.1379482486808876</v>
+        <v>0.1271831100468511</v>
       </c>
       <c r="F159" t="n">
-        <v>0.1163318212191045</v>
+        <v>0.1706615907866783</v>
       </c>
       <c r="G159" t="n">
-        <v>0.4413063962518813</v>
+        <v>0.870808251028083</v>
       </c>
       <c r="H159" t="n">
-        <v>0.7424609240145159</v>
+        <v>0.8558612511203163</v>
       </c>
       <c r="I159" t="n">
-        <v>0.6103015400307953</v>
+        <v>0.6359578635170301</v>
       </c>
       <c r="J159" t="n">
         <v>19</v>
@@ -5864,28 +5864,28 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.03155793060978754</v>
+        <v>0.0425422912447336</v>
       </c>
       <c r="C160" t="n">
-        <v>0.04092762997605892</v>
+        <v>0.02295502007148577</v>
       </c>
       <c r="D160" t="n">
-        <v>0.03155793060978754</v>
+        <v>0.03285146307717381</v>
       </c>
       <c r="E160" t="n">
-        <v>0.03155793060978754</v>
+        <v>0.03458448198370688</v>
       </c>
       <c r="F160" t="n">
-        <v>0.03155793060978754</v>
+        <v>0.0425422912447336</v>
       </c>
       <c r="G160" t="n">
-        <v>0.4413063962518813</v>
+        <v>0.870808251028083</v>
       </c>
       <c r="H160" t="n">
-        <v>0.7424609240145159</v>
+        <v>0.8558612511203163</v>
       </c>
       <c r="I160" t="n">
-        <v>0.6103015400307953</v>
+        <v>0.6359578635170301</v>
       </c>
       <c r="J160" t="n">
         <v>19</v>
@@ -5898,28 +5898,28 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.0797036088774067</v>
+        <v>0.1068966818527346</v>
       </c>
       <c r="C161" t="n">
-        <v>0.03545174938292164</v>
+        <v>0.05271865991042689</v>
       </c>
       <c r="D161" t="n">
-        <v>0.1073015796751773</v>
+        <v>0.1118588710039669</v>
       </c>
       <c r="E161" t="n">
-        <v>0.119005965517203</v>
+        <v>0.1025400959298229</v>
       </c>
       <c r="F161" t="n">
-        <v>0.08077410604670884</v>
+        <v>0.1021841222504236</v>
       </c>
       <c r="G161" t="n">
-        <v>0.4413063962518813</v>
+        <v>0.870808251028083</v>
       </c>
       <c r="H161" t="n">
-        <v>0.7424609240145159</v>
+        <v>0.8558612511203163</v>
       </c>
       <c r="I161" t="n">
-        <v>0.6103015400307953</v>
+        <v>0.6359578635170301</v>
       </c>
       <c r="J161" t="n">
         <v>19</v>
@@ -5932,28 +5932,28 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.4226927090624613</v>
+        <v>0.7000276568348309</v>
       </c>
       <c r="C162" t="n">
-        <v>0.1037891809054564</v>
+        <v>0.2206827804192967</v>
       </c>
       <c r="D162" t="n">
-        <v>0.324626298519609</v>
+        <v>0.7113072049770782</v>
       </c>
       <c r="E162" t="n">
-        <v>0.3166386857254629</v>
+        <v>0.7226964908069289</v>
       </c>
       <c r="F162" t="n">
-        <v>0.4377755502039046</v>
+        <v>0.5661517495839915</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1576008397850587</v>
+        <v>0.9364424977220637</v>
       </c>
       <c r="H162" t="n">
-        <v>0.8614682338662523</v>
+        <v>0.796959341814315</v>
       </c>
       <c r="I162" t="n">
-        <v>0.4473687382237037</v>
+        <v>0.89255283126157</v>
       </c>
       <c r="J162" t="n">
         <v>20</v>
@@ -5966,28 +5966,28 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.4329525691851614</v>
+        <v>0.7656733944233418</v>
       </c>
       <c r="C163" t="n">
-        <v>0.02713365004031112</v>
+        <v>0.3709049774453795</v>
       </c>
       <c r="D163" t="n">
-        <v>0.4733643851953383</v>
+        <v>0.6927290990809445</v>
       </c>
       <c r="E163" t="n">
-        <v>0.4864390157999254</v>
+        <v>0.6916312540046847</v>
       </c>
       <c r="F163" t="n">
-        <v>0.3728324108524251</v>
+        <v>0.5448615071619265</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1576008397850587</v>
+        <v>0.9364424977220637</v>
       </c>
       <c r="H163" t="n">
-        <v>0.8614682338662523</v>
+        <v>0.796959341814315</v>
       </c>
       <c r="I163" t="n">
-        <v>0.4473687382237037</v>
+        <v>0.89255283126157</v>
       </c>
       <c r="J163" t="n">
         <v>20</v>
@@ -6000,28 +6000,28 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.07674854360651764</v>
+        <v>0.3350459885671889</v>
       </c>
       <c r="C164" t="n">
-        <v>0.03321784002733064</v>
+        <v>0.2537166155365662</v>
       </c>
       <c r="D164" t="n">
-        <v>0.09435979595992344</v>
+        <v>0.3314665371875901</v>
       </c>
       <c r="E164" t="n">
-        <v>0.05446326277508601</v>
+        <v>0.3247389206436739</v>
       </c>
       <c r="F164" t="n">
-        <v>0.07674854360651764</v>
+        <v>0.3350459885671889</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1576008397850587</v>
+        <v>0.9364424977220637</v>
       </c>
       <c r="H164" t="n">
-        <v>0.8614682338662523</v>
+        <v>0.796959341814315</v>
       </c>
       <c r="I164" t="n">
-        <v>0.4473687382237037</v>
+        <v>0.89255283126157</v>
       </c>
       <c r="J164" t="n">
         <v>20</v>
@@ -6034,28 +6034,28 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.01521058052482563</v>
+        <v>0.317094832908104</v>
       </c>
       <c r="C165" t="n">
-        <v>0.007111978594648499</v>
+        <v>0.2396778740156941</v>
       </c>
       <c r="D165" t="n">
-        <v>0.04078580598805276</v>
+        <v>0.3059003463371588</v>
       </c>
       <c r="E165" t="n">
-        <v>0.03309587192549559</v>
+        <v>0.304820591552795</v>
       </c>
       <c r="F165" t="n">
-        <v>0.01141242978730332</v>
+        <v>0.2960663595496009</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1576008397850587</v>
+        <v>0.9364424977220637</v>
       </c>
       <c r="H165" t="n">
-        <v>0.8614682338662523</v>
+        <v>0.796959341814315</v>
       </c>
       <c r="I165" t="n">
-        <v>0.4473687382237037</v>
+        <v>0.89255283126157</v>
       </c>
       <c r="J165" t="n">
         <v>20</v>
@@ -6068,28 +6068,28 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.05838840354116563</v>
+        <v>0.2979635907818956</v>
       </c>
       <c r="C166" t="n">
-        <v>0.005956332689360239</v>
+        <v>0.2618903704684856</v>
       </c>
       <c r="D166" t="n">
-        <v>0.05310791241928516</v>
+        <v>0.3170046393256797</v>
       </c>
       <c r="E166" t="n">
-        <v>0.03363989767259856</v>
+        <v>0.3332111537046061</v>
       </c>
       <c r="F166" t="n">
-        <v>0.06813652849016008</v>
+        <v>0.3254182171491417</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1576008397850587</v>
+        <v>0.9364424977220637</v>
       </c>
       <c r="H166" t="n">
-        <v>0.8614682338662523</v>
+        <v>0.796959341814315</v>
       </c>
       <c r="I166" t="n">
-        <v>0.4473687382237037</v>
+        <v>0.89255283126157</v>
       </c>
       <c r="J166" t="n">
         <v>20</v>
@@ -6102,28 +6102,28 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.03070978166719068</v>
+        <v>0.3711065524216349</v>
       </c>
       <c r="C167" t="n">
-        <v>0.01005790487448184</v>
+        <v>0.2295362992715739</v>
       </c>
       <c r="D167" t="n">
-        <v>0.04713485045964583</v>
+        <v>0.3662401340806711</v>
       </c>
       <c r="E167" t="n">
-        <v>0.03694339637714195</v>
+        <v>0.3534657234982173</v>
       </c>
       <c r="F167" t="n">
-        <v>0.03070978166719068</v>
+        <v>0.3711065524216349</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1576008397850587</v>
+        <v>0.9364424977220637</v>
       </c>
       <c r="H167" t="n">
-        <v>0.8614682338662523</v>
+        <v>0.796959341814315</v>
       </c>
       <c r="I167" t="n">
-        <v>0.4473687382237037</v>
+        <v>0.89255283126157</v>
       </c>
       <c r="J167" t="n">
         <v>20</v>
@@ -6136,28 +6136,28 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.01392485436435762</v>
+        <v>0.09659282814390562</v>
       </c>
       <c r="C168" t="n">
-        <v>0.001910243174912768</v>
+        <v>0.08715018568045793</v>
       </c>
       <c r="D168" t="n">
-        <v>0.01220365658484399</v>
+        <v>0.08012470083587052</v>
       </c>
       <c r="E168" t="n">
-        <v>0.01124966424123397</v>
+        <v>0.08012470083587052</v>
       </c>
       <c r="F168" t="n">
-        <v>0.01392485436435762</v>
+        <v>0.09659282814390562</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1576008397850587</v>
+        <v>0.9364424977220637</v>
       </c>
       <c r="H168" t="n">
-        <v>0.8614682338662523</v>
+        <v>0.796959341814315</v>
       </c>
       <c r="I168" t="n">
-        <v>0.4473687382237037</v>
+        <v>0.89255283126157</v>
       </c>
       <c r="J168" t="n">
         <v>20</v>
@@ -6170,28 +6170,28 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.1081505054267327</v>
+        <v>0.2847312530415609</v>
       </c>
       <c r="C169" t="n">
-        <v>0.03098305576808279</v>
+        <v>0.1278116480331035</v>
       </c>
       <c r="D169" t="n">
-        <v>0.09395317538631905</v>
+        <v>0.2775966542293012</v>
       </c>
       <c r="E169" t="n">
-        <v>0.09887758658351806</v>
+        <v>0.2596879581336415</v>
       </c>
       <c r="F169" t="n">
-        <v>0.09881445124918221</v>
+        <v>0.3007621601370542</v>
       </c>
       <c r="G169" t="n">
-        <v>0.1576008397850587</v>
+        <v>0.9364424977220637</v>
       </c>
       <c r="H169" t="n">
-        <v>0.8614682338662523</v>
+        <v>0.796959341814315</v>
       </c>
       <c r="I169" t="n">
-        <v>0.4473687382237037</v>
+        <v>0.89255283126157</v>
       </c>
       <c r="J169" t="n">
         <v>20</v>
@@ -6204,28 +6204,28 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.5591150046080013</v>
+        <v>0.4474299564189289</v>
       </c>
       <c r="C170" t="n">
-        <v>0.2980356932670716</v>
+        <v>0.06000377182899721</v>
       </c>
       <c r="D170" t="n">
-        <v>0.6288623531074535</v>
+        <v>0.4544659380031061</v>
       </c>
       <c r="E170" t="n">
-        <v>0.6180466484410682</v>
+        <v>0.4784062091659789</v>
       </c>
       <c r="F170" t="n">
-        <v>0.3195919742159381</v>
+        <v>0.3823614172222663</v>
       </c>
       <c r="G170" t="n">
-        <v>1</v>
+        <v>0.7490054219080634</v>
       </c>
       <c r="H170" t="n">
-        <v>0.6928023243910322</v>
+        <v>0.912327367609187</v>
       </c>
       <c r="I170" t="n">
-        <v>0.8967603644718298</v>
+        <v>0.7224991523810037</v>
       </c>
       <c r="J170" t="n">
         <v>21</v>
@@ -6238,28 +6238,28 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.9653953839539444</v>
+        <v>0.4129365860870946</v>
       </c>
       <c r="C171" t="n">
-        <v>0.526468679762668</v>
+        <v>0.1507477621835621</v>
       </c>
       <c r="D171" t="n">
-        <v>0.9875882539306076</v>
+        <v>0.5231016190812356</v>
       </c>
       <c r="E171" t="n">
-        <v>1</v>
+        <v>0.5129728936060266</v>
       </c>
       <c r="F171" t="n">
-        <v>0.3479204148499646</v>
+        <v>0.3344489099791358</v>
       </c>
       <c r="G171" t="n">
-        <v>1</v>
+        <v>0.7490054219080634</v>
       </c>
       <c r="H171" t="n">
-        <v>0.6928023243910322</v>
+        <v>0.912327367609187</v>
       </c>
       <c r="I171" t="n">
-        <v>0.8967603644718298</v>
+        <v>0.7224991523810037</v>
       </c>
       <c r="J171" t="n">
         <v>21</v>
@@ -6272,28 +6272,28 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.3437483129583956</v>
+        <v>0.09847870037410904</v>
       </c>
       <c r="C172" t="n">
-        <v>0.3793160002534028</v>
+        <v>0.02963771393883276</v>
       </c>
       <c r="D172" t="n">
-        <v>0.3537674183822043</v>
+        <v>0.1059704261414654</v>
       </c>
       <c r="E172" t="n">
-        <v>0.3605424197137664</v>
+        <v>0.1056760741612873</v>
       </c>
       <c r="F172" t="n">
-        <v>0.3552179240167824</v>
+        <v>0.09847870037410904</v>
       </c>
       <c r="G172" t="n">
-        <v>1</v>
+        <v>0.7490054219080634</v>
       </c>
       <c r="H172" t="n">
-        <v>0.6928023243910322</v>
+        <v>0.912327367609187</v>
       </c>
       <c r="I172" t="n">
-        <v>0.8967603644718298</v>
+        <v>0.7224991523810037</v>
       </c>
       <c r="J172" t="n">
         <v>21</v>
@@ -6306,28 +6306,28 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.2846928523578326</v>
+        <v>0.1237135372981613</v>
       </c>
       <c r="C173" t="n">
-        <v>0.2564623213389369</v>
+        <v>0.03382712578446012</v>
       </c>
       <c r="D173" t="n">
-        <v>0.2935041251255123</v>
+        <v>0.1156798775237592</v>
       </c>
       <c r="E173" t="n">
-        <v>0.2954886447847523</v>
+        <v>0.09205128482855393</v>
       </c>
       <c r="F173" t="n">
-        <v>0.3204502515372099</v>
+        <v>0.1119732626915824</v>
       </c>
       <c r="G173" t="n">
-        <v>1</v>
+        <v>0.7490054219080634</v>
       </c>
       <c r="H173" t="n">
-        <v>0.6928023243910322</v>
+        <v>0.912327367609187</v>
       </c>
       <c r="I173" t="n">
-        <v>0.8967603644718298</v>
+        <v>0.7224991523810037</v>
       </c>
       <c r="J173" t="n">
         <v>21</v>
@@ -6340,28 +6340,28 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.1948828149597435</v>
+        <v>0.1167561218235336</v>
       </c>
       <c r="C174" t="n">
-        <v>0.3147173625626404</v>
+        <v>0.0417468182111579</v>
       </c>
       <c r="D174" t="n">
-        <v>0.1844225484705855</v>
+        <v>0.1377868193654747</v>
       </c>
       <c r="E174" t="n">
-        <v>0.2168831088637788</v>
+        <v>0.133029708583011</v>
       </c>
       <c r="F174" t="n">
-        <v>0.1447563750000698</v>
+        <v>0.1266869985935196</v>
       </c>
       <c r="G174" t="n">
-        <v>1</v>
+        <v>0.7490054219080634</v>
       </c>
       <c r="H174" t="n">
-        <v>0.6928023243910322</v>
+        <v>0.912327367609187</v>
       </c>
       <c r="I174" t="n">
-        <v>0.8967603644718298</v>
+        <v>0.7224991523810037</v>
       </c>
       <c r="J174" t="n">
         <v>21</v>
@@ -6374,28 +6374,28 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0.2647383483108732</v>
+        <v>0.09237676047904364</v>
       </c>
       <c r="C175" t="n">
-        <v>0.2500499020895477</v>
+        <v>0.01295000521504425</v>
       </c>
       <c r="D175" t="n">
-        <v>0.2567732863563278</v>
+        <v>0.0902562489596669</v>
       </c>
       <c r="E175" t="n">
-        <v>0.2567732863563278</v>
+        <v>0.1018812135733077</v>
       </c>
       <c r="F175" t="n">
-        <v>0.2647383483108732</v>
+        <v>0.09237676047904364</v>
       </c>
       <c r="G175" t="n">
-        <v>1</v>
+        <v>0.7490054219080634</v>
       </c>
       <c r="H175" t="n">
-        <v>0.6928023243910322</v>
+        <v>0.912327367609187</v>
       </c>
       <c r="I175" t="n">
-        <v>0.8967603644718298</v>
+        <v>0.7224991523810037</v>
       </c>
       <c r="J175" t="n">
         <v>21</v>
@@ -6408,28 +6408,28 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.1432343096578988</v>
+        <v>0.0129460359008693</v>
       </c>
       <c r="C176" t="n">
-        <v>0.1853696916139985</v>
+        <v>0.04148565727916656</v>
       </c>
       <c r="D176" t="n">
-        <v>0.1457134237409941</v>
+        <v>0.01970375797833231</v>
       </c>
       <c r="E176" t="n">
-        <v>0.1457134237409941</v>
+        <v>0.02131102712497459</v>
       </c>
       <c r="F176" t="n">
-        <v>0.1432343096578988</v>
+        <v>0.0129460359008693</v>
       </c>
       <c r="G176" t="n">
-        <v>1</v>
+        <v>0.7490054219080634</v>
       </c>
       <c r="H176" t="n">
-        <v>0.6928023243910322</v>
+        <v>0.912327367609187</v>
       </c>
       <c r="I176" t="n">
-        <v>0.8967603644718298</v>
+        <v>0.7224991523810037</v>
       </c>
       <c r="J176" t="n">
         <v>21</v>
@@ -6442,28 +6442,28 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.1434897091136668</v>
+        <v>0.1226008849355498</v>
       </c>
       <c r="C177" t="n">
-        <v>0.2049964673490371</v>
+        <v>0.04614319478129796</v>
       </c>
       <c r="D177" t="n">
-        <v>0.1710572564756639</v>
+        <v>0.1259142385680284</v>
       </c>
       <c r="E177" t="n">
-        <v>0.1760340395261492</v>
+        <v>0.1131038750330144</v>
       </c>
       <c r="F177" t="n">
-        <v>0.1422897873390489</v>
+        <v>0.1208820630209309</v>
       </c>
       <c r="G177" t="n">
-        <v>1</v>
+        <v>0.7490054219080634</v>
       </c>
       <c r="H177" t="n">
-        <v>0.6928023243910322</v>
+        <v>0.912327367609187</v>
       </c>
       <c r="I177" t="n">
-        <v>0.8967603644718298</v>
+        <v>0.7224991523810037</v>
       </c>
       <c r="J177" t="n">
         <v>21</v>
@@ -6476,28 +6476,28 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.4588521203923013</v>
+        <v>0.4578045210965184</v>
       </c>
       <c r="C178" t="n">
-        <v>0.1892635790463049</v>
+        <v>0.08675132463086217</v>
       </c>
       <c r="D178" t="n">
-        <v>0.4551770166047061</v>
+        <v>0.505338783386433</v>
       </c>
       <c r="E178" t="n">
-        <v>0.4696076546458877</v>
+        <v>0.5241983725843236</v>
       </c>
       <c r="F178" t="n">
-        <v>0.2571744694642707</v>
+        <v>0.3263107289530011</v>
       </c>
       <c r="G178" t="n">
-        <v>1</v>
+        <v>0.6244912801342248</v>
       </c>
       <c r="H178" t="n">
-        <v>0.7521034552574678</v>
+        <v>0.7756982638741018</v>
       </c>
       <c r="I178" t="n">
-        <v>0.8102459101710999</v>
+        <v>0.6971683616494637</v>
       </c>
       <c r="J178" t="n">
         <v>22</v>
@@ -6510,28 +6510,28 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.6706753281229647</v>
+        <v>0.5165796208763904</v>
       </c>
       <c r="C179" t="n">
-        <v>0.3590158664018895</v>
+        <v>0.1204749900255125</v>
       </c>
       <c r="D179" t="n">
-        <v>0.7185807815465917</v>
+        <v>0.4892391457821185</v>
       </c>
       <c r="E179" t="n">
-        <v>0.7348815044383228</v>
+        <v>0.5242177659549614</v>
       </c>
       <c r="F179" t="n">
-        <v>0.4503608752328625</v>
+        <v>0.3607737665964158</v>
       </c>
       <c r="G179" t="n">
-        <v>1</v>
+        <v>0.6244912801342248</v>
       </c>
       <c r="H179" t="n">
-        <v>0.7521034552574678</v>
+        <v>0.7756982638741018</v>
       </c>
       <c r="I179" t="n">
-        <v>0.8102459101710999</v>
+        <v>0.6971683616494637</v>
       </c>
       <c r="J179" t="n">
         <v>22</v>
@@ -6544,28 +6544,28 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.1390583653207968</v>
+        <v>0.1226705518472389</v>
       </c>
       <c r="C180" t="n">
-        <v>0.1853106219629922</v>
+        <v>0.04638326239701609</v>
       </c>
       <c r="D180" t="n">
-        <v>0.1696573691132051</v>
+        <v>0.1181268825963494</v>
       </c>
       <c r="E180" t="n">
-        <v>0.1631939175917207</v>
+        <v>0.1340773935313851</v>
       </c>
       <c r="F180" t="n">
-        <v>0.144511849768125</v>
+        <v>0.1161933263863601</v>
       </c>
       <c r="G180" t="n">
-        <v>1</v>
+        <v>0.6244912801342248</v>
       </c>
       <c r="H180" t="n">
-        <v>0.7521034552574678</v>
+        <v>0.7756982638741018</v>
       </c>
       <c r="I180" t="n">
-        <v>0.8102459101710999</v>
+        <v>0.6971683616494637</v>
       </c>
       <c r="J180" t="n">
         <v>22</v>
@@ -6578,28 +6578,28 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.1494292377910234</v>
+        <v>0.1185243226998939</v>
       </c>
       <c r="C181" t="n">
-        <v>0.2727464902551147</v>
+        <v>0.0250019440005614</v>
       </c>
       <c r="D181" t="n">
-        <v>0.1287165602565491</v>
+        <v>0.1298447167320547</v>
       </c>
       <c r="E181" t="n">
-        <v>0.1287165602565491</v>
+        <v>0.1214973363556131</v>
       </c>
       <c r="F181" t="n">
-        <v>0.1494292377910234</v>
+        <v>0.1080285928261618</v>
       </c>
       <c r="G181" t="n">
-        <v>1</v>
+        <v>0.6244912801342248</v>
       </c>
       <c r="H181" t="n">
-        <v>0.7521034552574678</v>
+        <v>0.7756982638741018</v>
       </c>
       <c r="I181" t="n">
-        <v>0.8102459101710999</v>
+        <v>0.6971683616494637</v>
       </c>
       <c r="J181" t="n">
         <v>22</v>
@@ -6612,28 +6612,28 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0.1464371448421712</v>
+        <v>0.1583497961640748</v>
       </c>
       <c r="C182" t="n">
-        <v>0.1027906898978785</v>
+        <v>0.04154193893548797</v>
       </c>
       <c r="D182" t="n">
-        <v>0.1460449409126883</v>
+        <v>0.1611061040579855</v>
       </c>
       <c r="E182" t="n">
-        <v>0.1359447840659041</v>
+        <v>0.1665732221741338</v>
       </c>
       <c r="F182" t="n">
-        <v>0.1512424918953344</v>
+        <v>0.1575539245240896</v>
       </c>
       <c r="G182" t="n">
-        <v>1</v>
+        <v>0.6244912801342248</v>
       </c>
       <c r="H182" t="n">
-        <v>0.7521034552574678</v>
+        <v>0.7756982638741018</v>
       </c>
       <c r="I182" t="n">
-        <v>0.8102459101710999</v>
+        <v>0.6971683616494637</v>
       </c>
       <c r="J182" t="n">
         <v>22</v>
@@ -6646,28 +6646,28 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.2241216482397584</v>
+        <v>0.1312612277243766</v>
       </c>
       <c r="C183" t="n">
-        <v>0.2541751247132477</v>
+        <v>0.01733758790551929</v>
       </c>
       <c r="D183" t="n">
-        <v>0.2187423335950889</v>
+        <v>0.1409195116888343</v>
       </c>
       <c r="E183" t="n">
-        <v>0.2250527490669285</v>
+        <v>0.1410479714135678</v>
       </c>
       <c r="F183" t="n">
-        <v>0.2241216482397584</v>
+        <v>0.1312612277243766</v>
       </c>
       <c r="G183" t="n">
-        <v>1</v>
+        <v>0.6244912801342248</v>
       </c>
       <c r="H183" t="n">
-        <v>0.7521034552574678</v>
+        <v>0.7756982638741018</v>
       </c>
       <c r="I183" t="n">
-        <v>0.8102459101710999</v>
+        <v>0.6971683616494637</v>
       </c>
       <c r="J183" t="n">
         <v>22</v>
@@ -6680,28 +6680,28 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0.0681298653341639</v>
+        <v>0.0519393855931796</v>
       </c>
       <c r="C184" t="n">
-        <v>0.06260173489763922</v>
+        <v>0.04754598061963188</v>
       </c>
       <c r="D184" t="n">
-        <v>0.05653034854885515</v>
+        <v>0.04823721441866858</v>
       </c>
       <c r="E184" t="n">
-        <v>0.05906466410041421</v>
+        <v>0.05296924013005242</v>
       </c>
       <c r="F184" t="n">
-        <v>0.0681298653341639</v>
+        <v>0.0519393855931796</v>
       </c>
       <c r="G184" t="n">
-        <v>1</v>
+        <v>0.6244912801342248</v>
       </c>
       <c r="H184" t="n">
-        <v>0.7521034552574678</v>
+        <v>0.7756982638741018</v>
       </c>
       <c r="I184" t="n">
-        <v>0.8102459101710999</v>
+        <v>0.6971683616494637</v>
       </c>
       <c r="J184" t="n">
         <v>22</v>
@@ -6714,28 +6714,28 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0.2059103261245001</v>
+        <v>0.1359045508660565</v>
       </c>
       <c r="C185" t="n">
-        <v>0.1685317448222576</v>
+        <v>0.04610981711485682</v>
       </c>
       <c r="D185" t="n">
-        <v>0.2463655657109823</v>
+        <v>0.1418160580594255</v>
       </c>
       <c r="E185" t="n">
-        <v>0.228459400717387</v>
+        <v>0.1401500212091348</v>
       </c>
       <c r="F185" t="n">
-        <v>0.221397458765672</v>
+        <v>0.1567914947233406</v>
       </c>
       <c r="G185" t="n">
-        <v>1</v>
+        <v>0.6244912801342248</v>
       </c>
       <c r="H185" t="n">
-        <v>0.7521034552574678</v>
+        <v>0.7756982638741018</v>
       </c>
       <c r="I185" t="n">
-        <v>0.8102459101710999</v>
+        <v>0.6971683616494637</v>
       </c>
       <c r="J185" t="n">
         <v>22</v>
@@ -6748,28 +6748,28 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.4017955490375859</v>
+        <v>0.3578572311744753</v>
       </c>
       <c r="C186" t="n">
-        <v>0.05205958476416814</v>
+        <v>0.04469968523194645</v>
       </c>
       <c r="D186" t="n">
-        <v>0.5295425144349216</v>
+        <v>0.4029784604576533</v>
       </c>
       <c r="E186" t="n">
-        <v>0.5151688071077178</v>
+        <v>0.393549192376998</v>
       </c>
       <c r="F186" t="n">
-        <v>0.4344680627016193</v>
+        <v>0.3761070436916117</v>
       </c>
       <c r="G186" t="n">
-        <v>1</v>
+        <v>0.3728627137686774</v>
       </c>
       <c r="H186" t="n">
-        <v>0.8953153545637218</v>
+        <v>0.7932950450043806</v>
       </c>
       <c r="I186" t="n">
-        <v>0.6466699673067782</v>
+        <v>0.5692106277697584</v>
       </c>
       <c r="J186" t="n">
         <v>23</v>
@@ -6782,28 +6782,28 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.4911535417944538</v>
+        <v>0.4805717087323702</v>
       </c>
       <c r="C187" t="n">
-        <v>0.02272021929132095</v>
+        <v>0.03485517486882515</v>
       </c>
       <c r="D187" t="n">
-        <v>0.5805050051826826</v>
+        <v>0.4748845858564296</v>
       </c>
       <c r="E187" t="n">
-        <v>0.5935000072962854</v>
+        <v>0.4854658766208662</v>
       </c>
       <c r="F187" t="n">
-        <v>0.5385448060908171</v>
+        <v>0.3952695715145533</v>
       </c>
       <c r="G187" t="n">
-        <v>1</v>
+        <v>0.3728627137686774</v>
       </c>
       <c r="H187" t="n">
-        <v>0.8953153545637218</v>
+        <v>0.7932950450043806</v>
       </c>
       <c r="I187" t="n">
-        <v>0.6466699673067782</v>
+        <v>0.5692106277697584</v>
       </c>
       <c r="J187" t="n">
         <v>23</v>
@@ -6816,28 +6816,28 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.06515378489369877</v>
+        <v>0.08420615808266377</v>
       </c>
       <c r="C188" t="n">
-        <v>0.02590597836213085</v>
+        <v>0.01106006581795486</v>
       </c>
       <c r="D188" t="n">
-        <v>0.1082814812523434</v>
+        <v>0.088812445393548</v>
       </c>
       <c r="E188" t="n">
-        <v>0.08895145851326865</v>
+        <v>0.08739636862788157</v>
       </c>
       <c r="F188" t="n">
-        <v>0.05737079611083573</v>
+        <v>0.08075261779273084</v>
       </c>
       <c r="G188" t="n">
-        <v>1</v>
+        <v>0.3728627137686774</v>
       </c>
       <c r="H188" t="n">
-        <v>0.8953153545637218</v>
+        <v>0.7932950450043806</v>
       </c>
       <c r="I188" t="n">
-        <v>0.6466699673067782</v>
+        <v>0.5692106277697584</v>
       </c>
       <c r="J188" t="n">
         <v>23</v>
@@ -6850,28 +6850,28 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0.06565000142662558</v>
+        <v>0.05212738434244912</v>
       </c>
       <c r="C189" t="n">
-        <v>0.0489070334405851</v>
+        <v>-0.00163917912706012</v>
       </c>
       <c r="D189" t="n">
-        <v>0.1087436593988879</v>
+        <v>0.04272780580087594</v>
       </c>
       <c r="E189" t="n">
-        <v>0.08167617746693007</v>
+        <v>0.05240873018288413</v>
       </c>
       <c r="F189" t="n">
-        <v>0.05377374911091968</v>
+        <v>0.03979124746137445</v>
       </c>
       <c r="G189" t="n">
-        <v>1</v>
+        <v>0.3728627137686774</v>
       </c>
       <c r="H189" t="n">
-        <v>0.8953153545637218</v>
+        <v>0.7932950450043806</v>
       </c>
       <c r="I189" t="n">
-        <v>0.6466699673067782</v>
+        <v>0.5692106277697584</v>
       </c>
       <c r="J189" t="n">
         <v>23</v>
@@ -6884,28 +6884,28 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0.1007309543831599</v>
+        <v>0.06340107351225993</v>
       </c>
       <c r="C190" t="n">
-        <v>0.02293473540390071</v>
+        <v>0.01252691941622661</v>
       </c>
       <c r="D190" t="n">
-        <v>0.07108093748877228</v>
+        <v>0.07617457934088337</v>
       </c>
       <c r="E190" t="n">
-        <v>0.06147823812736837</v>
+        <v>0.07571452003003216</v>
       </c>
       <c r="F190" t="n">
-        <v>0.1132209752337448</v>
+        <v>0.0680179206020888</v>
       </c>
       <c r="G190" t="n">
-        <v>1</v>
+        <v>0.3728627137686774</v>
       </c>
       <c r="H190" t="n">
-        <v>0.8953153545637218</v>
+        <v>0.7932950450043806</v>
       </c>
       <c r="I190" t="n">
-        <v>0.6466699673067782</v>
+        <v>0.5692106277697584</v>
       </c>
       <c r="J190" t="n">
         <v>23</v>
@@ -6918,28 +6918,28 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.08928300591415812</v>
+        <v>0.1101045084363504</v>
       </c>
       <c r="C191" t="n">
-        <v>0.04092644398548339</v>
+        <v>0.0187935920033047</v>
       </c>
       <c r="D191" t="n">
-        <v>0.09371139276128151</v>
+        <v>0.1140171088151117</v>
       </c>
       <c r="E191" t="n">
-        <v>0.08589582847005137</v>
+        <v>0.1077376726271061</v>
       </c>
       <c r="F191" t="n">
-        <v>0.08928300591415812</v>
+        <v>0.1101045084363504</v>
       </c>
       <c r="G191" t="n">
-        <v>1</v>
+        <v>0.3728627137686774</v>
       </c>
       <c r="H191" t="n">
-        <v>0.8953153545637218</v>
+        <v>0.7932950450043806</v>
       </c>
       <c r="I191" t="n">
-        <v>0.6466699673067782</v>
+        <v>0.5692106277697584</v>
       </c>
       <c r="J191" t="n">
         <v>23</v>
@@ -6952,28 +6952,28 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.0322125018761598</v>
+        <v>0.02863908507240542</v>
       </c>
       <c r="C192" t="n">
-        <v>0.06463256161605713</v>
+        <v>0.01451187358223487</v>
       </c>
       <c r="D192" t="n">
-        <v>0.0253432496569943</v>
+        <v>0.02701799763547288</v>
       </c>
       <c r="E192" t="n">
-        <v>0.03962372991323745</v>
+        <v>0.02449714316134792</v>
       </c>
       <c r="F192" t="n">
-        <v>0.0322125018761598</v>
+        <v>0.02863908507240542</v>
       </c>
       <c r="G192" t="n">
-        <v>1</v>
+        <v>0.3728627137686774</v>
       </c>
       <c r="H192" t="n">
-        <v>0.8953153545637218</v>
+        <v>0.7932950450043806</v>
       </c>
       <c r="I192" t="n">
-        <v>0.6466699673067782</v>
+        <v>0.5692106277697584</v>
       </c>
       <c r="J192" t="n">
         <v>23</v>
@@ -6986,28 +6986,28 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0.03206536331319721</v>
+        <v>0.08256764510618321</v>
       </c>
       <c r="C193" t="n">
-        <v>0.01066737789044649</v>
+        <v>0.02916413443206733</v>
       </c>
       <c r="D193" t="n">
-        <v>0.05079630097237907</v>
+        <v>0.07117961954459662</v>
       </c>
       <c r="E193" t="n">
-        <v>0.04924279827935684</v>
+        <v>0.07127941424240623</v>
       </c>
       <c r="F193" t="n">
-        <v>0.04783998643860794</v>
+        <v>0.08676795777662878</v>
       </c>
       <c r="G193" t="n">
-        <v>1</v>
+        <v>0.3728627137686774</v>
       </c>
       <c r="H193" t="n">
-        <v>0.8953153545637218</v>
+        <v>0.7932950450043806</v>
       </c>
       <c r="I193" t="n">
-        <v>0.6466699673067782</v>
+        <v>0.5692106277697584</v>
       </c>
       <c r="J193" t="n">
         <v>23</v>
@@ -7020,28 +7020,28 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0.5275187944878035</v>
+        <v>0.459550283568036</v>
       </c>
       <c r="C194" t="n">
-        <v>0.6646806134607892</v>
+        <v>0.05312925885675419</v>
       </c>
       <c r="D194" t="n">
-        <v>0.4690181863499725</v>
+        <v>0.4397433617032411</v>
       </c>
       <c r="E194" t="n">
-        <v>0.5295857964541606</v>
+        <v>0.4430548168074983</v>
       </c>
       <c r="F194" t="n">
-        <v>0.423317547845274</v>
+        <v>0.4424832724004847</v>
       </c>
       <c r="G194" t="n">
-        <v>1</v>
+        <v>0.209946866663316</v>
       </c>
       <c r="H194" t="n">
-        <v>0.781660335598562</v>
+        <v>0.8739580877180948</v>
       </c>
       <c r="I194" t="n">
-        <v>0.9052627681846996</v>
+        <v>0.5186471972609386</v>
       </c>
       <c r="J194" t="n">
         <v>24</v>
@@ -7054,28 +7054,28 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0.727928541446943</v>
+        <v>0.5104171862220974</v>
       </c>
       <c r="C195" t="n">
-        <v>0.5944244404364558</v>
+        <v>0.05895776958516298</v>
       </c>
       <c r="D195" t="n">
-        <v>0.6525134863161046</v>
+        <v>0.5238573162312057</v>
       </c>
       <c r="E195" t="n">
-        <v>0.7357240969648603</v>
+        <v>0.5481403489235083</v>
       </c>
       <c r="F195" t="n">
-        <v>0.4480810340040478</v>
+        <v>0.3700817914914253</v>
       </c>
       <c r="G195" t="n">
-        <v>1</v>
+        <v>0.209946866663316</v>
       </c>
       <c r="H195" t="n">
-        <v>0.781660335598562</v>
+        <v>0.8739580877180948</v>
       </c>
       <c r="I195" t="n">
-        <v>0.9052627681846996</v>
+        <v>0.5186471972609386</v>
       </c>
       <c r="J195" t="n">
         <v>24</v>
@@ -7088,28 +7088,28 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0.3471347999816569</v>
+        <v>0.0510920270884592</v>
       </c>
       <c r="C196" t="n">
-        <v>0.297612796023724</v>
+        <v>0.002931966170379735</v>
       </c>
       <c r="D196" t="n">
-        <v>0.3651584001275371</v>
+        <v>0.05342067822649539</v>
       </c>
       <c r="E196" t="n">
-        <v>0.3673423183623313</v>
+        <v>0.05025703608813224</v>
       </c>
       <c r="F196" t="n">
-        <v>0.3471347999816569</v>
+        <v>0.07648988350769322</v>
       </c>
       <c r="G196" t="n">
-        <v>1</v>
+        <v>0.209946866663316</v>
       </c>
       <c r="H196" t="n">
-        <v>0.781660335598562</v>
+        <v>0.8739580877180948</v>
       </c>
       <c r="I196" t="n">
-        <v>0.9052627681846996</v>
+        <v>0.5186471972609386</v>
       </c>
       <c r="J196" t="n">
         <v>24</v>
@@ -7122,28 +7122,28 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0.2835053499708183</v>
+        <v>0.03047194484587906</v>
       </c>
       <c r="C197" t="n">
-        <v>0.288204514888706</v>
+        <v>-0.001776528344170178</v>
       </c>
       <c r="D197" t="n">
-        <v>0.2835053499708183</v>
+        <v>0.02605991274134545</v>
       </c>
       <c r="E197" t="n">
-        <v>0.2835053499708183</v>
+        <v>0.02459502476077197</v>
       </c>
       <c r="F197" t="n">
-        <v>0.2704582873298412</v>
+        <v>0.0124606278579727</v>
       </c>
       <c r="G197" t="n">
-        <v>1</v>
+        <v>0.209946866663316</v>
       </c>
       <c r="H197" t="n">
-        <v>0.781660335598562</v>
+        <v>0.8739580877180948</v>
       </c>
       <c r="I197" t="n">
-        <v>0.9052627681846996</v>
+        <v>0.5186471972609386</v>
       </c>
       <c r="J197" t="n">
         <v>24</v>
@@ -7156,28 +7156,28 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.2055994964624416</v>
+        <v>0.05691310577422369</v>
       </c>
       <c r="C198" t="n">
-        <v>0.3383380322826366</v>
+        <v>-0.0007477704749831106</v>
       </c>
       <c r="D198" t="n">
-        <v>0.2132239794497943</v>
+        <v>0.06246576537691739</v>
       </c>
       <c r="E198" t="n">
-        <v>0.2222883812681117</v>
+        <v>0.06738694722533262</v>
       </c>
       <c r="F198" t="n">
-        <v>0.2341160477063192</v>
+        <v>0.06420566487974827</v>
       </c>
       <c r="G198" t="n">
-        <v>1</v>
+        <v>0.209946866663316</v>
       </c>
       <c r="H198" t="n">
-        <v>0.781660335598562</v>
+        <v>0.8739580877180948</v>
       </c>
       <c r="I198" t="n">
-        <v>0.9052627681846996</v>
+        <v>0.5186471972609386</v>
       </c>
       <c r="J198" t="n">
         <v>24</v>
@@ -7190,28 +7190,28 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0.1674433322295714</v>
+        <v>0.0476845044143434</v>
       </c>
       <c r="C199" t="n">
-        <v>0.2833596538944985</v>
+        <v>0.001817217520473534</v>
       </c>
       <c r="D199" t="n">
-        <v>0.1533069322749301</v>
+        <v>0.06790600944756051</v>
       </c>
       <c r="E199" t="n">
-        <v>0.1539143962170403</v>
+        <v>0.06584715789870699</v>
       </c>
       <c r="F199" t="n">
-        <v>0.1674433322295714</v>
+        <v>0.0476845044143434</v>
       </c>
       <c r="G199" t="n">
-        <v>1</v>
+        <v>0.209946866663316</v>
       </c>
       <c r="H199" t="n">
-        <v>0.781660335598562</v>
+        <v>0.8739580877180948</v>
       </c>
       <c r="I199" t="n">
-        <v>0.9052627681846996</v>
+        <v>0.5186471972609386</v>
       </c>
       <c r="J199" t="n">
         <v>24</v>
@@ -7224,28 +7224,28 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0.1095916631920778</v>
+        <v>0.02172261191862411</v>
       </c>
       <c r="C200" t="n">
-        <v>0.1538556831723092</v>
+        <v>0.0113469512293916</v>
       </c>
       <c r="D200" t="n">
-        <v>0.1130975116204552</v>
+        <v>0.01706505110739305</v>
       </c>
       <c r="E200" t="n">
-        <v>0.1095916631920778</v>
+        <v>0.02533906586154831</v>
       </c>
       <c r="F200" t="n">
-        <v>0.1095916631920778</v>
+        <v>0.02172261191862411</v>
       </c>
       <c r="G200" t="n">
-        <v>1</v>
+        <v>0.209946866663316</v>
       </c>
       <c r="H200" t="n">
-        <v>0.781660335598562</v>
+        <v>0.8739580877180948</v>
       </c>
       <c r="I200" t="n">
-        <v>0.9052627681846996</v>
+        <v>0.5186471972609386</v>
       </c>
       <c r="J200" t="n">
         <v>24</v>
@@ -7258,28 +7258,28 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0.1791233462727441</v>
+        <v>0.0630200698840864</v>
       </c>
       <c r="C201" t="n">
-        <v>0.2170377293298303</v>
+        <v>0.01400876010063659</v>
       </c>
       <c r="D201" t="n">
-        <v>0.1863022045081653</v>
+        <v>0.06303193577509922</v>
       </c>
       <c r="E201" t="n">
-        <v>0.2194139026475246</v>
+        <v>0.07048101645712378</v>
       </c>
       <c r="F201" t="n">
-        <v>0.190530174581263</v>
+        <v>0.05799553035781553</v>
       </c>
       <c r="G201" t="n">
-        <v>1</v>
+        <v>0.209946866663316</v>
       </c>
       <c r="H201" t="n">
-        <v>0.781660335598562</v>
+        <v>0.8739580877180948</v>
       </c>
       <c r="I201" t="n">
-        <v>0.9052627681846996</v>
+        <v>0.5186471972609386</v>
       </c>
       <c r="J201" t="n">
         <v>24</v>
@@ -7292,28 +7292,28 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0.569183832405066</v>
+        <v>0.2437932803065383</v>
       </c>
       <c r="C202" t="n">
-        <v>0.133399596107007</v>
+        <v>0.03328499582308537</v>
       </c>
       <c r="D202" t="n">
-        <v>0.6707361486199359</v>
+        <v>0.2893047810223877</v>
       </c>
       <c r="E202" t="n">
-        <v>0.6743493383035797</v>
+        <v>0.2761532056356937</v>
       </c>
       <c r="F202" t="n">
-        <v>0.436051380806953</v>
+        <v>0.2786963910902029</v>
       </c>
       <c r="G202" t="n">
-        <v>0.9304513374506376</v>
+        <v>0.009621617067232521</v>
       </c>
       <c r="H202" t="n">
-        <v>0.8787176520645787</v>
+        <v>0.8764223381573419</v>
       </c>
       <c r="I202" t="n">
-        <v>0.7934112237908649</v>
+        <v>0.3528352881323784</v>
       </c>
       <c r="J202" t="n">
         <v>25</v>
@@ -7326,28 +7326,28 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0.398496891329605</v>
+        <v>0.2834458862302325</v>
       </c>
       <c r="C203" t="n">
-        <v>0.1923066896981403</v>
+        <v>0.01263652224806107</v>
       </c>
       <c r="D203" t="n">
-        <v>0.4311672694058982</v>
+        <v>0.2911222579835618</v>
       </c>
       <c r="E203" t="n">
-        <v>0.4311672694058982</v>
+        <v>0.2841332049053087</v>
       </c>
       <c r="F203" t="n">
-        <v>0.3567458523557343</v>
+        <v>0.2214865294269448</v>
       </c>
       <c r="G203" t="n">
-        <v>0.9304513374506376</v>
+        <v>0.009621617067232521</v>
       </c>
       <c r="H203" t="n">
-        <v>0.8787176520645787</v>
+        <v>0.8764223381573419</v>
       </c>
       <c r="I203" t="n">
-        <v>0.7934112237908649</v>
+        <v>0.3528352881323784</v>
       </c>
       <c r="J203" t="n">
         <v>25</v>
@@ -7360,28 +7360,28 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0.1571523764935851</v>
+        <v>0.04930410686356602</v>
       </c>
       <c r="C204" t="n">
-        <v>0.1287536616216666</v>
+        <v>0.02459107410973705</v>
       </c>
       <c r="D204" t="n">
-        <v>0.1090319232906922</v>
+        <v>0.05996233364475256</v>
       </c>
       <c r="E204" t="n">
-        <v>0.1044304012605946</v>
+        <v>0.03687794225951243</v>
       </c>
       <c r="F204" t="n">
-        <v>0.1154992349876451</v>
+        <v>0.07051523531983488</v>
       </c>
       <c r="G204" t="n">
-        <v>0.9304513374506376</v>
+        <v>0.009621617067232521</v>
       </c>
       <c r="H204" t="n">
-        <v>0.8787176520645787</v>
+        <v>0.8764223381573419</v>
       </c>
       <c r="I204" t="n">
-        <v>0.7934112237908649</v>
+        <v>0.3528352881323784</v>
       </c>
       <c r="J204" t="n">
         <v>25</v>
@@ -7394,28 +7394,28 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0.1315295618330942</v>
+        <v>0.01280133113086774</v>
       </c>
       <c r="C205" t="n">
-        <v>0.08750380896867242</v>
+        <v>-0.003348797614779533</v>
       </c>
       <c r="D205" t="n">
-        <v>0.1283692348033296</v>
+        <v>0.01098145260254041</v>
       </c>
       <c r="E205" t="n">
-        <v>0.1283692348033296</v>
+        <v>0.01181034141285776</v>
       </c>
       <c r="F205" t="n">
-        <v>0.1438994969907103</v>
+        <v>0.01334581457621091</v>
       </c>
       <c r="G205" t="n">
-        <v>0.9304513374506376</v>
+        <v>0.009621617067232521</v>
       </c>
       <c r="H205" t="n">
-        <v>0.8787176520645787</v>
+        <v>0.8764223381573419</v>
       </c>
       <c r="I205" t="n">
-        <v>0.7934112237908649</v>
+        <v>0.3528352881323784</v>
       </c>
       <c r="J205" t="n">
         <v>25</v>
@@ -7428,28 +7428,28 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0.1091885377944191</v>
+        <v>0.05073184531422135</v>
       </c>
       <c r="C206" t="n">
-        <v>0.03509766944754193</v>
+        <v>0.003771235218647739</v>
       </c>
       <c r="D206" t="n">
-        <v>0.1365592148333597</v>
+        <v>0.0652773864220897</v>
       </c>
       <c r="E206" t="n">
-        <v>0.1010097951357312</v>
+        <v>0.07058421658644609</v>
       </c>
       <c r="F206" t="n">
-        <v>0.104636809972982</v>
+        <v>0.04370982881776998</v>
       </c>
       <c r="G206" t="n">
-        <v>0.9304513374506376</v>
+        <v>0.009621617067232521</v>
       </c>
       <c r="H206" t="n">
-        <v>0.8787176520645787</v>
+        <v>0.8764223381573419</v>
       </c>
       <c r="I206" t="n">
-        <v>0.7934112237908649</v>
+        <v>0.3528352881323784</v>
       </c>
       <c r="J206" t="n">
         <v>25</v>
@@ -7462,28 +7462,28 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0.1543507182749049</v>
+        <v>0.05576198511976231</v>
       </c>
       <c r="C207" t="n">
-        <v>0.1198907127825781</v>
+        <v>0.002019925800944899</v>
       </c>
       <c r="D207" t="n">
-        <v>0.1248883429579982</v>
+        <v>0.04533222164375178</v>
       </c>
       <c r="E207" t="n">
-        <v>0.12358004878004</v>
+        <v>0.04486100077016505</v>
       </c>
       <c r="F207" t="n">
-        <v>0.1543507182749049</v>
+        <v>0.05576198511976231</v>
       </c>
       <c r="G207" t="n">
-        <v>0.9304513374506376</v>
+        <v>0.009621617067232521</v>
       </c>
       <c r="H207" t="n">
-        <v>0.8787176520645787</v>
+        <v>0.8764223381573419</v>
       </c>
       <c r="I207" t="n">
-        <v>0.7934112237908649</v>
+        <v>0.3528352881323784</v>
       </c>
       <c r="J207" t="n">
         <v>25</v>
@@ -7496,28 +7496,28 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0.03298069414104886</v>
+        <v>0.03127877658316977</v>
       </c>
       <c r="C208" t="n">
-        <v>0.06996796327491912</v>
+        <v>0.01670628640390722</v>
       </c>
       <c r="D208" t="n">
-        <v>0.04188116761443378</v>
+        <v>0.02759544729148934</v>
       </c>
       <c r="E208" t="n">
-        <v>0.0427338185102011</v>
+        <v>0.02620114417375375</v>
       </c>
       <c r="F208" t="n">
-        <v>0.03298069414104886</v>
+        <v>0.03127877658316977</v>
       </c>
       <c r="G208" t="n">
-        <v>0.9304513374506376</v>
+        <v>0.009621617067232521</v>
       </c>
       <c r="H208" t="n">
-        <v>0.8787176520645787</v>
+        <v>0.8764223381573419</v>
       </c>
       <c r="I208" t="n">
-        <v>0.7934112237908649</v>
+        <v>0.3528352881323784</v>
       </c>
       <c r="J208" t="n">
         <v>25</v>
@@ -7530,28 +7530,28 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.0974077775479075</v>
+        <v>0.05763933692683202</v>
       </c>
       <c r="C209" t="n">
-        <v>0.07383990901047971</v>
+        <v>0.006995602798618031</v>
       </c>
       <c r="D209" t="n">
-        <v>0.1051480205904811</v>
+        <v>0.07640449713962651</v>
       </c>
       <c r="E209" t="n">
-        <v>0.1046513866126886</v>
+        <v>0.07576473963433711</v>
       </c>
       <c r="F209" t="n">
-        <v>0.1305819076411464</v>
+        <v>0.07532183943807622</v>
       </c>
       <c r="G209" t="n">
-        <v>0.9304513374506376</v>
+        <v>0.009621617067232521</v>
       </c>
       <c r="H209" t="n">
-        <v>0.8787176520645787</v>
+        <v>0.8764223381573419</v>
       </c>
       <c r="I209" t="n">
-        <v>0.7934112237908649</v>
+        <v>0.3528352881323784</v>
       </c>
       <c r="J209" t="n">
         <v>25</v>
@@ -7564,28 +7564,28 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0.3325532506397654</v>
+        <v>0.5116157273627067</v>
       </c>
       <c r="C210" t="n">
-        <v>0.05396122184591273</v>
+        <v>0.1047657693939836</v>
       </c>
       <c r="D210" t="n">
-        <v>0.5067449583702416</v>
+        <v>0.5511717769309541</v>
       </c>
       <c r="E210" t="n">
-        <v>0.5066491143202766</v>
+        <v>0.5480797031242359</v>
       </c>
       <c r="F210" t="n">
-        <v>0.3401442687579912</v>
+        <v>0.3246076238860152</v>
       </c>
       <c r="G210" t="n">
-        <v>0.5735870280262743</v>
+        <v>1</v>
       </c>
       <c r="H210" t="n">
-        <v>0.7293421890876366</v>
+        <v>0.6640008650769446</v>
       </c>
       <c r="I210" t="n">
-        <v>0.6148405868060798</v>
+        <v>0.8611206178184023</v>
       </c>
       <c r="J210" t="n">
         <v>26</v>
@@ -7598,28 +7598,28 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0.4389794342474574</v>
+        <v>0.4976800576948451</v>
       </c>
       <c r="C211" t="n">
-        <v>0.05410097801757245</v>
+        <v>0.4266375390690077</v>
       </c>
       <c r="D211" t="n">
-        <v>0.4729402770236906</v>
+        <v>0.5874178202013836</v>
       </c>
       <c r="E211" t="n">
-        <v>0.5182203620390364</v>
+        <v>0.5978365347882828</v>
       </c>
       <c r="F211" t="n">
-        <v>0.4392456653659723</v>
+        <v>0.3129315864887512</v>
       </c>
       <c r="G211" t="n">
-        <v>0.5735870280262743</v>
+        <v>1</v>
       </c>
       <c r="H211" t="n">
-        <v>0.7293421890876366</v>
+        <v>0.6640008650769446</v>
       </c>
       <c r="I211" t="n">
-        <v>0.6148405868060798</v>
+        <v>0.8611206178184023</v>
       </c>
       <c r="J211" t="n">
         <v>26</v>
@@ -7632,28 +7632,28 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0.08249829263781258</v>
+        <v>0.2237996792607687</v>
       </c>
       <c r="C212" t="n">
-        <v>0.006055949478912911</v>
+        <v>0.2085365465302601</v>
       </c>
       <c r="D212" t="n">
-        <v>0.1033158340714862</v>
+        <v>0.2705943386063939</v>
       </c>
       <c r="E212" t="n">
-        <v>0.1090679850559718</v>
+        <v>0.2704664981987734</v>
       </c>
       <c r="F212" t="n">
-        <v>0.08584595858519375</v>
+        <v>0.2237996792607687</v>
       </c>
       <c r="G212" t="n">
-        <v>0.5735870280262743</v>
+        <v>1</v>
       </c>
       <c r="H212" t="n">
-        <v>0.7293421890876366</v>
+        <v>0.6640008650769446</v>
       </c>
       <c r="I212" t="n">
-        <v>0.6148405868060798</v>
+        <v>0.8611206178184023</v>
       </c>
       <c r="J212" t="n">
         <v>26</v>
@@ -7666,28 +7666,28 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0.08081204977859482</v>
+        <v>0.2448601126616749</v>
       </c>
       <c r="C213" t="n">
-        <v>0.05657035606663063</v>
+        <v>0.2914543006863273</v>
       </c>
       <c r="D213" t="n">
-        <v>0.09102383528821803</v>
+        <v>0.258239844804209</v>
       </c>
       <c r="E213" t="n">
-        <v>0.08292581026532428</v>
+        <v>0.2504518786265465</v>
       </c>
       <c r="F213" t="n">
-        <v>0.06576729365440415</v>
+        <v>0.2497783381157911</v>
       </c>
       <c r="G213" t="n">
-        <v>0.5735870280262743</v>
+        <v>1</v>
       </c>
       <c r="H213" t="n">
-        <v>0.7293421890876366</v>
+        <v>0.6640008650769446</v>
       </c>
       <c r="I213" t="n">
-        <v>0.6148405868060798</v>
+        <v>0.8611206178184023</v>
       </c>
       <c r="J213" t="n">
         <v>26</v>
@@ -7700,28 +7700,28 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0.09876046057780918</v>
+        <v>0.232765538027763</v>
       </c>
       <c r="C214" t="n">
-        <v>0.008283231562176153</v>
+        <v>0.2188366846321574</v>
       </c>
       <c r="D214" t="n">
-        <v>0.1190268580749319</v>
+        <v>0.2415557302190499</v>
       </c>
       <c r="E214" t="n">
-        <v>0.1292100967166684</v>
+        <v>0.2299453498448562</v>
       </c>
       <c r="F214" t="n">
-        <v>0.1027179530194767</v>
+        <v>0.2405835711677942</v>
       </c>
       <c r="G214" t="n">
-        <v>0.5735870280262743</v>
+        <v>1</v>
       </c>
       <c r="H214" t="n">
-        <v>0.7293421890876366</v>
+        <v>0.6640008650769446</v>
       </c>
       <c r="I214" t="n">
-        <v>0.6148405868060798</v>
+        <v>0.8611206178184023</v>
       </c>
       <c r="J214" t="n">
         <v>26</v>
@@ -7734,28 +7734,28 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0.08954208281907293</v>
+        <v>0.3256407981810327</v>
       </c>
       <c r="C215" t="n">
-        <v>0.009033845538317625</v>
+        <v>0.2343067484871397</v>
       </c>
       <c r="D215" t="n">
-        <v>0.1117258965832605</v>
+        <v>0.325574804032441</v>
       </c>
       <c r="E215" t="n">
-        <v>0.1042348425946081</v>
+        <v>0.3285027288577074</v>
       </c>
       <c r="F215" t="n">
-        <v>0.08954208281907293</v>
+        <v>0.3256407981810327</v>
       </c>
       <c r="G215" t="n">
-        <v>0.5735870280262743</v>
+        <v>1</v>
       </c>
       <c r="H215" t="n">
-        <v>0.7293421890876366</v>
+        <v>0.6640008650769446</v>
       </c>
       <c r="I215" t="n">
-        <v>0.6148405868060798</v>
+        <v>0.8611206178184023</v>
       </c>
       <c r="J215" t="n">
         <v>26</v>
@@ -7768,28 +7768,28 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0.06032241985904425</v>
+        <v>0.0800061450328802</v>
       </c>
       <c r="C216" t="n">
-        <v>0.08022616418347181</v>
+        <v>0.07638723320936944</v>
       </c>
       <c r="D216" t="n">
-        <v>0.06825799678220831</v>
+        <v>0.07937948971514483</v>
       </c>
       <c r="E216" t="n">
-        <v>0.06825799678220831</v>
+        <v>0.07937948971514483</v>
       </c>
       <c r="F216" t="n">
-        <v>0.06032241985904425</v>
+        <v>0.0800061450328802</v>
       </c>
       <c r="G216" t="n">
-        <v>0.5735870280262743</v>
+        <v>1</v>
       </c>
       <c r="H216" t="n">
-        <v>0.7293421890876366</v>
+        <v>0.6640008650769446</v>
       </c>
       <c r="I216" t="n">
-        <v>0.6148405868060798</v>
+        <v>0.8611206178184023</v>
       </c>
       <c r="J216" t="n">
         <v>26</v>
@@ -7802,28 +7802,28 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0.1049505191408755</v>
+        <v>0.2478679769764343</v>
       </c>
       <c r="C217" t="n">
-        <v>0.008030857945625205</v>
+        <v>0.09987179036234653</v>
       </c>
       <c r="D217" t="n">
-        <v>0.1070474322619255</v>
+        <v>0.2480553592608642</v>
       </c>
       <c r="E217" t="n">
-        <v>0.09065231746573675</v>
+        <v>0.2371932379986161</v>
       </c>
       <c r="F217" t="n">
-        <v>0.1021036050159068</v>
+        <v>0.2338346296021336</v>
       </c>
       <c r="G217" t="n">
-        <v>0.5735870280262743</v>
+        <v>1</v>
       </c>
       <c r="H217" t="n">
-        <v>0.7293421890876366</v>
+        <v>0.6640008650769446</v>
       </c>
       <c r="I217" t="n">
-        <v>0.6148405868060798</v>
+        <v>0.8611206178184023</v>
       </c>
       <c r="J217" t="n">
         <v>26</v>
@@ -7836,28 +7836,28 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0.3881143530274027</v>
+        <v>0.4801455797505063</v>
       </c>
       <c r="C218" t="n">
-        <v>0.06646275594971875</v>
+        <v>0.09622531946913662</v>
       </c>
       <c r="D218" t="n">
-        <v>0.4604004270465494</v>
+        <v>0.5299275691087593</v>
       </c>
       <c r="E218" t="n">
-        <v>0.411376791982232</v>
+        <v>0.5561221508138913</v>
       </c>
       <c r="F218" t="n">
-        <v>0.4180288093408159</v>
+        <v>0.3678761402920828</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1625469724360752</v>
+        <v>0.9816847865178717</v>
       </c>
       <c r="H218" t="n">
-        <v>0.7730348838689005</v>
+        <v>0.7591877249681044</v>
       </c>
       <c r="I218" t="n">
-        <v>0.6085030698113622</v>
+        <v>0.7970974535029363</v>
       </c>
       <c r="J218" t="n">
         <v>27</v>
@@ -7870,28 +7870,28 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0.4134150614948872</v>
+        <v>0.6024980219610099</v>
       </c>
       <c r="C219" t="n">
-        <v>0.0607162478191095</v>
+        <v>0.2839171020182304</v>
       </c>
       <c r="D219" t="n">
-        <v>0.42134177924507</v>
+        <v>0.6396309937541875</v>
       </c>
       <c r="E219" t="n">
-        <v>0.4048647224909455</v>
+        <v>0.6249515576553961</v>
       </c>
       <c r="F219" t="n">
-        <v>0.3127398422312806</v>
+        <v>0.4640248002283386</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1625469724360752</v>
+        <v>0.9816847865178717</v>
       </c>
       <c r="H219" t="n">
-        <v>0.7730348838689005</v>
+        <v>0.7591877249681044</v>
       </c>
       <c r="I219" t="n">
-        <v>0.6085030698113622</v>
+        <v>0.7970974535029363</v>
       </c>
       <c r="J219" t="n">
         <v>27</v>
@@ -7904,28 +7904,28 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0.09792327005917717</v>
+        <v>0.1892259017062304</v>
       </c>
       <c r="C220" t="n">
-        <v>0.02722568238491852</v>
+        <v>0.09717593153841556</v>
       </c>
       <c r="D220" t="n">
-        <v>0.07127030385284393</v>
+        <v>0.1972811865427843</v>
       </c>
       <c r="E220" t="n">
-        <v>0.09887649602774469</v>
+        <v>0.1905501411952757</v>
       </c>
       <c r="F220" t="n">
-        <v>0.09914921415185518</v>
+        <v>0.1892259017062304</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1625469724360752</v>
+        <v>0.9816847865178717</v>
       </c>
       <c r="H220" t="n">
-        <v>0.7730348838689005</v>
+        <v>0.7591877249681044</v>
       </c>
       <c r="I220" t="n">
-        <v>0.6085030698113622</v>
+        <v>0.7970974535029363</v>
       </c>
       <c r="J220" t="n">
         <v>27</v>
@@ -7938,28 +7938,28 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0.09150000748971036</v>
+        <v>0.1880205330688093</v>
       </c>
       <c r="C221" t="n">
-        <v>-0.0009201107427525256</v>
+        <v>0.1959945049500131</v>
       </c>
       <c r="D221" t="n">
-        <v>0.07981600884198377</v>
+        <v>0.1937018937915453</v>
       </c>
       <c r="E221" t="n">
-        <v>0.08395956879393315</v>
+        <v>0.1849685632976577</v>
       </c>
       <c r="F221" t="n">
-        <v>0.07887352869683736</v>
+        <v>0.1869965989332023</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1625469724360752</v>
+        <v>0.9816847865178717</v>
       </c>
       <c r="H221" t="n">
-        <v>0.7730348838689005</v>
+        <v>0.7591877249681044</v>
       </c>
       <c r="I221" t="n">
-        <v>0.6085030698113622</v>
+        <v>0.7970974535029363</v>
       </c>
       <c r="J221" t="n">
         <v>27</v>
@@ -7972,28 +7972,28 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0.09873844444635801</v>
+        <v>0.1682892032538779</v>
       </c>
       <c r="C222" t="n">
-        <v>0.03542277563788834</v>
+        <v>0.09236131939859714</v>
       </c>
       <c r="D222" t="n">
-        <v>0.1076056974585983</v>
+        <v>0.180717279378941</v>
       </c>
       <c r="E222" t="n">
-        <v>0.08971542504436197</v>
+        <v>0.1715668544467603</v>
       </c>
       <c r="F222" t="n">
-        <v>0.07801375765622999</v>
+        <v>0.1728653248354695</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1625469724360752</v>
+        <v>0.9816847865178717</v>
       </c>
       <c r="H222" t="n">
-        <v>0.7730348838689005</v>
+        <v>0.7591877249681044</v>
       </c>
       <c r="I222" t="n">
-        <v>0.6085030698113622</v>
+        <v>0.7970974535029363</v>
       </c>
       <c r="J222" t="n">
         <v>27</v>
@@ -8006,28 +8006,28 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0.1010746975279982</v>
+        <v>0.2187289550001814</v>
       </c>
       <c r="C223" t="n">
-        <v>0.007686046972004089</v>
+        <v>0.1872846612406045</v>
       </c>
       <c r="D223" t="n">
-        <v>0.1342005314384129</v>
+        <v>0.2160426201877483</v>
       </c>
       <c r="E223" t="n">
-        <v>0.1266482412930756</v>
+        <v>0.2222576662213487</v>
       </c>
       <c r="F223" t="n">
-        <v>0.1010746975279982</v>
+        <v>0.2187289550001814</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1625469724360752</v>
+        <v>0.9816847865178717</v>
       </c>
       <c r="H223" t="n">
-        <v>0.7730348838689005</v>
+        <v>0.7591877249681044</v>
       </c>
       <c r="I223" t="n">
-        <v>0.6085030698113622</v>
+        <v>0.7970974535029363</v>
       </c>
       <c r="J223" t="n">
         <v>27</v>
@@ -8040,28 +8040,28 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0.04417066254422478</v>
+        <v>0.07416359157054082</v>
       </c>
       <c r="C224" t="n">
-        <v>0.05163672791060212</v>
+        <v>0.06613297771800389</v>
       </c>
       <c r="D224" t="n">
-        <v>0.04077157022022295</v>
+        <v>0.06757980107446103</v>
       </c>
       <c r="E224" t="n">
-        <v>0.04077157022022295</v>
+        <v>0.07013053204917767</v>
       </c>
       <c r="F224" t="n">
-        <v>0.04417066254422478</v>
+        <v>0.07416359157054082</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1625469724360752</v>
+        <v>0.9816847865178717</v>
       </c>
       <c r="H224" t="n">
-        <v>0.7730348838689005</v>
+        <v>0.7591877249681044</v>
       </c>
       <c r="I224" t="n">
-        <v>0.6085030698113622</v>
+        <v>0.7970974535029363</v>
       </c>
       <c r="J224" t="n">
         <v>27</v>
@@ -8074,28 +8074,28 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0.1046941841497254</v>
+        <v>0.1461237188254016</v>
       </c>
       <c r="C225" t="n">
-        <v>0.02078972345185896</v>
+        <v>0.0633948254218506</v>
       </c>
       <c r="D225" t="n">
-        <v>0.0974932311529712</v>
+        <v>0.1416862236466964</v>
       </c>
       <c r="E225" t="n">
-        <v>0.108965166038692</v>
+        <v>0.1360870112647083</v>
       </c>
       <c r="F225" t="n">
-        <v>0.1074610149933721</v>
+        <v>0.1326328188091337</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1625469724360752</v>
+        <v>0.9816847865178717</v>
       </c>
       <c r="H225" t="n">
-        <v>0.7730348838689005</v>
+        <v>0.7591877249681044</v>
       </c>
       <c r="I225" t="n">
-        <v>0.6085030698113622</v>
+        <v>0.7970974535029363</v>
       </c>
       <c r="J225" t="n">
         <v>27</v>
@@ -8108,28 +8108,28 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>0.2661111998003658</v>
+        <v>0.2964301704174562</v>
       </c>
       <c r="C226" t="n">
-        <v>0.03866676546937121</v>
+        <v>0.01883024919954131</v>
       </c>
       <c r="D226" t="n">
-        <v>0.3189889025174943</v>
+        <v>0.3257672901576366</v>
       </c>
       <c r="E226" t="n">
-        <v>0.3237645309095659</v>
+        <v>0.3121311957140717</v>
       </c>
       <c r="F226" t="n">
-        <v>0.3220895186377107</v>
+        <v>0.3231420040942707</v>
       </c>
       <c r="G226" t="n">
-        <v>0.0707222063294027</v>
+        <v>0.19895233625796</v>
       </c>
       <c r="H226" t="n">
-        <v>0.6568173708331153</v>
+        <v>0.7960498241226677</v>
       </c>
       <c r="I226" t="n">
-        <v>0.506880262013097</v>
+        <v>0.5354730885288835</v>
       </c>
       <c r="J226" t="n">
         <v>28</v>
@@ -8142,28 +8142,28 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>0.423216082461812</v>
+        <v>0.3643777089006549</v>
       </c>
       <c r="C227" t="n">
-        <v>0.04071007482335337</v>
+        <v>0.04539044411588444</v>
       </c>
       <c r="D227" t="n">
-        <v>0.3840905994400713</v>
+        <v>0.3982430559904342</v>
       </c>
       <c r="E227" t="n">
-        <v>0.3709401967766579</v>
+        <v>0.419375714753297</v>
       </c>
       <c r="F227" t="n">
-        <v>0.3926152411094118</v>
+        <v>0.3441447607245974</v>
       </c>
       <c r="G227" t="n">
-        <v>0.0707222063294027</v>
+        <v>0.19895233625796</v>
       </c>
       <c r="H227" t="n">
-        <v>0.6568173708331153</v>
+        <v>0.7960498241226677</v>
       </c>
       <c r="I227" t="n">
-        <v>0.506880262013097</v>
+        <v>0.5354730885288835</v>
       </c>
       <c r="J227" t="n">
         <v>28</v>
@@ -8176,28 +8176,28 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>0.0637947333354094</v>
+        <v>0.0444036764171241</v>
       </c>
       <c r="C228" t="n">
-        <v>0.02542568548018402</v>
+        <v>0.01945146201233265</v>
       </c>
       <c r="D228" t="n">
-        <v>0.08014275473261154</v>
+        <v>0.07230083850979421</v>
       </c>
       <c r="E228" t="n">
-        <v>0.05709014751047579</v>
+        <v>0.05389964551909174</v>
       </c>
       <c r="F228" t="n">
-        <v>0.0637947333354094</v>
+        <v>0.03675052046444034</v>
       </c>
       <c r="G228" t="n">
-        <v>0.0707222063294027</v>
+        <v>0.19895233625796</v>
       </c>
       <c r="H228" t="n">
-        <v>0.6568173708331153</v>
+        <v>0.7960498241226677</v>
       </c>
       <c r="I228" t="n">
-        <v>0.506880262013097</v>
+        <v>0.5354730885288835</v>
       </c>
       <c r="J228" t="n">
         <v>28</v>
@@ -8210,28 +8210,28 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0.01542270960677808</v>
+        <v>0.01728732239391142</v>
       </c>
       <c r="C229" t="n">
-        <v>-0.003718836960399827</v>
+        <v>0.000109043384170527</v>
       </c>
       <c r="D229" t="n">
-        <v>0.005560954073813983</v>
+        <v>0.0273118247021339</v>
       </c>
       <c r="E229" t="n">
-        <v>0.01969810652832374</v>
+        <v>0.02540173377541271</v>
       </c>
       <c r="F229" t="n">
-        <v>0.00646904805482422</v>
+        <v>0.0216911852368734</v>
       </c>
       <c r="G229" t="n">
-        <v>0.0707222063294027</v>
+        <v>0.19895233625796</v>
       </c>
       <c r="H229" t="n">
-        <v>0.6568173708331153</v>
+        <v>0.7960498241226677</v>
       </c>
       <c r="I229" t="n">
-        <v>0.506880262013097</v>
+        <v>0.5354730885288835</v>
       </c>
       <c r="J229" t="n">
         <v>28</v>
@@ -8244,28 +8244,28 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>0.06008728618522737</v>
+        <v>0.05092654178374432</v>
       </c>
       <c r="C230" t="n">
-        <v>0.01893700117563883</v>
+        <v>0.001403802881879514</v>
       </c>
       <c r="D230" t="n">
-        <v>0.07353017837922236</v>
+        <v>0.05380357363363639</v>
       </c>
       <c r="E230" t="n">
-        <v>0.07297148087587732</v>
+        <v>0.0515704071962132</v>
       </c>
       <c r="F230" t="n">
-        <v>0.07324088124255823</v>
+        <v>0.05118908219737489</v>
       </c>
       <c r="G230" t="n">
-        <v>0.0707222063294027</v>
+        <v>0.19895233625796</v>
       </c>
       <c r="H230" t="n">
-        <v>0.6568173708331153</v>
+        <v>0.7960498241226677</v>
       </c>
       <c r="I230" t="n">
-        <v>0.506880262013097</v>
+        <v>0.5354730885288835</v>
       </c>
       <c r="J230" t="n">
         <v>28</v>
@@ -8278,28 +8278,28 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0.05564053479745473</v>
+        <v>0.05391177315422371</v>
       </c>
       <c r="C231" t="n">
-        <v>-0.002727519345192999</v>
+        <v>-1.69611512920392e-05</v>
       </c>
       <c r="D231" t="n">
-        <v>0.06748681339933085</v>
+        <v>0.06078766814955823</v>
       </c>
       <c r="E231" t="n">
-        <v>0.08473070176666408</v>
+        <v>0.05687745494931939</v>
       </c>
       <c r="F231" t="n">
-        <v>0.05564053479745473</v>
+        <v>0.05391177315422371</v>
       </c>
       <c r="G231" t="n">
-        <v>0.0707222063294027</v>
+        <v>0.19895233625796</v>
       </c>
       <c r="H231" t="n">
-        <v>0.6568173708331153</v>
+        <v>0.7960498241226677</v>
       </c>
       <c r="I231" t="n">
-        <v>0.506880262013097</v>
+        <v>0.5354730885288835</v>
       </c>
       <c r="J231" t="n">
         <v>28</v>
@@ -8312,28 +8312,28 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0.02613902618311151</v>
+        <v>0.01615585150336095</v>
       </c>
       <c r="C232" t="n">
-        <v>0.02590445923282646</v>
+        <v>0.01133798327403051</v>
       </c>
       <c r="D232" t="n">
-        <v>0.03710894320994643</v>
+        <v>0.01307315771566242</v>
       </c>
       <c r="E232" t="n">
-        <v>0.03710894320994643</v>
+        <v>0.01331058466391002</v>
       </c>
       <c r="F232" t="n">
-        <v>0.02613902618311151</v>
+        <v>0.01615585150336095</v>
       </c>
       <c r="G232" t="n">
-        <v>0.0707222063294027</v>
+        <v>0.19895233625796</v>
       </c>
       <c r="H232" t="n">
-        <v>0.6568173708331153</v>
+        <v>0.7960498241226677</v>
       </c>
       <c r="I232" t="n">
-        <v>0.506880262013097</v>
+        <v>0.5354730885288835</v>
       </c>
       <c r="J232" t="n">
         <v>28</v>
@@ -8346,31 +8346,1119 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0.0759791442218111</v>
+        <v>0.07190801674132749</v>
       </c>
       <c r="C233" t="n">
-        <v>0.0232562515338506</v>
+        <v>0.02459775879540312</v>
       </c>
       <c r="D233" t="n">
-        <v>0.07772108506812106</v>
+        <v>0.0774981264319938</v>
       </c>
       <c r="E233" t="n">
-        <v>0.05454335769478279</v>
+        <v>0.07410140501014598</v>
       </c>
       <c r="F233" t="n">
-        <v>0.07729620090146067</v>
+        <v>0.06142982496535829</v>
       </c>
       <c r="G233" t="n">
-        <v>0.0707222063294027</v>
+        <v>0.19895233625796</v>
       </c>
       <c r="H233" t="n">
-        <v>0.6568173708331153</v>
+        <v>0.7960498241226677</v>
       </c>
       <c r="I233" t="n">
-        <v>0.506880262013097</v>
+        <v>0.5354730885288835</v>
       </c>
       <c r="J233" t="n">
         <v>28</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>kamada_kawai</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>0.3181109945044674</v>
+      </c>
+      <c r="C234" t="n">
+        <v>0.03980801571273054</v>
+      </c>
+      <c r="D234" t="n">
+        <v>0.3385207172023334</v>
+      </c>
+      <c r="E234" t="n">
+        <v>0.3305127422952544</v>
+      </c>
+      <c r="F234" t="n">
+        <v>0.2434299934464311</v>
+      </c>
+      <c r="G234" t="n">
+        <v>0.6704222691100598</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0.7742231698960549</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0.670383348755946</v>
+      </c>
+      <c r="J234" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>spring</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>0.3780366631876156</v>
+      </c>
+      <c r="C235" t="n">
+        <v>0.1208134657567846</v>
+      </c>
+      <c r="D235" t="n">
+        <v>0.4407121764503166</v>
+      </c>
+      <c r="E235" t="n">
+        <v>0.4362360002270166</v>
+      </c>
+      <c r="F235" t="n">
+        <v>0.1735471688515507</v>
+      </c>
+      <c r="G235" t="n">
+        <v>0.6704222691100598</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0.7742231698960549</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0.670383348755946</v>
+      </c>
+      <c r="J235" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>davidson_harel</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>0.1009223028157646</v>
+      </c>
+      <c r="C236" t="n">
+        <v>0.03309877577937049</v>
+      </c>
+      <c r="D236" t="n">
+        <v>0.1060583947503536</v>
+      </c>
+      <c r="E236" t="n">
+        <v>0.09989613675431294</v>
+      </c>
+      <c r="F236" t="n">
+        <v>0.1015629390902646</v>
+      </c>
+      <c r="G236" t="n">
+        <v>0.6704222691100598</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0.7742231698960549</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0.670383348755946</v>
+      </c>
+      <c r="J236" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>drl</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>0.07377656417798453</v>
+      </c>
+      <c r="C237" t="n">
+        <v>0.0204990925982919</v>
+      </c>
+      <c r="D237" t="n">
+        <v>0.09458855041883363</v>
+      </c>
+      <c r="E237" t="n">
+        <v>0.09557437685614738</v>
+      </c>
+      <c r="F237" t="n">
+        <v>0.06172696863670322</v>
+      </c>
+      <c r="G237" t="n">
+        <v>0.6704222691100598</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0.7742231698960549</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0.670383348755946</v>
+      </c>
+      <c r="J237" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>fruchterman_reingold</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>0.09029728614220013</v>
+      </c>
+      <c r="C238" t="n">
+        <v>0.02037540771652779</v>
+      </c>
+      <c r="D238" t="n">
+        <v>0.08113597490239251</v>
+      </c>
+      <c r="E238" t="n">
+        <v>0.06092588059686967</v>
+      </c>
+      <c r="F238" t="n">
+        <v>0.1014757159093872</v>
+      </c>
+      <c r="G238" t="n">
+        <v>0.6704222691100598</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0.7742231698960549</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0.670383348755946</v>
+      </c>
+      <c r="J238" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>graphopt</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>0.08031059337899825</v>
+      </c>
+      <c r="C239" t="n">
+        <v>0.02761310322112537</v>
+      </c>
+      <c r="D239" t="n">
+        <v>0.08245846315025393</v>
+      </c>
+      <c r="E239" t="n">
+        <v>0.08642032666127707</v>
+      </c>
+      <c r="F239" t="n">
+        <v>0.08031059337899825</v>
+      </c>
+      <c r="G239" t="n">
+        <v>0.6704222691100598</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0.7742231698960549</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0.670383348755946</v>
+      </c>
+      <c r="J239" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>lgl</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>0.01512804462681774</v>
+      </c>
+      <c r="C240" t="n">
+        <v>0.02308915951869772</v>
+      </c>
+      <c r="D240" t="n">
+        <v>0.01617569479609813</v>
+      </c>
+      <c r="E240" t="n">
+        <v>0.01421284278527012</v>
+      </c>
+      <c r="F240" t="n">
+        <v>0.01512804462681774</v>
+      </c>
+      <c r="G240" t="n">
+        <v>0.6704222691100598</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0.7742231698960549</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0.670383348755946</v>
+      </c>
+      <c r="J240" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>mds</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>0.07913918381066429</v>
+      </c>
+      <c r="C241" t="n">
+        <v>0.02635990101120594</v>
+      </c>
+      <c r="D241" t="n">
+        <v>0.08374169807588198</v>
+      </c>
+      <c r="E241" t="n">
+        <v>0.08020615865414756</v>
+      </c>
+      <c r="F241" t="n">
+        <v>0.06925638298372791</v>
+      </c>
+      <c r="G241" t="n">
+        <v>0.6704222691100598</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0.7742231698960549</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0.670383348755946</v>
+      </c>
+      <c r="J241" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>kamada_kawai</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>0.4565433603426799</v>
+      </c>
+      <c r="C242" t="n">
+        <v>0.05017957124136067</v>
+      </c>
+      <c r="D242" t="n">
+        <v>0.4892208535782407</v>
+      </c>
+      <c r="E242" t="n">
+        <v>0.4724257791093347</v>
+      </c>
+      <c r="F242" t="n">
+        <v>0.4395065190204924</v>
+      </c>
+      <c r="G242" t="n">
+        <v>0.9912643179152957</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0.9038989060425525</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0.6292103340913215</v>
+      </c>
+      <c r="J242" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>spring</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>0.5393726984896411</v>
+      </c>
+      <c r="C243" t="n">
+        <v>0.09688769027550528</v>
+      </c>
+      <c r="D243" t="n">
+        <v>0.5554252648130237</v>
+      </c>
+      <c r="E243" t="n">
+        <v>0.5503196254118511</v>
+      </c>
+      <c r="F243" t="n">
+        <v>0.3622228607732587</v>
+      </c>
+      <c r="G243" t="n">
+        <v>0.9912643179152957</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0.9038989060425525</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0.6292103340913215</v>
+      </c>
+      <c r="J243" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>davidson_harel</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>0.09038767674373813</v>
+      </c>
+      <c r="C244" t="n">
+        <v>0.02727591064847984</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.08849986622841774</v>
+      </c>
+      <c r="E244" t="n">
+        <v>0.05593011904973272</v>
+      </c>
+      <c r="F244" t="n">
+        <v>0.09153002247767836</v>
+      </c>
+      <c r="G244" t="n">
+        <v>0.9912643179152957</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0.9038989060425525</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0.6292103340913215</v>
+      </c>
+      <c r="J244" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>drl</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>0.05444948658399075</v>
+      </c>
+      <c r="C245" t="n">
+        <v>0.07064671420734833</v>
+      </c>
+      <c r="D245" t="n">
+        <v>0.04813050130934807</v>
+      </c>
+      <c r="E245" t="n">
+        <v>0.04544094618542095</v>
+      </c>
+      <c r="F245" t="n">
+        <v>0.04311711024771416</v>
+      </c>
+      <c r="G245" t="n">
+        <v>0.9912643179152957</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0.9038989060425525</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0.6292103340913215</v>
+      </c>
+      <c r="J245" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>fruchterman_reingold</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>0.08824240918722651</v>
+      </c>
+      <c r="C246" t="n">
+        <v>0.01169719897236705</v>
+      </c>
+      <c r="D246" t="n">
+        <v>0.07509598783316433</v>
+      </c>
+      <c r="E246" t="n">
+        <v>0.07978436660535382</v>
+      </c>
+      <c r="F246" t="n">
+        <v>0.07219450543464805</v>
+      </c>
+      <c r="G246" t="n">
+        <v>0.9912643179152957</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0.9038989060425525</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0.6292103340913215</v>
+      </c>
+      <c r="J246" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>graphopt</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>0.1062156755539086</v>
+      </c>
+      <c r="C247" t="n">
+        <v>0.03137441059122982</v>
+      </c>
+      <c r="D247" t="n">
+        <v>0.09174068359425117</v>
+      </c>
+      <c r="E247" t="n">
+        <v>0.09005183475899473</v>
+      </c>
+      <c r="F247" t="n">
+        <v>0.1062156755539086</v>
+      </c>
+      <c r="G247" t="n">
+        <v>0.9912643179152957</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0.9038989060425525</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0.6292103340913215</v>
+      </c>
+      <c r="J247" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>lgl</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>0.03968147366353926</v>
+      </c>
+      <c r="C248" t="n">
+        <v>0.04835377765593162</v>
+      </c>
+      <c r="D248" t="n">
+        <v>0.02665208175432498</v>
+      </c>
+      <c r="E248" t="n">
+        <v>0.03137359175587619</v>
+      </c>
+      <c r="F248" t="n">
+        <v>0.03968147366353926</v>
+      </c>
+      <c r="G248" t="n">
+        <v>0.9912643179152957</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0.9038989060425525</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0.6292103340913215</v>
+      </c>
+      <c r="J248" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>mds</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>0.05935281912287662</v>
+      </c>
+      <c r="C249" t="n">
+        <v>0.04916672751543619</v>
+      </c>
+      <c r="D249" t="n">
+        <v>0.04628457615258665</v>
+      </c>
+      <c r="E249" t="n">
+        <v>0.04990799875703836</v>
+      </c>
+      <c r="F249" t="n">
+        <v>0.06371613557392861</v>
+      </c>
+      <c r="G249" t="n">
+        <v>0.9912643179152957</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0.9038989060425525</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0.6292103340913215</v>
+      </c>
+      <c r="J249" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>kamada_kawai</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>0.3990055147398784</v>
+      </c>
+      <c r="C250" t="n">
+        <v>0.03299678228462518</v>
+      </c>
+      <c r="D250" t="n">
+        <v>0.3561805931997173</v>
+      </c>
+      <c r="E250" t="n">
+        <v>0.36480744312374</v>
+      </c>
+      <c r="F250" t="n">
+        <v>0.3447061767179521</v>
+      </c>
+      <c r="G250" t="n">
+        <v>0.5568404853426956</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0.7844452944909704</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0.5366974292673915</v>
+      </c>
+      <c r="J250" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>spring</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>0.4830905956944275</v>
+      </c>
+      <c r="C251" t="n">
+        <v>0.06689317970416812</v>
+      </c>
+      <c r="D251" t="n">
+        <v>0.5690501229579515</v>
+      </c>
+      <c r="E251" t="n">
+        <v>0.5702489789943861</v>
+      </c>
+      <c r="F251" t="n">
+        <v>0.3039522837663653</v>
+      </c>
+      <c r="G251" t="n">
+        <v>0.5568404853426956</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0.7844452944909704</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0.5366974292673915</v>
+      </c>
+      <c r="J251" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>davidson_harel</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>0.06063122274434883</v>
+      </c>
+      <c r="C252" t="n">
+        <v>0.0381590933859068</v>
+      </c>
+      <c r="D252" t="n">
+        <v>0.0760681197489556</v>
+      </c>
+      <c r="E252" t="n">
+        <v>0.07911762409745368</v>
+      </c>
+      <c r="F252" t="n">
+        <v>0.06784870501206168</v>
+      </c>
+      <c r="G252" t="n">
+        <v>0.5568404853426956</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0.7844452944909704</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0.5366974292673915</v>
+      </c>
+      <c r="J252" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>drl</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>0.05243414818019232</v>
+      </c>
+      <c r="C253" t="n">
+        <v>0.01592945732795428</v>
+      </c>
+      <c r="D253" t="n">
+        <v>0.06335681697665073</v>
+      </c>
+      <c r="E253" t="n">
+        <v>0.06455634610391919</v>
+      </c>
+      <c r="F253" t="n">
+        <v>0.05119915840827222</v>
+      </c>
+      <c r="G253" t="n">
+        <v>0.5568404853426956</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0.7844452944909704</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0.5366974292673915</v>
+      </c>
+      <c r="J253" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>fruchterman_reingold</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>0.07945763871612899</v>
+      </c>
+      <c r="C254" t="n">
+        <v>0.001583465024043833</v>
+      </c>
+      <c r="D254" t="n">
+        <v>0.09043110604400051</v>
+      </c>
+      <c r="E254" t="n">
+        <v>0.08460002293138828</v>
+      </c>
+      <c r="F254" t="n">
+        <v>0.05130613572603584</v>
+      </c>
+      <c r="G254" t="n">
+        <v>0.5568404853426956</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0.7844452944909704</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0.5366974292673915</v>
+      </c>
+      <c r="J254" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>graphopt</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>0.04008187163616635</v>
+      </c>
+      <c r="C255" t="n">
+        <v>0.001203373651505768</v>
+      </c>
+      <c r="D255" t="n">
+        <v>0.04293058685362831</v>
+      </c>
+      <c r="E255" t="n">
+        <v>0.04384943878329287</v>
+      </c>
+      <c r="F255" t="n">
+        <v>0.04008187163616635</v>
+      </c>
+      <c r="G255" t="n">
+        <v>0.5568404853426956</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0.7844452944909704</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0.5366974292673915</v>
+      </c>
+      <c r="J255" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>lgl</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>0.0453430066685898</v>
+      </c>
+      <c r="C256" t="n">
+        <v>0.06314190756261354</v>
+      </c>
+      <c r="D256" t="n">
+        <v>0.03417660027702057</v>
+      </c>
+      <c r="E256" t="n">
+        <v>0.03177790629733088</v>
+      </c>
+      <c r="F256" t="n">
+        <v>0.0453430066685898</v>
+      </c>
+      <c r="G256" t="n">
+        <v>0.5568404853426956</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0.7844452944909704</v>
+      </c>
+      <c r="I256" t="n">
+        <v>0.5366974292673915</v>
+      </c>
+      <c r="J256" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>mds</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>0.07476628957929066</v>
+      </c>
+      <c r="C257" t="n">
+        <v>0.02556492261358816</v>
+      </c>
+      <c r="D257" t="n">
+        <v>0.0945873846692615</v>
+      </c>
+      <c r="E257" t="n">
+        <v>0.09438208675552108</v>
+      </c>
+      <c r="F257" t="n">
+        <v>0.09489980019569161</v>
+      </c>
+      <c r="G257" t="n">
+        <v>0.5568404853426956</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0.7844452944909704</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0.5366974292673915</v>
+      </c>
+      <c r="J257" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>kamada_kawai</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>0.4051285254296373</v>
+      </c>
+      <c r="C258" t="n">
+        <v>0.06748559234905485</v>
+      </c>
+      <c r="D258" t="n">
+        <v>0.4332093424121184</v>
+      </c>
+      <c r="E258" t="n">
+        <v>0.4362042902013624</v>
+      </c>
+      <c r="F258" t="n">
+        <v>0.3972604026779599</v>
+      </c>
+      <c r="G258" t="n">
+        <v>0.9395682783918463</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0.7998163271003882</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0.5950336241253389</v>
+      </c>
+      <c r="J258" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>spring</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>0.4913228656259545</v>
+      </c>
+      <c r="C259" t="n">
+        <v>0.1135168072558217</v>
+      </c>
+      <c r="D259" t="n">
+        <v>0.4840771581250028</v>
+      </c>
+      <c r="E259" t="n">
+        <v>0.4678490172788351</v>
+      </c>
+      <c r="F259" t="n">
+        <v>0.3666873777794475</v>
+      </c>
+      <c r="G259" t="n">
+        <v>0.9395682783918463</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0.7998163271003882</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0.5950336241253389</v>
+      </c>
+      <c r="J259" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>davidson_harel</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>0.08367233429754843</v>
+      </c>
+      <c r="C260" t="n">
+        <v>0.02566713654460862</v>
+      </c>
+      <c r="D260" t="n">
+        <v>0.06119099058738413</v>
+      </c>
+      <c r="E260" t="n">
+        <v>0.06596129038672502</v>
+      </c>
+      <c r="F260" t="n">
+        <v>0.0880768156886633</v>
+      </c>
+      <c r="G260" t="n">
+        <v>0.9395682783918463</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0.7998163271003882</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0.5950336241253389</v>
+      </c>
+      <c r="J260" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>drl</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>0.1004967216443931</v>
+      </c>
+      <c r="C261" t="n">
+        <v>0.03878002615659469</v>
+      </c>
+      <c r="D261" t="n">
+        <v>0.08854137660610323</v>
+      </c>
+      <c r="E261" t="n">
+        <v>0.09631982989727397</v>
+      </c>
+      <c r="F261" t="n">
+        <v>0.08360049955319898</v>
+      </c>
+      <c r="G261" t="n">
+        <v>0.9395682783918463</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0.7998163271003882</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0.5950336241253389</v>
+      </c>
+      <c r="J261" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>fruchterman_reingold</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>0.08224258161502318</v>
+      </c>
+      <c r="C262" t="n">
+        <v>0.01200896595823222</v>
+      </c>
+      <c r="D262" t="n">
+        <v>0.0823673399996253</v>
+      </c>
+      <c r="E262" t="n">
+        <v>0.07995667402426013</v>
+      </c>
+      <c r="F262" t="n">
+        <v>0.06532113027853745</v>
+      </c>
+      <c r="G262" t="n">
+        <v>0.9395682783918463</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0.7998163271003882</v>
+      </c>
+      <c r="I262" t="n">
+        <v>0.5950336241253389</v>
+      </c>
+      <c r="J262" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>graphopt</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>0.09829331900106733</v>
+      </c>
+      <c r="C263" t="n">
+        <v>0.03783650583294729</v>
+      </c>
+      <c r="D263" t="n">
+        <v>0.08485728276180592</v>
+      </c>
+      <c r="E263" t="n">
+        <v>0.07570557580289097</v>
+      </c>
+      <c r="F263" t="n">
+        <v>0.09829331900106733</v>
+      </c>
+      <c r="G263" t="n">
+        <v>0.9395682783918463</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0.7998163271003882</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0.5950336241253389</v>
+      </c>
+      <c r="J263" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>lgl</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>0.02605059153872896</v>
+      </c>
+      <c r="C264" t="n">
+        <v>0.03284612850814987</v>
+      </c>
+      <c r="D264" t="n">
+        <v>0.02928004328885702</v>
+      </c>
+      <c r="E264" t="n">
+        <v>0.02986493094655819</v>
+      </c>
+      <c r="F264" t="n">
+        <v>0.02605059153872896</v>
+      </c>
+      <c r="G264" t="n">
+        <v>0.9395682783918463</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0.7998163271003882</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0.5950336241253389</v>
+      </c>
+      <c r="J264" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>mds</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>0.1273110594211911</v>
+      </c>
+      <c r="C265" t="n">
+        <v>0.06387983411021528</v>
+      </c>
+      <c r="D265" t="n">
+        <v>0.1145381530874561</v>
+      </c>
+      <c r="E265" t="n">
+        <v>0.1120658985394588</v>
+      </c>
+      <c r="F265" t="n">
+        <v>0.1073536165711984</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.9395682783918463</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0.7998163271003882</v>
+      </c>
+      <c r="I265" t="n">
+        <v>0.5950336241253389</v>
+      </c>
+      <c r="J265" t="n">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
